--- a/FORTRAN_code/TEST_11062015.xlsx
+++ b/FORTRAN_code/TEST_11062015.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1889" uniqueCount="411">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2241" uniqueCount="524">
   <si>
     <t>some minor differences for</t>
   </si>
@@ -502,7 +502,7 @@
     <t>       flxzox</t>
   </si>
   <si>
-    <t> -1.4267e-04</t>
+    <t> -1.5350e-04</t>
   </si>
   <si>
     <t> flxzox</t>
@@ -514,7 +514,7 @@
     <t>      conczox</t>
   </si>
   <si>
-    <t> -1.0202e-16</t>
+    <t> -7.0039e-17</t>
   </si>
   <si>
     <t> conczox</t>
@@ -526,7 +526,7 @@
     <t>     flxswiO2</t>
   </si>
   <si>
-    <t> -3.0159e-04</t>
+    <t> -3.1086e-04</t>
   </si>
   <si>
     <t> flxswiO2</t>
@@ -547,7 +547,7 @@
     <t>      flxzno3</t>
   </si>
   <si>
-    <t> -2.5499e-14</t>
+    <t> 1.2039e-13</t>
   </si>
   <si>
     <t> flxzno3</t>
@@ -559,7 +559,7 @@
     <t>     conczno3</t>
   </si>
   <si>
-    <t> -1.0842e-16</t>
+    <t> -4.8247e-17</t>
   </si>
   <si>
     <t> conczno3</t>
@@ -571,7 +571,7 @@
     <t>    flxswiNO3</t>
   </si>
   <si>
-    <t> 3.7608e-06</t>
+    <t> 5.3895e-06</t>
   </si>
   <si>
     <t> flxswiNO3</t>
@@ -601,7 +601,7 @@
     <t>     conczso4</t>
   </si>
   <si>
-    <t> 2.7712e-05</t>
+    <t> 2.7707e-05</t>
   </si>
   <si>
     <t> conczso4</t>
@@ -613,7 +613,7 @@
     <t>    flxswiSO4</t>
   </si>
   <si>
-    <t> -3.5747e-05</t>
+    <t> -3.6839e-05</t>
   </si>
   <si>
     <t> flxswiso4</t>
@@ -625,7 +625,7 @@
     <t>    flxswiNH4</t>
   </si>
   <si>
-    <t> 6.8250e-06</t>
+    <t> 4.0423e-06</t>
   </si>
   <si>
     <t> flxswiNH4</t>
@@ -640,7 +640,7 @@
     <t>    flxswiH2S</t>
   </si>
   <si>
-    <t> 2.6343e-05</t>
+    <t> 2.7435e-05</t>
   </si>
   <si>
     <t> flxswiH2S </t>
@@ -662,6 +662,345 @@
   </si>
   <si>
     <t> loc_flxswiM </t>
+  </si>
+  <si>
+    <t>585m</t>
+  </si>
+  <si>
+    <t> -4.3858e-04</t>
+  </si>
+  <si>
+    <t>  -4.3857890107848604E-004</t>
+  </si>
+  <si>
+    <t> -1.5987e-04</t>
+  </si>
+  <si>
+    <t>  -1.5986858126404690E-004</t>
+  </si>
+  <si>
+    <t> -2.7871e-04</t>
+  </si>
+  <si>
+    <t>  -2.7871031981443914E-004</t>
+  </si>
+  <si>
+    <t> -2.1928e-13</t>
+  </si>
+  <si>
+    <t>  -2.1928084912758965E-013</t>
+  </si>
+  <si>
+    <t> -2.2726e-04</t>
+  </si>
+  <si>
+    <t>  -2.2726124853497776E-004</t>
+  </si>
+  <si>
+    <t>  -2.2726124875425860E-004</t>
+  </si>
+  <si>
+    <t> -6.0838e-05</t>
+  </si>
+  <si>
+    <t>  -6.0837795512757854E-005</t>
+  </si>
+  <si>
+    <t> -8.6948e-16</t>
+  </si>
+  <si>
+    <t>   1.6154612370034016E-016</t>
+  </si>
+  <si>
+    <t> -5.5872e-05</t>
+  </si>
+  <si>
+    <t>  -5.5871507998491296E-005</t>
+  </si>
+  <si>
+    <t> 2.7337e-17</t>
+  </si>
+  <si>
+    <t>   5.1978228017876207E-013</t>
+  </si>
+  <si>
+    <t> 4.7651e-17</t>
+  </si>
+  <si>
+    <t>  -1.0760706561918632E-017</t>
+  </si>
+  <si>
+    <t> -1.9059e-05</t>
+  </si>
+  <si>
+    <t>  -1.9058844667891644E-005</t>
+  </si>
+  <si>
+    <t> 2.4567e-05</t>
+  </si>
+  <si>
+    <t>   2.4566760971285261E-005</t>
+  </si>
+  <si>
+    <t> -6.7636e-05</t>
+  </si>
+  <si>
+    <t>  -6.7635520091278948E-005</t>
+  </si>
+  <si>
+    <t> 7.7534e-06</t>
+  </si>
+  <si>
+    <t>   7.7534187047360710E-006</t>
+  </si>
+  <si>
+    <t> 6.1804e-05</t>
+  </si>
+  <si>
+    <t>   6.1804265270066309E-005</t>
+  </si>
+  <si>
+    <t>2213m</t>
+  </si>
+  <si>
+    <t> -3.7033e-05</t>
+  </si>
+  <si>
+    <t>  -3.7032877912053744E-005</t>
+  </si>
+  <si>
+    <t> -2.7123e-05</t>
+  </si>
+  <si>
+    <t>  -2.7122534306078347E-005</t>
+  </si>
+  <si>
+    <t> -9.9103e-06</t>
+  </si>
+  <si>
+    <t>  -9.9103436059753935E-006</t>
+  </si>
+  <si>
+    <t> -1.7113e-63</t>
+  </si>
+  <si>
+    <t>  -1.7113177462933024E-063</t>
+  </si>
+  <si>
+    <t> -3.9074e-06</t>
+  </si>
+  <si>
+    <t>  -3.9074059538552805E-006</t>
+  </si>
+  <si>
+    <t> -4.8942e-06</t>
+  </si>
+  <si>
+    <t>  -4.8941866546298763E-006</t>
+  </si>
+  <si>
+    <t> 2.2023e-20</t>
+  </si>
+  <si>
+    <t>   2.3674570875757694E-019</t>
+  </si>
+  <si>
+    <t> -3.9286e-05</t>
+  </si>
+  <si>
+    <t>  -3.9286340840882112E-005</t>
+  </si>
+  <si>
+    <t> -2.6596e-19</t>
+  </si>
+  <si>
+    <t>   3.9328380331655782E-014</t>
+  </si>
+  <si>
+    <t> -1.5882e-20</t>
+  </si>
+  <si>
+    <t>   5.0398460361630870E-020</t>
+  </si>
+  <si>
+    <t> 2.6342e-06</t>
+  </si>
+  <si>
+    <t>   2.6341806962749892E-006</t>
+  </si>
+  <si>
+    <t> 2.7768e-05</t>
+  </si>
+  <si>
+    <t>   2.7768094563509491E-005</t>
+  </si>
+  <si>
+    <t> -1.2758e-06</t>
+  </si>
+  <si>
+    <t>  -1.2758293956718442E-006</t>
+  </si>
+  <si>
+    <t> 1.0344e-07</t>
+  </si>
+  <si>
+    <t>   1.0343567640951907E-007</t>
+  </si>
+  <si>
+    <t> 1.3456e-07</t>
+  </si>
+  <si>
+    <t>   1.3456392657746469E-007</t>
+  </si>
+  <si>
+    <t>MATLAB (when calculated)</t>
+  </si>
+  <si>
+    <t>4298m</t>
+  </si>
+  <si>
+    <t> -3.5067e-05</t>
+  </si>
+  <si>
+    <t>diferent when w calculated</t>
+  </si>
+  <si>
+    <t> -3.2736e-05</t>
+  </si>
+  <si>
+    <t> -2.3308e-06</t>
+  </si>
+  <si>
+    <t>same values when w = 0.05</t>
+  </si>
+  <si>
+    <t> -1.9930e-191</t>
+  </si>
+  <si>
+    <t> -2.1426e-06</t>
+  </si>
+  <si>
+    <t> -2.5534e-06</t>
+  </si>
+  <si>
+    <t> -1.3586e-18</t>
+  </si>
+  <si>
+    <t> -4.0190e-05</t>
+  </si>
+  <si>
+    <t> -1.7104e-19</t>
+  </si>
+  <si>
+    <t> 2.0329e-20</t>
+  </si>
+  <si>
+    <t> 1.4529e-06</t>
+  </si>
+  <si>
+    <t> 2.7994e-05</t>
+  </si>
+  <si>
+    <t> -1.4375e-07</t>
+  </si>
+  <si>
+    <t> 1.9660e-07</t>
+  </si>
+  <si>
+    <t> 2.4441e-09</t>
+  </si>
+  <si>
+    <t>MATLAB (when w = 0.05)</t>
+  </si>
+  <si>
+    <t> -6.0641e-05</t>
+  </si>
+  <si>
+    <t>  -6.0640669844056879E-005</t>
+  </si>
+  <si>
+    <t> -4.1131e-05</t>
+  </si>
+  <si>
+    <t>  -4.1131006327999143E-005</t>
+  </si>
+  <si>
+    <t> -1.9510e-05</t>
+  </si>
+  <si>
+    <t>  -1.9509663516057733E-005</t>
+  </si>
+  <si>
+    <t> -5.6098e-28</t>
+  </si>
+  <si>
+    <t>  -5.6097891686862381E-028</t>
+  </si>
+  <si>
+    <t> -1.9316e-05</t>
+  </si>
+  <si>
+    <t>  -1.9315543913128784E-005</t>
+  </si>
+  <si>
+    <t> -1.2444e-05</t>
+  </si>
+  <si>
+    <t>  -1.2444033623984735E-005</t>
+  </si>
+  <si>
+    <t> 1.6697e-17</t>
+  </si>
+  <si>
+    <t>  -4.3910187985662930E-017</t>
+  </si>
+  <si>
+    <t> -4.4321e-05</t>
+  </si>
+  <si>
+    <t>  -4.4321293324809311E-005</t>
+  </si>
+  <si>
+    <t> -5.1916e-20</t>
+  </si>
+  <si>
+    <t>   3.7163618418541538E-013</t>
+  </si>
+  <si>
+    <t> -2.1169e-17</t>
+  </si>
+  <si>
+    <t>  -5.6378512969246231E-018</t>
+  </si>
+  <si>
+    <t> 1.1301e-08</t>
+  </si>
+  <si>
+    <t>   1.1301299125240939E-008</t>
+  </si>
+  <si>
+    <t> 2.7938e-05</t>
+  </si>
+  <si>
+    <t>   2.7938237866808447E-005</t>
+  </si>
+  <si>
+    <t> -1.6397e-06</t>
+  </si>
+  <si>
+    <t>  -1.6397198354129296E-006</t>
+  </si>
+  <si>
+    <t> 2.6416e-07</t>
+  </si>
+  <si>
+    <t>   2.6415955051152003E-007</t>
+  </si>
+  <si>
+    <t> 4.4972e-07</t>
+  </si>
+  <si>
+    <t>   4.4971976797964377E-007</t>
   </si>
   <si>
     <t>Tol = 10e-10</t>
@@ -1380,7 +1719,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1454,6 +1793,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="168" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1810,9 +2153,11 @@
         <v>41</v>
       </c>
       <c r="I16" s="4"/>
-      <c r="N16" s="0" t="e">
+      <c r="N16" s="0" t="inlineStr">
         <f aca="false">IF(ABS(J16-F16)&lt;N$5,1,999)</f>
-        <v>#VALUE!</v>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1919,9 +2264,11 @@
         <v>41</v>
       </c>
       <c r="I21" s="4"/>
-      <c r="N21" s="0" t="e">
+      <c r="N21" s="0" t="inlineStr">
         <f aca="false">IF(ABS(J21-F21)&lt;N$5,1,999)</f>
-        <v>#VALUE!</v>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2028,9 +2375,11 @@
         <v>41</v>
       </c>
       <c r="I26" s="4"/>
-      <c r="N26" s="0" t="e">
+      <c r="N26" s="0" t="inlineStr">
         <f aca="false">IF(ABS(J26-F26)&lt;N$5,1,999)</f>
-        <v>#VALUE!</v>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2113,9 +2462,11 @@
         <v>41</v>
       </c>
       <c r="I31" s="4"/>
-      <c r="N31" s="0" t="e">
+      <c r="N31" s="0" t="inlineStr">
         <f aca="false">IF(ABS(J31-F31)&lt;N$5,1,999)</f>
-        <v>#VALUE!</v>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2144,9 +2495,11 @@
         <v>41</v>
       </c>
       <c r="I33" s="4"/>
-      <c r="N33" s="0" t="e">
+      <c r="N33" s="0" t="inlineStr">
         <f aca="false">IF(ABS(J33-F33)&lt;N$5,1,999)</f>
-        <v>#VALUE!</v>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2351,9 +2704,11 @@
       <c r="F47" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="N47" s="0" t="e">
+      <c r="N47" s="0" t="inlineStr">
         <f aca="false">IF(ABS(J47-F47)&lt;N$5,1,999)</f>
-        <v>#VALUE!</v>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2435,9 +2790,11 @@
       <c r="F52" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="N52" s="0" t="e">
+      <c r="N52" s="0" t="inlineStr">
         <f aca="false">IF(ABS(J52-F52)&lt;N$5,1,999)</f>
-        <v>#VALUE!</v>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2519,9 +2876,11 @@
       <c r="F57" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="N57" s="0" t="e">
+      <c r="N57" s="0" t="inlineStr">
         <f aca="false">IF(ABS(J57-F57)&lt;N$5,1,999)</f>
-        <v>#VALUE!</v>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2603,9 +2962,11 @@
       <c r="F62" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="N62" s="0" t="e">
+      <c r="N62" s="0" t="inlineStr">
         <f aca="false">IF(ABS(J62-F62)&lt;N$5,1,999)</f>
-        <v>#VALUE!</v>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2633,9 +2994,11 @@
       <c r="F64" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="N64" s="0" t="e">
+      <c r="N64" s="0" t="inlineStr">
         <f aca="false">IF(ABS(J64-F64)&lt;N$5,1,999)</f>
-        <v>#VALUE!</v>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2839,9 +3202,11 @@
       <c r="F77" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="N77" s="0" t="e">
+      <c r="N77" s="0" t="inlineStr">
         <f aca="false">IF(ABS(J77-F77)&lt;N$5,1,999)</f>
-        <v>#VALUE!</v>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2923,9 +3288,11 @@
       <c r="F82" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="N82" s="0" t="e">
+      <c r="N82" s="0" t="inlineStr">
         <f aca="false">IF(ABS(J82-F82)&lt;N$5,1,999)</f>
-        <v>#VALUE!</v>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3007,9 +3374,11 @@
       <c r="F87" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="N87" s="0" t="e">
+      <c r="N87" s="0" t="inlineStr">
         <f aca="false">IF(ABS(J87-F87)&lt;N$5,1,999)</f>
-        <v>#VALUE!</v>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3091,9 +3460,11 @@
       <c r="F92" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="N92" s="0" t="e">
+      <c r="N92" s="0" t="inlineStr">
         <f aca="false">IF(ABS(J92-F92)&lt;N$5,1,999)</f>
-        <v>#VALUE!</v>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3121,9 +3492,11 @@
       <c r="F94" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="N94" s="0" t="e">
+      <c r="N94" s="0" t="inlineStr">
         <f aca="false">IF(ABS(J94-F94)&lt;N$5,1,999)</f>
-        <v>#VALUE!</v>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3327,9 +3700,11 @@
       <c r="F108" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="N108" s="0" t="e">
+      <c r="N108" s="0" t="inlineStr">
         <f aca="false">IF(ABS(J108-F108)&lt;N$5,1,999)</f>
-        <v>#VALUE!</v>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3411,9 +3786,11 @@
       <c r="F113" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="N113" s="0" t="e">
+      <c r="N113" s="0" t="inlineStr">
         <f aca="false">IF(ABS(J113-F113)&lt;N$5,1,999)</f>
-        <v>#VALUE!</v>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3495,9 +3872,11 @@
       <c r="F118" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="N118" s="0" t="e">
+      <c r="N118" s="0" t="inlineStr">
         <f aca="false">IF(ABS(J118-F118)&lt;N$5,1,999)</f>
-        <v>#VALUE!</v>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3579,9 +3958,11 @@
       <c r="F123" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="N123" s="0" t="e">
+      <c r="N123" s="0" t="inlineStr">
         <f aca="false">IF(ABS(J123-F123)&lt;N$5,1,999)</f>
-        <v>#VALUE!</v>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3609,9 +3990,11 @@
       <c r="F125" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="N125" s="0" t="e">
+      <c r="N125" s="0" t="inlineStr">
         <f aca="false">IF(ABS(J125-F125)&lt;N$5,1,999)</f>
-        <v>#VALUE!</v>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3830,9 +4213,11 @@
       <c r="F139" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="N139" s="0" t="e">
+      <c r="N139" s="0" t="inlineStr">
         <f aca="false">IF(ABS(J139-F139)&lt;N$5,1,999)</f>
-        <v>#VALUE!</v>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3914,9 +4299,11 @@
       <c r="F144" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="N144" s="0" t="e">
+      <c r="N144" s="0" t="inlineStr">
         <f aca="false">IF(ABS(J144-F144)&lt;N$5,1,999)</f>
-        <v>#VALUE!</v>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3998,9 +4385,11 @@
       <c r="F149" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="N149" s="0" t="e">
+      <c r="N149" s="0" t="inlineStr">
         <f aca="false">IF(ABS(J149-F149)&lt;N$5,1,999)</f>
-        <v>#VALUE!</v>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4082,9 +4471,11 @@
       <c r="F154" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="N154" s="0" t="e">
+      <c r="N154" s="0" t="inlineStr">
         <f aca="false">IF(ABS(J154-F154)&lt;N$5,1,999)</f>
-        <v>#VALUE!</v>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4112,9 +4503,11 @@
       <c r="F156" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="N156" s="0" t="e">
+      <c r="N156" s="0" t="inlineStr">
         <f aca="false">IF(ABS(J156-F156)&lt;N$5,1,999)</f>
-        <v>#VALUE!</v>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4332,9 +4725,11 @@
       <c r="F170" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="N170" s="0" t="e">
+      <c r="N170" s="0" t="inlineStr">
         <f aca="false">IF(ABS(J170-F170)&lt;N$5,1,999)</f>
-        <v>#VALUE!</v>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4416,9 +4811,11 @@
       <c r="F175" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="N175" s="0" t="e">
+      <c r="N175" s="0" t="inlineStr">
         <f aca="false">IF(ABS(J175-F175)&lt;N$5,1,999)</f>
-        <v>#VALUE!</v>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4500,9 +4897,11 @@
       <c r="F180" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="N180" s="0" t="e">
+      <c r="N180" s="0" t="inlineStr">
         <f aca="false">IF(ABS(J180-F180)&lt;N$5,1,999)</f>
-        <v>#VALUE!</v>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4584,9 +4983,11 @@
       <c r="F185" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="N185" s="0" t="e">
+      <c r="N185" s="0" t="inlineStr">
         <f aca="false">IF(ABS(J185-F185)&lt;N$5,1,999)</f>
-        <v>#VALUE!</v>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4614,9 +5015,11 @@
       <c r="F187" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="N187" s="0" t="e">
+      <c r="N187" s="0" t="inlineStr">
         <f aca="false">IF(ABS(J187-F187)&lt;N$5,1,999)</f>
-        <v>#VALUE!</v>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4822,9 +5225,11 @@
       <c r="F201" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="N201" s="0" t="e">
+      <c r="N201" s="0" t="inlineStr">
         <f aca="false">IF(ABS(J201-F201)&lt;N$5,1,999)</f>
-        <v>#VALUE!</v>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4906,9 +5311,11 @@
       <c r="F206" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="N206" s="0" t="e">
+      <c r="N206" s="0" t="inlineStr">
         <f aca="false">IF(ABS(J206-F206)&lt;N$5,1,999)</f>
-        <v>#VALUE!</v>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4990,9 +5397,11 @@
       <c r="F211" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="N211" s="0" t="e">
+      <c r="N211" s="0" t="inlineStr">
         <f aca="false">IF(ABS(J211-F211)&lt;N$5,1,999)</f>
-        <v>#VALUE!</v>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5074,9 +5483,11 @@
       <c r="F216" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="N216" s="0" t="e">
+      <c r="N216" s="0" t="inlineStr">
         <f aca="false">IF(ABS(J216-F216)&lt;N$5,1,999)</f>
-        <v>#VALUE!</v>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5104,9 +5515,11 @@
       <c r="F218" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="N218" s="0" t="e">
+      <c r="N218" s="0" t="inlineStr">
         <f aca="false">IF(ABS(J218-F218)&lt;N$5,1,999)</f>
-        <v>#VALUE!</v>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5317,9 +5730,11 @@
       <c r="F232" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="N232" s="0" t="e">
+      <c r="N232" s="0" t="inlineStr">
         <f aca="false">IF(ABS(J232-F232)&lt;N$5,1,999)</f>
-        <v>#VALUE!</v>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5411,9 +5826,11 @@
       <c r="F237" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="N237" s="0" t="e">
+      <c r="N237" s="0" t="inlineStr">
         <f aca="false">IF(ABS(J237-F237)&lt;N$5,1,999)</f>
-        <v>#VALUE!</v>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="238" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5505,9 +5922,11 @@
       <c r="F242" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="N242" s="0" t="e">
+      <c r="N242" s="0" t="inlineStr">
         <f aca="false">IF(ABS(J242-F242)&lt;N$5,1,999)</f>
-        <v>#VALUE!</v>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="243" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5599,9 +6018,11 @@
       <c r="F247" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="N247" s="0" t="e">
+      <c r="N247" s="0" t="inlineStr">
         <f aca="false">IF(ABS(J247-F247)&lt;N$5,1,999)</f>
-        <v>#VALUE!</v>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="248" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5634,9 +6055,11 @@
       <c r="F249" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="N249" s="0" t="e">
+      <c r="N249" s="0" t="inlineStr">
         <f aca="false">IF(ABS(J249-F249)&lt;N$5,1,999)</f>
-        <v>#VALUE!</v>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="250" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5892,9 +6315,11 @@
       <c r="F263" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="N263" s="0" t="e">
+      <c r="N263" s="0" t="inlineStr">
         <f aca="false">IF(ABS(J263-F263)&lt;N$5,1,999)</f>
-        <v>#VALUE!</v>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="264" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5986,9 +6411,11 @@
       <c r="F268" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="N268" s="0" t="e">
+      <c r="N268" s="0" t="inlineStr">
         <f aca="false">IF(ABS(J268-F268)&lt;N$5,1,999)</f>
-        <v>#VALUE!</v>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="269" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6080,9 +6507,11 @@
       <c r="F273" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="N273" s="0" t="e">
+      <c r="N273" s="0" t="inlineStr">
         <f aca="false">IF(ABS(J273-F273)&lt;N$5,1,999)</f>
-        <v>#VALUE!</v>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="274" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6174,9 +6603,11 @@
       <c r="F278" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="N278" s="0" t="e">
+      <c r="N278" s="0" t="inlineStr">
         <f aca="false">IF(ABS(J278-F278)&lt;N$5,1,999)</f>
-        <v>#VALUE!</v>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="279" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6209,9 +6640,11 @@
       <c r="F280" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="N280" s="0" t="e">
+      <c r="N280" s="0" t="inlineStr">
         <f aca="false">IF(ABS(J280-F280)&lt;N$5,1,999)</f>
-        <v>#VALUE!</v>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="281" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6467,9 +6900,11 @@
       <c r="F294" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="N294" s="0" t="e">
+      <c r="N294" s="0" t="inlineStr">
         <f aca="false">IF(ABS(J294-F294)&lt;N$5,1,999)</f>
-        <v>#VALUE!</v>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="295" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6561,9 +6996,11 @@
       <c r="F299" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="N299" s="0" t="e">
+      <c r="N299" s="0" t="inlineStr">
         <f aca="false">IF(ABS(J299-F299)&lt;N$5,1,999)</f>
-        <v>#VALUE!</v>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="300" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6655,9 +7092,11 @@
       <c r="F304" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="N304" s="0" t="e">
+      <c r="N304" s="0" t="inlineStr">
         <f aca="false">IF(ABS(J304-F304)&lt;N$5,1,999)</f>
-        <v>#VALUE!</v>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="305" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6749,9 +7188,11 @@
       <c r="F309" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="N309" s="0" t="e">
+      <c r="N309" s="0" t="inlineStr">
         <f aca="false">IF(ABS(J309-F309)&lt;N$5,1,999)</f>
-        <v>#VALUE!</v>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="310" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6784,9 +7225,11 @@
       <c r="F311" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="N311" s="0" t="e">
+      <c r="N311" s="0" t="inlineStr">
         <f aca="false">IF(ABS(J311-F311)&lt;N$5,1,999)</f>
-        <v>#VALUE!</v>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="312" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7041,9 +7484,11 @@
       <c r="F325" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="N325" s="0" t="e">
+      <c r="N325" s="0" t="inlineStr">
         <f aca="false">IF(ABS(J325-F325)&lt;N$5,1,999)</f>
-        <v>#VALUE!</v>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="326" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7135,9 +7580,11 @@
       <c r="F330" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="N330" s="0" t="e">
+      <c r="N330" s="0" t="inlineStr">
         <f aca="false">IF(ABS(J330-F330)&lt;N$5,1,999)</f>
-        <v>#VALUE!</v>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="331" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7229,9 +7676,11 @@
       <c r="F335" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="N335" s="0" t="e">
+      <c r="N335" s="0" t="inlineStr">
         <f aca="false">IF(ABS(J335-F335)&lt;N$5,1,999)</f>
-        <v>#VALUE!</v>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="336" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7323,9 +7772,11 @@
       <c r="F340" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="N340" s="0" t="e">
+      <c r="N340" s="0" t="inlineStr">
         <f aca="false">IF(ABS(J340-F340)&lt;N$5,1,999)</f>
-        <v>#VALUE!</v>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="341" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7358,9 +7809,11 @@
       <c r="F342" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="N342" s="0" t="e">
+      <c r="N342" s="0" t="inlineStr">
         <f aca="false">IF(ABS(J342-F342)&lt;N$5,1,999)</f>
-        <v>#VALUE!</v>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="343" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7616,9 +8069,11 @@
       <c r="F356" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="N356" s="0" t="e">
+      <c r="N356" s="0" t="inlineStr">
         <f aca="false">IF(ABS(J356-F356)&lt;N$5,1,999)</f>
-        <v>#VALUE!</v>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="357" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7710,9 +8165,11 @@
       <c r="F361" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="N361" s="0" t="e">
+      <c r="N361" s="0" t="inlineStr">
         <f aca="false">IF(ABS(J361-F361)&lt;N$5,1,999)</f>
-        <v>#VALUE!</v>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="362" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7804,9 +8261,11 @@
       <c r="F366" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="N366" s="0" t="e">
+      <c r="N366" s="0" t="inlineStr">
         <f aca="false">IF(ABS(J366-F366)&lt;N$5,1,999)</f>
-        <v>#VALUE!</v>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="367" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7898,9 +8357,11 @@
       <c r="F371" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="N371" s="0" t="e">
+      <c r="N371" s="0" t="inlineStr">
         <f aca="false">IF(ABS(J371-F371)&lt;N$5,1,999)</f>
-        <v>#VALUE!</v>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="372" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7933,9 +8394,11 @@
       <c r="F373" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="N373" s="0" t="e">
+      <c r="N373" s="0" t="inlineStr">
         <f aca="false">IF(ABS(J373-F373)&lt;N$5,1,999)</f>
-        <v>#VALUE!</v>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="374" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8232,9 +8695,11 @@
       <c r="F388" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="N388" s="0" t="e">
+      <c r="N388" s="0" t="inlineStr">
         <f aca="false">IF(ABS(J388-F388)&lt;N$5,1,999)</f>
-        <v>#VALUE!</v>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="389" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8350,9 +8815,11 @@
       <c r="F393" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="N393" s="0" t="e">
+      <c r="N393" s="0" t="inlineStr">
         <f aca="false">IF(ABS(J393-F393)&lt;N$5,1,999)</f>
-        <v>#VALUE!</v>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="394" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8468,9 +8935,11 @@
       <c r="F398" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="N398" s="0" t="e">
+      <c r="N398" s="0" t="inlineStr">
         <f aca="false">IF(ABS(J398-F398)&lt;N$5,1,999)</f>
-        <v>#VALUE!</v>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="399" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8562,9 +9031,11 @@
       <c r="F403" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="N403" s="0" t="e">
+      <c r="N403" s="0" t="inlineStr">
         <f aca="false">IF(ABS(J403-F403)&lt;N$5,1,999)</f>
-        <v>#VALUE!</v>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="404" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8597,9 +9068,11 @@
       <c r="F405" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="N405" s="0" t="e">
+      <c r="N405" s="0" t="inlineStr">
         <f aca="false">IF(ABS(J405-F405)&lt;N$5,1,999)</f>
-        <v>#VALUE!</v>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="406" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8894,9 +9367,11 @@
       <c r="F420" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="N420" s="0" t="e">
+      <c r="N420" s="0" t="inlineStr">
         <f aca="false">IF(ABS(J420-F420)&lt;N$5,1,999)</f>
-        <v>#VALUE!</v>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="421" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9012,9 +9487,11 @@
       <c r="F425" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="N425" s="0" t="e">
+      <c r="N425" s="0" t="inlineStr">
         <f aca="false">IF(ABS(J425-F425)&lt;N$5,1,999)</f>
-        <v>#VALUE!</v>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="426" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9130,9 +9607,11 @@
       <c r="F430" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="N430" s="0" t="e">
+      <c r="N430" s="0" t="inlineStr">
         <f aca="false">IF(ABS(J430-F430)&lt;N$5,1,999)</f>
-        <v>#VALUE!</v>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="431" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9224,9 +9703,11 @@
       <c r="F435" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="N435" s="0" t="e">
+      <c r="N435" s="0" t="inlineStr">
         <f aca="false">IF(ABS(J435-F435)&lt;N$5,1,999)</f>
-        <v>#VALUE!</v>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="436" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9259,9 +9740,11 @@
       <c r="F437" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="N437" s="0" t="e">
+      <c r="N437" s="0" t="inlineStr">
         <f aca="false">IF(ABS(J437-F437)&lt;N$5,1,999)</f>
-        <v>#VALUE!</v>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="438" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9327,10 +9810,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A6:N36"/>
+  <dimension ref="A6:N164"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J12" activeCellId="0" sqref="J12"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A92" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C105" activeCellId="0" sqref="C105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9511,7 +9994,7 @@
         <v>153</v>
       </c>
       <c r="F15" s="14" t="n">
-        <v>0.332</v>
+        <v>0.3171</v>
       </c>
       <c r="G15" s="16"/>
       <c r="H15" s="16"/>
@@ -9534,7 +10017,7 @@
         <v>155</v>
       </c>
       <c r="F16" s="0" t="n">
-        <v>0.7685</v>
+        <v>0.7603</v>
       </c>
       <c r="I16" s="4" t="s">
         <v>156</v>
@@ -9629,7 +10112,7 @@
         <v>172</v>
       </c>
       <c r="F21" s="14" t="n">
-        <v>0.4088</v>
+        <v>0.401</v>
       </c>
       <c r="G21" s="16"/>
       <c r="H21" s="16"/>
@@ -9721,7 +10204,7 @@
       <c r="M25" s="16"/>
       <c r="N25" s="14" t="n">
         <f aca="false">IF(ABS(J25-F25)&lt;N$6,1,999)</f>
-        <v>999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9796,7 +10279,7 @@
       </c>
       <c r="N29" s="0" t="n">
         <f aca="false">IF(ABS(J29-F29)&lt;N$6,1,999)</f>
-        <v>999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9819,7 +10302,7 @@
       <c r="M30" s="16"/>
       <c r="N30" s="14" t="n">
         <f aca="false">IF(ABS(J30-F30)&lt;N$6,1,999)</f>
-        <v>999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9842,7 +10325,7 @@
       <c r="M31" s="16"/>
       <c r="N31" s="14" t="n">
         <f aca="false">IF(ABS(J31-F31)&lt;N$6,1,999)</f>
-        <v>999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9880,7 +10363,7 @@
       <c r="M33" s="16"/>
       <c r="N33" s="14" t="n">
         <f aca="false">IF(ABS(J33-F33)&lt;N$6,1,999)</f>
-        <v>999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9903,7 +10386,7 @@
         <v>211</v>
       </c>
       <c r="F35" s="18" t="n">
-        <v>1.4342E-008</v>
+        <v>1.4414E-008</v>
       </c>
       <c r="G35" s="16"/>
       <c r="H35" s="16"/>
@@ -9911,14 +10394,14 @@
         <v>212</v>
       </c>
       <c r="J35" s="18" t="n">
-        <v>1.32512793211428E-008</v>
+        <v>1.44136970226463E-008</v>
       </c>
       <c r="K35" s="16"/>
       <c r="L35" s="16"/>
       <c r="M35" s="16"/>
       <c r="N35" s="14" t="n">
         <f aca="false">IF(ABS(J35-F35)&lt;N$6,1,999)</f>
-        <v>999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9926,7 +10409,7 @@
         <v>213</v>
       </c>
       <c r="F36" s="18" t="n">
-        <v>5.2728E-011</v>
+        <v>5.3628E-011</v>
       </c>
       <c r="G36" s="16"/>
       <c r="H36" s="16"/>
@@ -9934,13 +10417,2309 @@
         <v>214</v>
       </c>
       <c r="J36" s="18" t="n">
-        <v>2.75321201723258E-011</v>
+        <v>5.3627560947442E-011</v>
       </c>
       <c r="K36" s="16"/>
       <c r="L36" s="16"/>
       <c r="M36" s="16"/>
       <c r="N36" s="14" t="n">
         <f aca="false">IF(ABS(J36-F36)&lt;N$6,1,999)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="N39" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="2" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E41" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="F41" s="15" t="s">
+        <v>216</v>
+      </c>
+      <c r="G41" s="16"/>
+      <c r="H41" s="16"/>
+      <c r="I41" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="J41" s="15" t="s">
+        <v>217</v>
+      </c>
+      <c r="K41" s="16"/>
+      <c r="L41" s="16"/>
+      <c r="M41" s="16"/>
+      <c r="N41" s="14" t="n">
+        <f aca="false">IF(ABS(J41-F41)&lt;N$6,1,999)</f>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E42" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="F42" s="15" t="s">
+        <v>218</v>
+      </c>
+      <c r="G42" s="16"/>
+      <c r="H42" s="16"/>
+      <c r="I42" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="J42" s="15" t="s">
+        <v>219</v>
+      </c>
+      <c r="K42" s="16"/>
+      <c r="L42" s="16"/>
+      <c r="M42" s="16"/>
+      <c r="N42" s="14" t="n">
+        <f aca="false">IF(ABS(J42-F42)&lt;N$6,1,999)</f>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E43" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="F43" s="15" t="s">
+        <v>220</v>
+      </c>
+      <c r="G43" s="16"/>
+      <c r="H43" s="16"/>
+      <c r="I43" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="J43" s="15" t="s">
+        <v>221</v>
+      </c>
+      <c r="K43" s="16"/>
+      <c r="L43" s="16"/>
+      <c r="M43" s="16"/>
+      <c r="N43" s="14" t="n">
+        <f aca="false">IF(ABS(J43-F43)&lt;N$6,1,999)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E44" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="F44" s="15" t="s">
+        <v>222</v>
+      </c>
+      <c r="G44" s="16"/>
+      <c r="H44" s="16"/>
+      <c r="I44" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="J44" s="15" t="s">
+        <v>223</v>
+      </c>
+      <c r="K44" s="16"/>
+      <c r="L44" s="16"/>
+      <c r="M44" s="16"/>
+      <c r="N44" s="14" t="n">
+        <f aca="false">IF(ABS(J44-F44)&lt;N$6,1,999)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B45" s="5"/>
+      <c r="E45" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="F45" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="G45" s="16"/>
+      <c r="H45" s="16"/>
+      <c r="I45" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="J45" s="15" t="s">
+        <v>225</v>
+      </c>
+      <c r="K45" s="16"/>
+      <c r="L45" s="16"/>
+      <c r="M45" s="16"/>
+      <c r="N45" s="14" t="n">
+        <f aca="false">IF(ABS(J45-F45)&lt;N$6,1,999)</f>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B46" s="5"/>
+      <c r="E46" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="F46" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="G46" s="16"/>
+      <c r="H46" s="16"/>
+      <c r="I46" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="J46" s="15" t="s">
+        <v>226</v>
+      </c>
+      <c r="K46" s="16"/>
+      <c r="L46" s="16"/>
+      <c r="M46" s="16"/>
+      <c r="N46" s="14" t="n">
+        <f aca="false">IF(ABS(J46-F46)&lt;N$6,1,999)</f>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E47" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="F47" s="14" t="n">
+        <v>0.0492</v>
+      </c>
+      <c r="G47" s="16"/>
+      <c r="H47" s="16"/>
+      <c r="I47" s="17" t="s">
+        <v>154</v>
+      </c>
+      <c r="J47" s="19" t="n">
+        <v>0.0492160860100198</v>
+      </c>
+      <c r="K47" s="16"/>
+      <c r="L47" s="16"/>
+      <c r="M47" s="16"/>
+      <c r="N47" s="14" t="n">
+        <f aca="false">IF(ABS(J47-F47)&lt;N$6,1,999)</f>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E48" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="F48" s="0" t="n">
+        <v>0.3298</v>
+      </c>
+      <c r="I48" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="J48" s="0" t="n">
+        <v>0.329830964171172</v>
+      </c>
+      <c r="N48" s="0" t="n">
+        <f aca="false">IF(ABS(J48-F48)&lt;N$6,1,999)</f>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E49" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="F49" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="I49" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="N49" s="0" t="e">
+        <f aca="false">IF(ABS(J49-F49)&lt;N$6,1,999)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E50" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="I50" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="J50" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="N50" s="0" t="n">
+        <f aca="false">IF(ABS(J50-F50)&lt;N$6,1,999)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B51" s="3"/>
+      <c r="E51" s="0" t="s">
+        <v>164</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="I51" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="J51" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="N51" s="0" t="n">
+        <f aca="false">IF(ABS(J51-F51)&lt;N$6,1,999)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B52" s="3"/>
+      <c r="E52" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="F52" s="15" t="s">
+        <v>231</v>
+      </c>
+      <c r="G52" s="16"/>
+      <c r="H52" s="16"/>
+      <c r="I52" s="17" t="s">
+        <v>170</v>
+      </c>
+      <c r="J52" s="15" t="s">
+        <v>232</v>
+      </c>
+      <c r="K52" s="16"/>
+      <c r="L52" s="16"/>
+      <c r="M52" s="16"/>
+      <c r="N52" s="14" t="n">
+        <f aca="false">IF(ABS(J52-F52)&lt;N$6,1,999)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B53" s="6"/>
+      <c r="E53" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="F53" s="14" t="n">
+        <v>0.4843</v>
+      </c>
+      <c r="G53" s="16"/>
+      <c r="H53" s="16"/>
+      <c r="I53" s="17" t="s">
+        <v>173</v>
+      </c>
+      <c r="J53" s="14" t="n">
+        <v>0.484272731572223</v>
+      </c>
+      <c r="K53" s="16"/>
+      <c r="L53" s="16"/>
+      <c r="M53" s="16"/>
+      <c r="N53" s="14" t="n">
+        <f aca="false">IF(ABS(J53-F53)&lt;N$6,1,999)</f>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B54" s="3"/>
+      <c r="E54" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="F54" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="I54" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="N54" s="0" t="e">
+        <f aca="false">IF(ABS(J54-F54)&lt;N$6,1,999)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B55" s="3"/>
+      <c r="E55" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="F55" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="I55" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="J55" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="N55" s="0" t="n">
+        <f aca="false">IF(ABS(J55-F55)&lt;N$6,1,999)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B56" s="3"/>
+      <c r="E56" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="F56" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="I56" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="J56" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="N56" s="0" t="n">
+        <f aca="false">IF(ABS(J56-F56)&lt;N$6,1,999)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E57" s="14" t="s">
+        <v>183</v>
+      </c>
+      <c r="F57" s="15" t="s">
+        <v>237</v>
+      </c>
+      <c r="G57" s="16"/>
+      <c r="H57" s="16"/>
+      <c r="I57" s="17" t="s">
+        <v>185</v>
+      </c>
+      <c r="J57" s="15" t="s">
+        <v>238</v>
+      </c>
+      <c r="K57" s="16"/>
+      <c r="L57" s="16"/>
+      <c r="M57" s="16"/>
+      <c r="N57" s="14" t="n">
+        <f aca="false">IF(ABS(J57-F57)&lt;N$6,1,999)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B58" s="3"/>
+      <c r="E58" s="14" t="s">
+        <v>187</v>
+      </c>
+      <c r="F58" s="14" t="n">
+        <v>50</v>
+      </c>
+      <c r="G58" s="16"/>
+      <c r="H58" s="16"/>
+      <c r="I58" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="J58" s="14" t="n">
+        <v>50</v>
+      </c>
+      <c r="K58" s="16"/>
+      <c r="L58" s="16"/>
+      <c r="M58" s="16"/>
+      <c r="N58" s="14" t="n">
+        <f aca="false">IF(ABS(J58-F58)&lt;N$6,1,999)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E59" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="F59" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="I59" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="N59" s="0" t="e">
+        <f aca="false">IF(ABS(J59-F59)&lt;N$6,1,999)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E60" s="0" t="s">
+        <v>191</v>
+      </c>
+      <c r="F60" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I60" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="J60" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N60" s="0" t="n">
+        <f aca="false">IF(ABS(J60-F60)&lt;N$6,1,999)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E61" s="0" t="s">
+        <v>193</v>
+      </c>
+      <c r="F61" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="I61" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="J61" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="N61" s="0" t="n">
+        <f aca="false">IF(ABS(J61-F61)&lt;N$6,1,999)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E62" s="14" t="s">
+        <v>197</v>
+      </c>
+      <c r="F62" s="15" t="s">
+        <v>241</v>
+      </c>
+      <c r="G62" s="16"/>
+      <c r="H62" s="16"/>
+      <c r="I62" s="17" t="s">
+        <v>199</v>
+      </c>
+      <c r="J62" s="15" t="s">
+        <v>242</v>
+      </c>
+      <c r="K62" s="16"/>
+      <c r="L62" s="16"/>
+      <c r="M62" s="16"/>
+      <c r="N62" s="14" t="n">
+        <f aca="false">IF(ABS(J62-F62)&lt;N$6,1,999)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E63" s="14" t="s">
+        <v>201</v>
+      </c>
+      <c r="F63" s="15" t="s">
+        <v>243</v>
+      </c>
+      <c r="G63" s="16"/>
+      <c r="H63" s="16"/>
+      <c r="I63" s="17" t="s">
+        <v>203</v>
+      </c>
+      <c r="J63" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="K63" s="16"/>
+      <c r="L63" s="16"/>
+      <c r="M63" s="16"/>
+      <c r="N63" s="14" t="n">
+        <f aca="false">IF(ABS(J63-F63)&lt;N$6,1,999)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E64" s="0" t="s">
+        <v>205</v>
+      </c>
+      <c r="F64" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="I64" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="N64" s="0" t="e">
+        <f aca="false">IF(ABS(J64-F64)&lt;N$6,1,999)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E65" s="14" t="s">
+        <v>206</v>
+      </c>
+      <c r="F65" s="15" t="s">
+        <v>245</v>
+      </c>
+      <c r="G65" s="16"/>
+      <c r="H65" s="16"/>
+      <c r="I65" s="17" t="s">
+        <v>208</v>
+      </c>
+      <c r="J65" s="15" t="s">
+        <v>246</v>
+      </c>
+      <c r="K65" s="16"/>
+      <c r="L65" s="16"/>
+      <c r="M65" s="16"/>
+      <c r="N65" s="14" t="n">
+        <f aca="false">IF(ABS(J65-F65)&lt;N$6,1,999)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E66" s="0" t="s">
+        <v>210</v>
+      </c>
+      <c r="F66" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="I66" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="N66" s="0" t="e">
+        <f aca="false">IF(ABS(J66-F66)&lt;N$6,1,999)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E67" s="14" t="s">
+        <v>211</v>
+      </c>
+      <c r="F67" s="18" t="n">
+        <v>-8.6811E-010</v>
+      </c>
+      <c r="G67" s="16"/>
+      <c r="H67" s="16"/>
+      <c r="I67" s="17" t="s">
+        <v>212</v>
+      </c>
+      <c r="J67" s="18" t="n">
+        <v>-8.68106762080751E-010</v>
+      </c>
+      <c r="K67" s="16"/>
+      <c r="L67" s="16"/>
+      <c r="M67" s="16"/>
+      <c r="N67" s="14" t="n">
+        <f aca="false">IF(ABS(J67-F67)&lt;N$6,1,999)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E68" s="14" t="s">
+        <v>213</v>
+      </c>
+      <c r="F68" s="18" t="n">
+        <v>2.2261E-009</v>
+      </c>
+      <c r="G68" s="16"/>
+      <c r="H68" s="16"/>
+      <c r="I68" s="17" t="s">
+        <v>214</v>
+      </c>
+      <c r="J68" s="18" t="n">
+        <v>2.22609371034549E-009</v>
+      </c>
+      <c r="K68" s="16"/>
+      <c r="L68" s="16"/>
+      <c r="M68" s="16"/>
+      <c r="N68" s="14" t="n">
+        <f aca="false">IF(ABS(J68-F68)&lt;N$6,1,999)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I71" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="N71" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="2" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E73" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="F73" s="15" t="s">
+        <v>248</v>
+      </c>
+      <c r="G73" s="16"/>
+      <c r="H73" s="16"/>
+      <c r="I73" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="J73" s="15" t="s">
+        <v>249</v>
+      </c>
+      <c r="K73" s="16"/>
+      <c r="L73" s="16"/>
+      <c r="M73" s="16"/>
+      <c r="N73" s="14" t="n">
+        <f aca="false">IF(ABS(J73-F73)&lt;N$6,1,999)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E74" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="F74" s="15" t="s">
+        <v>250</v>
+      </c>
+      <c r="G74" s="16"/>
+      <c r="H74" s="16"/>
+      <c r="I74" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="J74" s="15" t="s">
+        <v>251</v>
+      </c>
+      <c r="K74" s="16"/>
+      <c r="L74" s="16"/>
+      <c r="M74" s="16"/>
+      <c r="N74" s="14" t="n">
+        <f aca="false">IF(ABS(J74-F74)&lt;N$6,1,999)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E75" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="F75" s="15" t="s">
+        <v>252</v>
+      </c>
+      <c r="G75" s="16"/>
+      <c r="H75" s="16"/>
+      <c r="I75" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="J75" s="15" t="s">
+        <v>253</v>
+      </c>
+      <c r="K75" s="16"/>
+      <c r="L75" s="16"/>
+      <c r="M75" s="16"/>
+      <c r="N75" s="14" t="n">
+        <f aca="false">IF(ABS(J75-F75)&lt;N$6,1,999)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E76" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="F76" s="15" t="s">
+        <v>254</v>
+      </c>
+      <c r="G76" s="16"/>
+      <c r="H76" s="16"/>
+      <c r="I76" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="J76" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="K76" s="16"/>
+      <c r="L76" s="16"/>
+      <c r="M76" s="16"/>
+      <c r="N76" s="14" t="n">
+        <f aca="false">IF(ABS(J76-F76)&lt;N$6,1,999)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B77" s="5"/>
+      <c r="E77" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="F77" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="G77" s="16"/>
+      <c r="H77" s="16"/>
+      <c r="I77" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="J77" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="K77" s="16"/>
+      <c r="L77" s="16"/>
+      <c r="M77" s="16"/>
+      <c r="N77" s="14" t="n">
+        <f aca="false">IF(ABS(J77-F77)&lt;N$6,1,999)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B78" s="5"/>
+      <c r="E78" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="F78" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="G78" s="16"/>
+      <c r="H78" s="16"/>
+      <c r="I78" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="J78" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="K78" s="16"/>
+      <c r="L78" s="16"/>
+      <c r="M78" s="16"/>
+      <c r="N78" s="14" t="n">
+        <f aca="false">IF(ABS(J78-F78)&lt;N$6,1,999)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E79" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="F79" s="14" t="n">
+        <v>4.7142</v>
+      </c>
+      <c r="G79" s="16"/>
+      <c r="H79" s="16"/>
+      <c r="I79" s="17" t="s">
+        <v>154</v>
+      </c>
+      <c r="J79" s="19" t="n">
+        <v>4.71416976303093</v>
+      </c>
+      <c r="K79" s="16"/>
+      <c r="L79" s="16"/>
+      <c r="M79" s="16"/>
+      <c r="N79" s="14" t="n">
+        <f aca="false">IF(ABS(J79-F79)&lt;N$6,1,999)</f>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E80" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="F80" s="0" t="n">
+        <v>0.9792</v>
+      </c>
+      <c r="I80" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="J80" s="0" t="n">
+        <v>0.979227986053362</v>
+      </c>
+      <c r="N80" s="0" t="n">
+        <f aca="false">IF(ABS(J80-F80)&lt;N$6,1,999)</f>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E81" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="F81" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="I81" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="N81" s="0" t="e">
+        <f aca="false">IF(ABS(J81-F81)&lt;N$6,1,999)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E82" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="F82" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="I82" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="J82" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="N82" s="0" t="n">
+        <f aca="false">IF(ABS(J82-F82)&lt;N$6,1,999)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B83" s="3"/>
+      <c r="E83" s="0" t="s">
+        <v>164</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="I83" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="N83" s="0" t="n">
+        <f aca="false">IF(ABS(J83-F83)&lt;N$6,1,999)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B84" s="3"/>
+      <c r="E84" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="F84" s="15" t="s">
+        <v>262</v>
+      </c>
+      <c r="G84" s="16"/>
+      <c r="H84" s="16"/>
+      <c r="I84" s="17" t="s">
+        <v>170</v>
+      </c>
+      <c r="J84" s="15" t="s">
+        <v>263</v>
+      </c>
+      <c r="K84" s="16"/>
+      <c r="L84" s="16"/>
+      <c r="M84" s="16"/>
+      <c r="N84" s="14" t="n">
+        <f aca="false">IF(ABS(J84-F84)&lt;N$6,1,999)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B85" s="6"/>
+      <c r="E85" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="F85" s="14" t="n">
+        <v>11.5694</v>
+      </c>
+      <c r="G85" s="16"/>
+      <c r="H85" s="16"/>
+      <c r="I85" s="17" t="s">
+        <v>173</v>
+      </c>
+      <c r="J85" s="14" t="n">
+        <v>11.5694551982106</v>
+      </c>
+      <c r="K85" s="16"/>
+      <c r="L85" s="16"/>
+      <c r="M85" s="16"/>
+      <c r="N85" s="14" t="n">
+        <f aca="false">IF(ABS(J85-F85)&lt;N$6,1,999)</f>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B86" s="3"/>
+      <c r="E86" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="F86" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="I86" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="N86" s="0" t="e">
+        <f aca="false">IF(ABS(J86-F86)&lt;N$6,1,999)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B87" s="3"/>
+      <c r="E87" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="F87" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="I87" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="J87" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="N87" s="0" t="n">
+        <f aca="false">IF(ABS(J87-F87)&lt;N$6,1,999)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B88" s="3"/>
+      <c r="E88" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="F88" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="I88" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="J88" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="N88" s="0" t="n">
+        <f aca="false">IF(ABS(J88-F88)&lt;N$6,1,999)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E89" s="14" t="s">
+        <v>183</v>
+      </c>
+      <c r="F89" s="15" t="s">
+        <v>268</v>
+      </c>
+      <c r="G89" s="16"/>
+      <c r="H89" s="16"/>
+      <c r="I89" s="17" t="s">
+        <v>185</v>
+      </c>
+      <c r="J89" s="15" t="s">
+        <v>269</v>
+      </c>
+      <c r="K89" s="16"/>
+      <c r="L89" s="16"/>
+      <c r="M89" s="16"/>
+      <c r="N89" s="14" t="n">
+        <f aca="false">IF(ABS(J89-F89)&lt;N$6,1,999)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B90" s="3"/>
+      <c r="E90" s="14" t="s">
+        <v>187</v>
+      </c>
+      <c r="F90" s="14" t="n">
+        <v>50</v>
+      </c>
+      <c r="G90" s="16"/>
+      <c r="H90" s="16"/>
+      <c r="I90" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="J90" s="14" t="n">
+        <v>50</v>
+      </c>
+      <c r="K90" s="16"/>
+      <c r="L90" s="16"/>
+      <c r="M90" s="16"/>
+      <c r="N90" s="14" t="n">
+        <f aca="false">IF(ABS(J90-F90)&lt;N$6,1,999)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E91" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="F91" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="I91" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="N91" s="0" t="e">
+        <f aca="false">IF(ABS(J91-F91)&lt;N$6,1,999)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E92" s="0" t="s">
+        <v>191</v>
+      </c>
+      <c r="F92" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I92" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="J92" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N92" s="0" t="n">
+        <f aca="false">IF(ABS(J92-F92)&lt;N$6,1,999)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E93" s="0" t="s">
+        <v>193</v>
+      </c>
+      <c r="F93" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="I93" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="J93" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="N93" s="0" t="n">
+        <f aca="false">IF(ABS(J93-F93)&lt;N$6,1,999)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E94" s="14" t="s">
+        <v>197</v>
+      </c>
+      <c r="F94" s="15" t="s">
+        <v>272</v>
+      </c>
+      <c r="G94" s="16"/>
+      <c r="H94" s="16"/>
+      <c r="I94" s="17" t="s">
+        <v>199</v>
+      </c>
+      <c r="J94" s="15" t="s">
+        <v>273</v>
+      </c>
+      <c r="K94" s="16"/>
+      <c r="L94" s="16"/>
+      <c r="M94" s="16"/>
+      <c r="N94" s="14" t="n">
+        <f aca="false">IF(ABS(J94-F94)&lt;N$6,1,999)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E95" s="14" t="s">
+        <v>201</v>
+      </c>
+      <c r="F95" s="15" t="s">
+        <v>274</v>
+      </c>
+      <c r="G95" s="16"/>
+      <c r="H95" s="16"/>
+      <c r="I95" s="17" t="s">
+        <v>203</v>
+      </c>
+      <c r="J95" s="15" t="s">
+        <v>275</v>
+      </c>
+      <c r="K95" s="16"/>
+      <c r="L95" s="16"/>
+      <c r="M95" s="16"/>
+      <c r="N95" s="14" t="n">
+        <f aca="false">IF(ABS(J95-F95)&lt;N$6,1,999)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E96" s="0" t="s">
+        <v>205</v>
+      </c>
+      <c r="F96" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="I96" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="N96" s="0" t="e">
+        <f aca="false">IF(ABS(J96-F96)&lt;N$6,1,999)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E97" s="14" t="s">
+        <v>206</v>
+      </c>
+      <c r="F97" s="15" t="s">
+        <v>276</v>
+      </c>
+      <c r="G97" s="16"/>
+      <c r="H97" s="16"/>
+      <c r="I97" s="17" t="s">
+        <v>208</v>
+      </c>
+      <c r="J97" s="15" t="s">
+        <v>277</v>
+      </c>
+      <c r="K97" s="16"/>
+      <c r="L97" s="16"/>
+      <c r="M97" s="16"/>
+      <c r="N97" s="14" t="n">
+        <f aca="false">IF(ABS(J97-F97)&lt;N$6,1,999)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E98" s="0" t="s">
+        <v>210</v>
+      </c>
+      <c r="F98" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="I98" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="N98" s="0" t="e">
+        <f aca="false">IF(ABS(J98-F98)&lt;N$6,1,999)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E99" s="14" t="s">
+        <v>211</v>
+      </c>
+      <c r="F99" s="18" t="n">
+        <v>1.1961E-009</v>
+      </c>
+      <c r="G99" s="16"/>
+      <c r="H99" s="16"/>
+      <c r="I99" s="17" t="s">
+        <v>212</v>
+      </c>
+      <c r="J99" s="18" t="n">
+        <v>1.19607941553237E-009</v>
+      </c>
+      <c r="K99" s="16"/>
+      <c r="L99" s="16"/>
+      <c r="M99" s="16"/>
+      <c r="N99" s="14" t="n">
+        <f aca="false">IF(ABS(J99-F99)&lt;N$6,1,999)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E100" s="14" t="s">
+        <v>213</v>
+      </c>
+      <c r="F100" s="18" t="n">
+        <v>1.5966E-008</v>
+      </c>
+      <c r="G100" s="16"/>
+      <c r="H100" s="16"/>
+      <c r="I100" s="17" t="s">
+        <v>214</v>
+      </c>
+      <c r="J100" s="18" t="n">
+        <v>1.59661903358416E-008</v>
+      </c>
+      <c r="K100" s="16"/>
+      <c r="L100" s="16"/>
+      <c r="M100" s="16"/>
+      <c r="N100" s="14" t="n">
+        <f aca="false">IF(ABS(J100-F100)&lt;N$6,1,999)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="I103" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="N103" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="2" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E105" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="F105" s="15" t="s">
+        <v>280</v>
+      </c>
+      <c r="G105" s="16"/>
+      <c r="H105" s="16"/>
+      <c r="I105" s="17"/>
+      <c r="J105" s="15"/>
+      <c r="K105" s="16"/>
+      <c r="L105" s="16"/>
+      <c r="M105" s="16"/>
+      <c r="N105" s="14" t="n">
+        <f aca="false">IF(ABS(J105-F105)&lt;N$6,1,999)</f>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="0" t="s">
+        <v>281</v>
+      </c>
+      <c r="E106" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="F106" s="15" t="s">
+        <v>282</v>
+      </c>
+      <c r="G106" s="16"/>
+      <c r="H106" s="16"/>
+      <c r="I106" s="17"/>
+      <c r="J106" s="15"/>
+      <c r="K106" s="16"/>
+      <c r="L106" s="16"/>
+      <c r="M106" s="16"/>
+      <c r="N106" s="14" t="n">
+        <f aca="false">IF(ABS(J106-F106)&lt;N$6,1,999)</f>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E107" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="F107" s="15" t="s">
+        <v>283</v>
+      </c>
+      <c r="G107" s="16"/>
+      <c r="H107" s="16"/>
+      <c r="I107" s="17"/>
+      <c r="J107" s="15"/>
+      <c r="K107" s="16"/>
+      <c r="L107" s="16"/>
+      <c r="M107" s="16"/>
+      <c r="N107" s="14" t="n">
+        <f aca="false">IF(ABS(J107-F107)&lt;N$6,1,999)</f>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="0" t="s">
+        <v>284</v>
+      </c>
+      <c r="E108" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="F108" s="15" t="s">
+        <v>285</v>
+      </c>
+      <c r="G108" s="16"/>
+      <c r="H108" s="16"/>
+      <c r="I108" s="17"/>
+      <c r="J108" s="15"/>
+      <c r="K108" s="16"/>
+      <c r="L108" s="16"/>
+      <c r="M108" s="16"/>
+      <c r="N108" s="14" t="n">
+        <f aca="false">IF(ABS(J108-F108)&lt;N$6,1,999)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B109" s="5"/>
+      <c r="E109" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="F109" s="15" t="s">
+        <v>286</v>
+      </c>
+      <c r="G109" s="16"/>
+      <c r="H109" s="16"/>
+      <c r="I109" s="17"/>
+      <c r="J109" s="15"/>
+      <c r="K109" s="16"/>
+      <c r="L109" s="16"/>
+      <c r="M109" s="16"/>
+      <c r="N109" s="14" t="n">
+        <f aca="false">IF(ABS(J109-F109)&lt;N$6,1,999)</f>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B110" s="5"/>
+      <c r="E110" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="F110" s="15" t="s">
+        <v>286</v>
+      </c>
+      <c r="G110" s="16"/>
+      <c r="H110" s="16"/>
+      <c r="I110" s="17"/>
+      <c r="J110" s="15"/>
+      <c r="K110" s="16"/>
+      <c r="L110" s="16"/>
+      <c r="M110" s="16"/>
+      <c r="N110" s="14" t="n">
+        <f aca="false">IF(ABS(J110-F110)&lt;N$6,1,999)</f>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E111" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="F111" s="14" t="n">
+        <v>3.5342</v>
+      </c>
+      <c r="G111" s="16"/>
+      <c r="H111" s="16"/>
+      <c r="I111" s="17"/>
+      <c r="J111" s="19"/>
+      <c r="K111" s="16"/>
+      <c r="L111" s="16"/>
+      <c r="M111" s="16"/>
+      <c r="N111" s="14" t="n">
+        <f aca="false">IF(ABS(J111-F111)&lt;N$6,1,999)</f>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E112" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="F112" s="0" t="n">
+        <v>0.9725</v>
+      </c>
+      <c r="I112" s="4"/>
+      <c r="N112" s="14" t="n">
+        <f aca="false">IF(ABS(J112-F112)&lt;N$6,1,999)</f>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E113" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="F113" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="I113" s="4"/>
+      <c r="N113" s="14" t="e">
+        <f aca="false">IF(ABS(J113-F113)&lt;N$6,1,999)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E114" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="F114" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="I114" s="4"/>
+      <c r="J114" s="3"/>
+      <c r="N114" s="14" t="n">
+        <f aca="false">IF(ABS(J114-F114)&lt;N$6,1,999)</f>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B115" s="3"/>
+      <c r="E115" s="0" t="s">
+        <v>164</v>
+      </c>
+      <c r="F115" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="I115" s="4"/>
+      <c r="J115" s="3"/>
+      <c r="N115" s="14" t="n">
+        <f aca="false">IF(ABS(J115-F115)&lt;N$6,1,999)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B116" s="3"/>
+      <c r="E116" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="F116" s="15" t="s">
+        <v>289</v>
+      </c>
+      <c r="G116" s="16"/>
+      <c r="H116" s="16"/>
+      <c r="I116" s="17"/>
+      <c r="J116" s="15"/>
+      <c r="K116" s="16"/>
+      <c r="L116" s="16"/>
+      <c r="M116" s="16"/>
+      <c r="N116" s="14" t="n">
+        <f aca="false">IF(ABS(J116-F116)&lt;N$6,1,999)</f>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B117" s="6"/>
+      <c r="E117" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="F117" s="14" t="n">
+        <v>32.2614</v>
+      </c>
+      <c r="G117" s="16"/>
+      <c r="H117" s="16"/>
+      <c r="I117" s="17"/>
+      <c r="J117" s="14"/>
+      <c r="K117" s="16"/>
+      <c r="L117" s="16"/>
+      <c r="M117" s="16"/>
+      <c r="N117" s="14" t="n">
+        <f aca="false">IF(ABS(J117-F117)&lt;N$6,1,999)</f>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B118" s="3"/>
+      <c r="E118" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="F118" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="I118" s="4"/>
+      <c r="N118" s="14" t="e">
+        <f aca="false">IF(ABS(J118-F118)&lt;N$6,1,999)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B119" s="3"/>
+      <c r="E119" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="F119" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="I119" s="4"/>
+      <c r="J119" s="3"/>
+      <c r="N119" s="14" t="n">
+        <f aca="false">IF(ABS(J119-F119)&lt;N$6,1,999)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B120" s="3"/>
+      <c r="E120" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="F120" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="I120" s="4"/>
+      <c r="J120" s="3"/>
+      <c r="N120" s="14" t="n">
+        <f aca="false">IF(ABS(J120-F120)&lt;N$6,1,999)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E121" s="14" t="s">
+        <v>183</v>
+      </c>
+      <c r="F121" s="15" t="s">
+        <v>292</v>
+      </c>
+      <c r="G121" s="16"/>
+      <c r="H121" s="16"/>
+      <c r="I121" s="17"/>
+      <c r="J121" s="15"/>
+      <c r="K121" s="16"/>
+      <c r="L121" s="16"/>
+      <c r="M121" s="16"/>
+      <c r="N121" s="14" t="n">
+        <f aca="false">IF(ABS(J121-F121)&lt;N$6,1,999)</f>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B122" s="3"/>
+      <c r="E122" s="14" t="s">
+        <v>187</v>
+      </c>
+      <c r="F122" s="14" t="n">
+        <v>50</v>
+      </c>
+      <c r="G122" s="16"/>
+      <c r="H122" s="16"/>
+      <c r="I122" s="17"/>
+      <c r="J122" s="14"/>
+      <c r="K122" s="16"/>
+      <c r="L122" s="16"/>
+      <c r="M122" s="16"/>
+      <c r="N122" s="14" t="n">
+        <f aca="false">IF(ABS(J122-F122)&lt;N$6,1,999)</f>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E123" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="F123" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="I123" s="4"/>
+      <c r="N123" s="14" t="e">
+        <f aca="false">IF(ABS(J123-F123)&lt;N$6,1,999)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E124" s="0" t="s">
+        <v>191</v>
+      </c>
+      <c r="F124" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" s="4"/>
+      <c r="N124" s="14" t="n">
+        <f aca="false">IF(ABS(J124-F124)&lt;N$6,1,999)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E125" s="0" t="s">
+        <v>193</v>
+      </c>
+      <c r="F125" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="I125" s="4"/>
+      <c r="J125" s="3"/>
+      <c r="N125" s="14" t="n">
+        <f aca="false">IF(ABS(J125-F125)&lt;N$6,1,999)</f>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E126" s="14" t="s">
+        <v>197</v>
+      </c>
+      <c r="F126" s="15" t="s">
+        <v>294</v>
+      </c>
+      <c r="G126" s="16"/>
+      <c r="H126" s="16"/>
+      <c r="I126" s="17"/>
+      <c r="J126" s="15"/>
+      <c r="K126" s="16"/>
+      <c r="L126" s="16"/>
+      <c r="M126" s="16"/>
+      <c r="N126" s="14" t="n">
+        <f aca="false">IF(ABS(J126-F126)&lt;N$6,1,999)</f>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E127" s="14" t="s">
+        <v>201</v>
+      </c>
+      <c r="F127" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="G127" s="16"/>
+      <c r="H127" s="16"/>
+      <c r="I127" s="17"/>
+      <c r="J127" s="15"/>
+      <c r="K127" s="16"/>
+      <c r="L127" s="16"/>
+      <c r="M127" s="16"/>
+      <c r="N127" s="14" t="n">
+        <f aca="false">IF(ABS(J127-F127)&lt;N$6,1,999)</f>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E128" s="0" t="s">
+        <v>205</v>
+      </c>
+      <c r="F128" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="I128" s="4"/>
+      <c r="N128" s="14" t="e">
+        <f aca="false">IF(ABS(J128-F128)&lt;N$6,1,999)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E129" s="14" t="s">
+        <v>206</v>
+      </c>
+      <c r="F129" s="15" t="s">
+        <v>296</v>
+      </c>
+      <c r="G129" s="16"/>
+      <c r="H129" s="16"/>
+      <c r="I129" s="17"/>
+      <c r="J129" s="15"/>
+      <c r="K129" s="16"/>
+      <c r="L129" s="16"/>
+      <c r="M129" s="16"/>
+      <c r="N129" s="14" t="n">
+        <f aca="false">IF(ABS(J129-F129)&lt;N$6,1,999)</f>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E130" s="0" t="s">
+        <v>210</v>
+      </c>
+      <c r="F130" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="I130" s="4"/>
+      <c r="N130" s="14" t="e">
+        <f aca="false">IF(ABS(J130-F130)&lt;N$6,1,999)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E131" s="14" t="s">
+        <v>211</v>
+      </c>
+      <c r="F131" s="18" t="n">
+        <v>1.4311E-009</v>
+      </c>
+      <c r="G131" s="16"/>
+      <c r="H131" s="16"/>
+      <c r="I131" s="17"/>
+      <c r="J131" s="18"/>
+      <c r="K131" s="16"/>
+      <c r="L131" s="16"/>
+      <c r="M131" s="16"/>
+      <c r="N131" s="14" t="n">
+        <f aca="false">IF(ABS(J131-F131)&lt;N$6,1,999)</f>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E132" s="14" t="s">
+        <v>213</v>
+      </c>
+      <c r="F132" s="18" t="n">
+        <v>2.6509E-008</v>
+      </c>
+      <c r="G132" s="16"/>
+      <c r="H132" s="16"/>
+      <c r="I132" s="17"/>
+      <c r="J132" s="18"/>
+      <c r="K132" s="16"/>
+      <c r="L132" s="16"/>
+      <c r="M132" s="16"/>
+      <c r="N132" s="14" t="n">
+        <f aca="false">IF(ABS(J132-F132)&lt;N$6,1,999)</f>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="135" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A135" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E135" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="I135" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="N135" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A136" s="2" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E137" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="F137" s="15" t="s">
+        <v>298</v>
+      </c>
+      <c r="G137" s="16"/>
+      <c r="H137" s="16"/>
+      <c r="I137" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="J137" s="15" t="s">
+        <v>299</v>
+      </c>
+      <c r="K137" s="16"/>
+      <c r="L137" s="16"/>
+      <c r="M137" s="16"/>
+      <c r="N137" s="14" t="n">
+        <f aca="false">IF(ABS(J137-F137)&lt;N$6,1,999)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A138" s="0" t="s">
+        <v>281</v>
+      </c>
+      <c r="E138" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="F138" s="15" t="s">
+        <v>300</v>
+      </c>
+      <c r="G138" s="16"/>
+      <c r="H138" s="16"/>
+      <c r="I138" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="J138" s="15" t="s">
+        <v>301</v>
+      </c>
+      <c r="K138" s="16"/>
+      <c r="L138" s="16"/>
+      <c r="M138" s="16"/>
+      <c r="N138" s="14" t="n">
+        <f aca="false">IF(ABS(J138-F138)&lt;N$6,1,999)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E139" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="F139" s="15" t="s">
+        <v>302</v>
+      </c>
+      <c r="G139" s="16"/>
+      <c r="H139" s="16"/>
+      <c r="I139" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="J139" s="15" t="s">
+        <v>303</v>
+      </c>
+      <c r="K139" s="16"/>
+      <c r="L139" s="16"/>
+      <c r="M139" s="16"/>
+      <c r="N139" s="14" t="n">
+        <f aca="false">IF(ABS(J139-F139)&lt;N$6,1,999)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A140" s="0" t="s">
+        <v>284</v>
+      </c>
+      <c r="E140" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="F140" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="G140" s="16"/>
+      <c r="H140" s="16"/>
+      <c r="I140" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="J140" s="15" t="s">
+        <v>305</v>
+      </c>
+      <c r="K140" s="16"/>
+      <c r="L140" s="16"/>
+      <c r="M140" s="16"/>
+      <c r="N140" s="14" t="n">
+        <f aca="false">IF(ABS(J140-F140)&lt;N$6,1,999)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B141" s="5"/>
+      <c r="E141" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="F141" s="15" t="s">
+        <v>306</v>
+      </c>
+      <c r="G141" s="16"/>
+      <c r="H141" s="16"/>
+      <c r="I141" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="J141" s="15" t="s">
+        <v>307</v>
+      </c>
+      <c r="K141" s="16"/>
+      <c r="L141" s="16"/>
+      <c r="M141" s="16"/>
+      <c r="N141" s="14" t="n">
+        <f aca="false">IF(ABS(J141-F141)&lt;N$6,1,999)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B142" s="5"/>
+      <c r="E142" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="F142" s="15" t="s">
+        <v>306</v>
+      </c>
+      <c r="G142" s="16"/>
+      <c r="H142" s="16"/>
+      <c r="I142" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="J142" s="15" t="s">
+        <v>307</v>
+      </c>
+      <c r="K142" s="16"/>
+      <c r="L142" s="16"/>
+      <c r="M142" s="16"/>
+      <c r="N142" s="14" t="n">
+        <f aca="false">IF(ABS(J142-F142)&lt;N$6,1,999)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E143" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="F143" s="14" t="n">
+        <v>2.3079</v>
+      </c>
+      <c r="G143" s="16"/>
+      <c r="H143" s="16"/>
+      <c r="I143" s="17" t="s">
+        <v>154</v>
+      </c>
+      <c r="J143" s="19" t="n">
+        <v>2.30789514956291</v>
+      </c>
+      <c r="K143" s="16"/>
+      <c r="L143" s="16"/>
+      <c r="M143" s="16"/>
+      <c r="N143" s="14" t="n">
+        <f aca="false">IF(ABS(J143-F143)&lt;N$6,1,999)</f>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E144" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="F144" s="0" t="n">
+        <v>0.9585</v>
+      </c>
+      <c r="I144" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="J144" s="0" t="n">
+        <v>0.958469951880428</v>
+      </c>
+      <c r="N144" s="14" t="n">
+        <f aca="false">IF(ABS(J144-F144)&lt;N$6,1,999)</f>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E145" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="F145" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="I145" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="N145" s="14" t="e">
+        <f aca="false">IF(ABS(J145-F145)&lt;N$6,1,999)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E146" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="F146" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="I146" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="J146" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="N146" s="14" t="n">
+        <f aca="false">IF(ABS(J146-F146)&lt;N$6,1,999)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B147" s="3"/>
+      <c r="E147" s="0" t="s">
+        <v>164</v>
+      </c>
+      <c r="F147" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="I147" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="J147" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="N147" s="14" t="n">
+        <f aca="false">IF(ABS(J147-F147)&lt;N$6,1,999)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B148" s="3"/>
+      <c r="E148" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="F148" s="15" t="s">
+        <v>312</v>
+      </c>
+      <c r="G148" s="16"/>
+      <c r="H148" s="16"/>
+      <c r="I148" s="17" t="s">
+        <v>170</v>
+      </c>
+      <c r="J148" s="15" t="s">
+        <v>313</v>
+      </c>
+      <c r="K148" s="16"/>
+      <c r="L148" s="16"/>
+      <c r="M148" s="16"/>
+      <c r="N148" s="14" t="n">
+        <f aca="false">IF(ABS(J148-F148)&lt;N$6,1,999)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B149" s="6"/>
+      <c r="E149" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="F149" s="14" t="n">
+        <v>3.0579</v>
+      </c>
+      <c r="G149" s="16"/>
+      <c r="H149" s="16"/>
+      <c r="I149" s="17" t="s">
+        <v>173</v>
+      </c>
+      <c r="J149" s="14" t="n">
+        <v>3.05787010033714</v>
+      </c>
+      <c r="K149" s="16"/>
+      <c r="L149" s="16"/>
+      <c r="M149" s="16"/>
+      <c r="N149" s="14" t="n">
+        <f aca="false">IF(ABS(J149-F149)&lt;N$6,1,999)</f>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B150" s="3"/>
+      <c r="E150" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="F150" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="I150" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="N150" s="14" t="e">
+        <f aca="false">IF(ABS(J150-F150)&lt;N$6,1,999)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B151" s="3"/>
+      <c r="E151" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="F151" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="I151" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="J151" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="N151" s="14" t="n">
+        <f aca="false">IF(ABS(J151-F151)&lt;N$6,1,999)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B152" s="3"/>
+      <c r="E152" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="F152" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="I152" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="J152" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="N152" s="14" t="n">
+        <f aca="false">IF(ABS(J152-F152)&lt;N$6,1,999)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E153" s="14" t="s">
+        <v>183</v>
+      </c>
+      <c r="F153" s="15" t="s">
+        <v>318</v>
+      </c>
+      <c r="G153" s="16"/>
+      <c r="H153" s="16"/>
+      <c r="I153" s="17" t="s">
+        <v>185</v>
+      </c>
+      <c r="J153" s="15" t="s">
+        <v>319</v>
+      </c>
+      <c r="K153" s="16"/>
+      <c r="L153" s="16"/>
+      <c r="M153" s="16"/>
+      <c r="N153" s="14" t="n">
+        <f aca="false">IF(ABS(J153-F153)&lt;N$6,1,999)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B154" s="3"/>
+      <c r="E154" s="14" t="s">
+        <v>187</v>
+      </c>
+      <c r="F154" s="14" t="n">
+        <v>50</v>
+      </c>
+      <c r="G154" s="16"/>
+      <c r="H154" s="16"/>
+      <c r="I154" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="J154" s="14" t="n">
+        <v>50</v>
+      </c>
+      <c r="K154" s="16"/>
+      <c r="L154" s="16"/>
+      <c r="M154" s="16"/>
+      <c r="N154" s="14" t="n">
+        <f aca="false">IF(ABS(J154-F154)&lt;N$6,1,999)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E155" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="F155" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="I155" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="N155" s="14" t="e">
+        <f aca="false">IF(ABS(J155-F155)&lt;N$6,1,999)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E156" s="0" t="s">
+        <v>191</v>
+      </c>
+      <c r="F156" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="J156" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N156" s="14" t="n">
+        <f aca="false">IF(ABS(J156-F156)&lt;N$6,1,999)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E157" s="0" t="s">
+        <v>193</v>
+      </c>
+      <c r="F157" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="I157" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="J157" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="N157" s="14" t="n">
+        <f aca="false">IF(ABS(J157-F157)&lt;N$6,1,999)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E158" s="14" t="s">
+        <v>197</v>
+      </c>
+      <c r="F158" s="15" t="s">
+        <v>322</v>
+      </c>
+      <c r="G158" s="16"/>
+      <c r="H158" s="16"/>
+      <c r="I158" s="17" t="s">
+        <v>199</v>
+      </c>
+      <c r="J158" s="15" t="s">
+        <v>323</v>
+      </c>
+      <c r="K158" s="16"/>
+      <c r="L158" s="16"/>
+      <c r="M158" s="16"/>
+      <c r="N158" s="14" t="n">
+        <f aca="false">IF(ABS(J158-F158)&lt;N$6,1,999)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E159" s="14" t="s">
+        <v>201</v>
+      </c>
+      <c r="F159" s="15" t="s">
+        <v>324</v>
+      </c>
+      <c r="G159" s="16"/>
+      <c r="H159" s="16"/>
+      <c r="I159" s="17" t="s">
+        <v>203</v>
+      </c>
+      <c r="J159" s="15" t="s">
+        <v>325</v>
+      </c>
+      <c r="K159" s="16"/>
+      <c r="L159" s="16"/>
+      <c r="M159" s="16"/>
+      <c r="N159" s="14" t="n">
+        <f aca="false">IF(ABS(J159-F159)&lt;N$6,1,999)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E160" s="0" t="s">
+        <v>205</v>
+      </c>
+      <c r="F160" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="I160" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="N160" s="14" t="e">
+        <f aca="false">IF(ABS(J160-F160)&lt;N$6,1,999)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E161" s="14" t="s">
+        <v>206</v>
+      </c>
+      <c r="F161" s="15" t="s">
+        <v>326</v>
+      </c>
+      <c r="G161" s="16"/>
+      <c r="H161" s="16"/>
+      <c r="I161" s="17" t="s">
+        <v>208</v>
+      </c>
+      <c r="J161" s="15" t="s">
+        <v>327</v>
+      </c>
+      <c r="K161" s="16"/>
+      <c r="L161" s="16"/>
+      <c r="M161" s="16"/>
+      <c r="N161" s="14" t="n">
+        <f aca="false">IF(ABS(J161-F161)&lt;N$6,1,999)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E162" s="0" t="s">
+        <v>210</v>
+      </c>
+      <c r="F162" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="I162" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="N162" s="14" t="e">
+        <f aca="false">IF(ABS(J162-F162)&lt;N$6,1,999)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E163" s="14" t="s">
+        <v>211</v>
+      </c>
+      <c r="F163" s="18" t="n">
+        <v>1.4442E-009</v>
+      </c>
+      <c r="G163" s="16"/>
+      <c r="H163" s="16"/>
+      <c r="I163" s="17" t="s">
+        <v>212</v>
+      </c>
+      <c r="J163" s="18" t="n">
+        <v>1.44422986523883E-009</v>
+      </c>
+      <c r="K163" s="16"/>
+      <c r="L163" s="16"/>
+      <c r="M163" s="16"/>
+      <c r="N163" s="14" t="n">
+        <f aca="false">IF(ABS(J163-F163)&lt;N$6,1,999)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E164" s="14" t="s">
+        <v>213</v>
+      </c>
+      <c r="F164" s="18" t="n">
+        <v>1.1477E-008</v>
+      </c>
+      <c r="G164" s="16"/>
+      <c r="H164" s="16"/>
+      <c r="I164" s="17" t="s">
+        <v>214</v>
+      </c>
+      <c r="J164" s="18" t="n">
+        <v>1.14772543863039E-008</v>
+      </c>
+      <c r="K164" s="16"/>
+      <c r="L164" s="16"/>
+      <c r="M164" s="16"/>
+      <c r="N164" s="14" t="n">
+        <f aca="false">IF(ABS(J164-F164)&lt;N$6,1,999)</f>
         <v>1</v>
       </c>
     </row>
@@ -9976,7 +12755,7 @@
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="2" customFormat="false" ht="12.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="N2" s="0" t="s">
-        <v>215</v>
+        <v>328</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="18.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10005,13 +12784,13 @@
         <v>8</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>216</v>
+        <v>329</v>
       </c>
       <c r="I5" s="0" t="s">
         <v>10</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>217</v>
+        <v>330</v>
       </c>
       <c r="N5" s="0" t="n">
         <f aca="false">IF(J5-F5&lt;0.000000001,1,999)</f>
@@ -10023,19 +12802,19 @@
         <v>45</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>218</v>
+        <v>331</v>
       </c>
       <c r="E6" s="0" t="s">
         <v>13</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>219</v>
+        <v>332</v>
       </c>
       <c r="I6" s="0" t="s">
         <v>15</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>220</v>
+        <v>333</v>
       </c>
       <c r="N6" s="0" t="n">
         <f aca="false">IF(J6-F6&lt;0.000000001,1,999)</f>
@@ -10047,19 +12826,19 @@
         <v>50</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>218</v>
+        <v>331</v>
       </c>
       <c r="E7" s="0" t="s">
         <v>18</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>221</v>
+        <v>334</v>
       </c>
       <c r="I7" s="0" t="s">
         <v>20</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>222</v>
+        <v>335</v>
       </c>
       <c r="N7" s="0" t="n">
         <f aca="false">IF(J7-F7&lt;0.000000001,1,999)</f>
@@ -10077,13 +12856,13 @@
         <v>23</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>223</v>
+        <v>336</v>
       </c>
       <c r="I8" s="0" t="s">
         <v>23</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>224</v>
+        <v>337</v>
       </c>
       <c r="N8" s="0" t="n">
         <f aca="false">IF(J8-F8&lt;0.000000001,1,999)</f>
@@ -10101,13 +12880,13 @@
         <v>27</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>225</v>
+        <v>338</v>
       </c>
       <c r="I9" s="0" t="s">
         <v>27</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>226</v>
+        <v>339</v>
       </c>
       <c r="N9" s="0" t="n">
         <f aca="false">IF(J9-F9&lt;0.000000001,1,999)</f>
@@ -10125,13 +12904,13 @@
         <v>31</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>227</v>
+        <v>340</v>
       </c>
       <c r="I10" s="0" t="s">
         <v>31</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>228</v>
+        <v>341</v>
       </c>
       <c r="N10" s="0" t="n">
         <f aca="false">IF(J10-F10&lt;0.000000001,1,999)</f>
@@ -10140,10 +12919,10 @@
     </row>
     <row r="11" customFormat="false" ht="12.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>229</v>
+        <v>342</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>230</v>
+        <v>343</v>
       </c>
       <c r="E11" s="0" t="s">
         <v>35</v>
@@ -10164,10 +12943,10 @@
     </row>
     <row r="12" customFormat="false" ht="12.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>231</v>
+        <v>344</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>232</v>
+        <v>345</v>
       </c>
       <c r="E12" s="0" t="s">
         <v>37</v>
@@ -10191,7 +12970,7 @@
         <v>57</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>233</v>
+        <v>346</v>
       </c>
       <c r="E13" s="0" t="s">
         <v>40</v>
@@ -10199,9 +12978,11 @@
       <c r="F13" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="N13" s="0" t="e">
+      <c r="N13" s="0" t="inlineStr">
         <f aca="false">IF(J13-F13&lt;0.000000001,1,999)</f>
-        <v>#VALUE!</v>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10209,19 +12990,19 @@
         <v>60</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>234</v>
+        <v>347</v>
       </c>
       <c r="E14" s="0" t="s">
         <v>42</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>235</v>
+        <v>348</v>
       </c>
       <c r="I14" s="0" t="s">
         <v>42</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>236</v>
+        <v>349</v>
       </c>
       <c r="N14" s="0" t="n">
         <f aca="false">IF(J14-F14&lt;0.000000001,1,999)</f>
@@ -10233,19 +13014,19 @@
         <v>74</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>234</v>
+        <v>347</v>
       </c>
       <c r="E15" s="0" t="s">
         <v>47</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>237</v>
+        <v>350</v>
       </c>
       <c r="I15" s="0" t="s">
         <v>47</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>238</v>
+        <v>351</v>
       </c>
       <c r="N15" s="0" t="n">
         <f aca="false">IF(J15-F15&lt;0.000000001,1,999)</f>
@@ -10254,7 +13035,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>239</v>
+        <v>352</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>35</v>
@@ -10263,13 +13044,13 @@
         <v>51</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>240</v>
+        <v>353</v>
       </c>
       <c r="I16" s="0" t="s">
         <v>51</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>241</v>
+        <v>354</v>
       </c>
       <c r="N16" s="0" t="n">
         <f aca="false">IF(J16-F16&lt;0.000000001,1,999)</f>
@@ -10301,9 +13082,11 @@
       <c r="F18" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="N18" s="0" t="e">
+      <c r="N18" s="0" t="inlineStr">
         <f aca="false">IF(J18-F18&lt;0.000000001,1,999)</f>
-        <v>#VALUE!</v>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10311,13 +13094,13 @@
         <v>62</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>242</v>
+        <v>355</v>
       </c>
       <c r="I19" s="0" t="s">
         <v>62</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>243</v>
+        <v>356</v>
       </c>
       <c r="N19" s="0" t="n">
         <f aca="false">IF(J19-F19&lt;0.000000001,1,999)</f>
@@ -10329,13 +13112,13 @@
         <v>67</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>244</v>
+        <v>357</v>
       </c>
       <c r="I20" s="0" t="s">
         <v>67</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>245</v>
+        <v>358</v>
       </c>
       <c r="N20" s="0" t="n">
         <f aca="false">IF(J20-F20&lt;0.000000001,1,999)</f>
@@ -10347,13 +13130,13 @@
         <v>71</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>246</v>
+        <v>359</v>
       </c>
       <c r="I21" s="0" t="s">
         <v>71</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>247</v>
+        <v>360</v>
       </c>
       <c r="N21" s="0" t="n">
         <f aca="false">IF(J21-F21&lt;0.000000001,1,999)</f>
@@ -10385,9 +13168,11 @@
       <c r="F23" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="N23" s="0" t="e">
+      <c r="N23" s="0" t="inlineStr">
         <f aca="false">IF(J23-F23&lt;0.000000001,1,999)</f>
-        <v>#VALUE!</v>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10413,13 +13198,13 @@
         <v>78</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>248</v>
+        <v>361</v>
       </c>
       <c r="I25" s="0" t="s">
         <v>78</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>249</v>
+        <v>362</v>
       </c>
       <c r="N25" s="0" t="n">
         <f aca="false">IF(J25-F25&lt;0.000000001,1,999)</f>
@@ -10431,13 +13216,13 @@
         <v>81</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>250</v>
+        <v>363</v>
       </c>
       <c r="I26" s="0" t="s">
         <v>83</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>251</v>
+        <v>364</v>
       </c>
       <c r="N26" s="0" t="n">
         <f aca="false">IF(J26-F26&lt;0.000000001,1,999)</f>
@@ -10449,13 +13234,13 @@
         <v>85</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>252</v>
+        <v>365</v>
       </c>
       <c r="I27" s="0" t="s">
         <v>85</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>253</v>
+        <v>366</v>
       </c>
       <c r="N27" s="0" t="n">
         <f aca="false">IF(J27-F27&lt;0.000000001,1,999)</f>
@@ -10469,9 +13254,11 @@
       <c r="F28" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="N28" s="0" t="e">
+      <c r="N28" s="0" t="inlineStr">
         <f aca="false">IF(J28-F28&lt;0.000000001,1,999)</f>
-        <v>#VALUE!</v>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10479,13 +13266,13 @@
         <v>89</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>254</v>
+        <v>367</v>
       </c>
       <c r="I29" s="0" t="s">
         <v>89</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>255</v>
+        <v>368</v>
       </c>
       <c r="N29" s="0" t="n">
         <f aca="false">IF(J29-F29&lt;0.000000001,1,999)</f>
@@ -10511,13 +13298,13 @@
         <v>8</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>216</v>
+        <v>329</v>
       </c>
       <c r="I35" s="0" t="s">
         <v>10</v>
       </c>
       <c r="J35" s="3" t="s">
-        <v>217</v>
+        <v>330</v>
       </c>
       <c r="N35" s="0" t="n">
         <f aca="false">IF(J35-F35&lt;0.000000001,1,999)</f>
@@ -10529,19 +13316,19 @@
         <v>45</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>218</v>
+        <v>331</v>
       </c>
       <c r="E36" s="0" t="s">
         <v>13</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>219</v>
+        <v>332</v>
       </c>
       <c r="I36" s="0" t="s">
         <v>15</v>
       </c>
       <c r="J36" s="3" t="s">
-        <v>220</v>
+        <v>333</v>
       </c>
       <c r="N36" s="0" t="n">
         <f aca="false">IF(J36-F36&lt;0.000000001,1,999)</f>
@@ -10553,19 +13340,19 @@
         <v>50</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>218</v>
+        <v>331</v>
       </c>
       <c r="E37" s="0" t="s">
         <v>18</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>221</v>
+        <v>334</v>
       </c>
       <c r="I37" s="0" t="s">
         <v>20</v>
       </c>
       <c r="J37" s="3" t="s">
-        <v>222</v>
+        <v>335</v>
       </c>
       <c r="N37" s="0" t="n">
         <f aca="false">IF(J37-F37&lt;0.000000001,1,999)</f>
@@ -10583,13 +13370,13 @@
         <v>23</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>223</v>
+        <v>336</v>
       </c>
       <c r="I38" s="0" t="s">
         <v>23</v>
       </c>
       <c r="J38" s="3" t="s">
-        <v>224</v>
+        <v>337</v>
       </c>
       <c r="N38" s="0" t="n">
         <f aca="false">IF(J38-F38&lt;0.000000001,1,999)</f>
@@ -10607,13 +13394,13 @@
         <v>27</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>225</v>
+        <v>338</v>
       </c>
       <c r="I39" s="0" t="s">
         <v>27</v>
       </c>
       <c r="J39" s="3" t="s">
-        <v>226</v>
+        <v>339</v>
       </c>
       <c r="N39" s="0" t="n">
         <f aca="false">IF(J39-F39&lt;0.000000001,1,999)</f>
@@ -10631,13 +13418,13 @@
         <v>31</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>227</v>
+        <v>340</v>
       </c>
       <c r="I40" s="0" t="s">
         <v>31</v>
       </c>
       <c r="J40" s="3" t="s">
-        <v>228</v>
+        <v>341</v>
       </c>
       <c r="N40" s="0" t="n">
         <f aca="false">IF(J40-F40&lt;0.000000001,1,999)</f>
@@ -10646,10 +13433,10 @@
     </row>
     <row r="41" customFormat="false" ht="12.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>229</v>
+        <v>342</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>230</v>
+        <v>343</v>
       </c>
       <c r="E41" s="0" t="s">
         <v>35</v>
@@ -10670,10 +13457,10 @@
     </row>
     <row r="42" customFormat="false" ht="12.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>231</v>
+        <v>344</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>232</v>
+        <v>345</v>
       </c>
       <c r="E42" s="0" t="s">
         <v>37</v>
@@ -10697,7 +13484,7 @@
         <v>57</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>233</v>
+        <v>346</v>
       </c>
       <c r="E43" s="0" t="s">
         <v>40</v>
@@ -10705,9 +13492,11 @@
       <c r="F43" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="N43" s="0" t="e">
+      <c r="N43" s="0" t="inlineStr">
         <f aca="false">IF(J43-F43&lt;0.000000001,1,999)</f>
-        <v>#VALUE!</v>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10715,19 +13504,19 @@
         <v>60</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>234</v>
+        <v>347</v>
       </c>
       <c r="E44" s="0" t="s">
         <v>42</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>256</v>
+        <v>369</v>
       </c>
       <c r="I44" s="0" t="s">
         <v>42</v>
       </c>
       <c r="J44" s="3" t="s">
-        <v>257</v>
+        <v>370</v>
       </c>
       <c r="N44" s="0" t="n">
         <f aca="false">IF(J44-F44&lt;0.000000001,1,999)</f>
@@ -10739,19 +13528,19 @@
         <v>74</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>234</v>
+        <v>347</v>
       </c>
       <c r="E45" s="0" t="s">
         <v>47</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>258</v>
+        <v>371</v>
       </c>
       <c r="I45" s="0" t="s">
         <v>47</v>
       </c>
       <c r="J45" s="3" t="s">
-        <v>259</v>
+        <v>372</v>
       </c>
       <c r="N45" s="0" t="n">
         <f aca="false">IF(J45-F45&lt;0.000000001,1,999)</f>
@@ -10760,7 +13549,7 @@
     </row>
     <row r="46" customFormat="false" ht="12.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>239</v>
+        <v>352</v>
       </c>
       <c r="B46" s="0" t="n">
         <v>35</v>
@@ -10769,13 +13558,13 @@
         <v>51</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>260</v>
+        <v>373</v>
       </c>
       <c r="I46" s="0" t="s">
         <v>51</v>
       </c>
       <c r="J46" s="3" t="s">
-        <v>261</v>
+        <v>374</v>
       </c>
       <c r="N46" s="0" t="n">
         <f aca="false">IF(J46-F46&lt;0.000000001,1,999)</f>
@@ -10807,9 +13596,11 @@
       <c r="F48" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="N48" s="0" t="e">
+      <c r="N48" s="0" t="inlineStr">
         <f aca="false">IF(J48-F48&lt;0.000000001,1,999)</f>
-        <v>#VALUE!</v>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10817,13 +13608,13 @@
         <v>62</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>262</v>
+        <v>375</v>
       </c>
       <c r="I49" s="0" t="s">
         <v>62</v>
       </c>
       <c r="J49" s="3" t="s">
-        <v>263</v>
+        <v>376</v>
       </c>
       <c r="N49" s="0" t="n">
         <f aca="false">IF(J49-F49&lt;0.000000001,1,999)</f>
@@ -10835,13 +13626,13 @@
         <v>67</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>264</v>
+        <v>377</v>
       </c>
       <c r="I50" s="0" t="s">
         <v>67</v>
       </c>
       <c r="J50" s="3" t="s">
-        <v>265</v>
+        <v>378</v>
       </c>
       <c r="N50" s="0" t="n">
         <f aca="false">IF(J50-F50&lt;0.000000001,1,999)</f>
@@ -10853,13 +13644,13 @@
         <v>71</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>266</v>
+        <v>379</v>
       </c>
       <c r="I51" s="0" t="s">
         <v>71</v>
       </c>
       <c r="J51" s="3" t="s">
-        <v>267</v>
+        <v>380</v>
       </c>
       <c r="N51" s="0" t="n">
         <f aca="false">IF(J51-F51&lt;0.000000001,1,999)</f>
@@ -10891,9 +13682,11 @@
       <c r="F53" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="N53" s="0" t="e">
+      <c r="N53" s="0" t="inlineStr">
         <f aca="false">IF(J53-F53&lt;0.000000001,1,999)</f>
-        <v>#VALUE!</v>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10919,13 +13712,13 @@
         <v>78</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>268</v>
+        <v>381</v>
       </c>
       <c r="I55" s="0" t="s">
         <v>78</v>
       </c>
       <c r="J55" s="3" t="s">
-        <v>269</v>
+        <v>382</v>
       </c>
       <c r="N55" s="0" t="n">
         <f aca="false">IF(J55-F55&lt;0.000000001,1,999)</f>
@@ -10937,13 +13730,13 @@
         <v>81</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>270</v>
+        <v>383</v>
       </c>
       <c r="I56" s="0" t="s">
         <v>83</v>
       </c>
       <c r="J56" s="3" t="s">
-        <v>271</v>
+        <v>384</v>
       </c>
       <c r="N56" s="0" t="n">
         <f aca="false">IF(J56-F56&lt;0.000000001,1,999)</f>
@@ -10955,13 +13748,13 @@
         <v>85</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>272</v>
+        <v>385</v>
       </c>
       <c r="I57" s="0" t="s">
         <v>85</v>
       </c>
       <c r="J57" s="3" t="s">
-        <v>273</v>
+        <v>386</v>
       </c>
       <c r="N57" s="0" t="n">
         <f aca="false">IF(J57-F57&lt;0.000000001,1,999)</f>
@@ -10975,9 +13768,11 @@
       <c r="F58" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="N58" s="0" t="e">
+      <c r="N58" s="0" t="inlineStr">
         <f aca="false">IF(J58-F58&lt;0.000000001,1,999)</f>
-        <v>#VALUE!</v>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10985,13 +13780,13 @@
         <v>89</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>274</v>
+        <v>387</v>
       </c>
       <c r="I59" s="0" t="s">
         <v>89</v>
       </c>
       <c r="J59" s="3" t="s">
-        <v>275</v>
+        <v>388</v>
       </c>
       <c r="N59" s="0" t="n">
         <f aca="false">IF(J59-F59&lt;0.000000001,1,999)</f>
@@ -11015,13 +13810,13 @@
         <v>8</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>216</v>
+        <v>329</v>
       </c>
       <c r="I65" s="0" t="s">
         <v>10</v>
       </c>
       <c r="J65" s="3" t="s">
-        <v>217</v>
+        <v>330</v>
       </c>
       <c r="N65" s="0" t="n">
         <f aca="false">IF(J65-F65&lt;0.000000001,1,999)</f>
@@ -11033,19 +13828,19 @@
         <v>45</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>218</v>
+        <v>331</v>
       </c>
       <c r="E66" s="0" t="s">
         <v>13</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>219</v>
+        <v>332</v>
       </c>
       <c r="I66" s="0" t="s">
         <v>15</v>
       </c>
       <c r="J66" s="3" t="s">
-        <v>220</v>
+        <v>333</v>
       </c>
       <c r="N66" s="0" t="n">
         <f aca="false">IF(J66-F66&lt;0.000000001,1,999)</f>
@@ -11057,19 +13852,19 @@
         <v>50</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>218</v>
+        <v>331</v>
       </c>
       <c r="E67" s="0" t="s">
         <v>18</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>221</v>
+        <v>334</v>
       </c>
       <c r="I67" s="0" t="s">
         <v>20</v>
       </c>
       <c r="J67" s="3" t="s">
-        <v>222</v>
+        <v>335</v>
       </c>
       <c r="N67" s="0" t="n">
         <f aca="false">IF(J67-F67&lt;0.000000001,1,999)</f>
@@ -11077,23 +13872,23 @@
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A68" s="19" t="s">
+      <c r="A68" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="B68" s="20" t="s">
-        <v>276</v>
+      <c r="B68" s="21" t="s">
+        <v>389</v>
       </c>
       <c r="E68" s="0" t="s">
         <v>23</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>223</v>
+        <v>336</v>
       </c>
       <c r="I68" s="0" t="s">
         <v>23</v>
       </c>
       <c r="J68" s="3" t="s">
-        <v>224</v>
+        <v>337</v>
       </c>
       <c r="N68" s="0" t="n">
         <f aca="false">IF(J68-F68&lt;0.000000001,1,999)</f>
@@ -11111,13 +13906,13 @@
         <v>27</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>225</v>
+        <v>338</v>
       </c>
       <c r="I69" s="0" t="s">
         <v>27</v>
       </c>
       <c r="J69" s="3" t="s">
-        <v>226</v>
+        <v>339</v>
       </c>
       <c r="N69" s="0" t="n">
         <f aca="false">IF(J69-F69&lt;0.000000001,1,999)</f>
@@ -11125,23 +13920,23 @@
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A70" s="21" t="s">
+      <c r="A70" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="B70" s="22" t="s">
-        <v>277</v>
+      <c r="B70" s="23" t="s">
+        <v>390</v>
       </c>
       <c r="E70" s="0" t="s">
         <v>31</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>227</v>
+        <v>340</v>
       </c>
       <c r="I70" s="0" t="s">
         <v>31</v>
       </c>
       <c r="J70" s="3" t="s">
-        <v>228</v>
+        <v>341</v>
       </c>
       <c r="N70" s="0" t="n">
         <f aca="false">IF(J70-F70&lt;0.000000001,1,999)</f>
@@ -11150,10 +13945,10 @@
     </row>
     <row r="71" customFormat="false" ht="12.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>229</v>
+        <v>342</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>230</v>
+        <v>343</v>
       </c>
       <c r="E71" s="0" t="s">
         <v>35</v>
@@ -11165,7 +13960,7 @@
         <v>35</v>
       </c>
       <c r="J71" s="3" t="s">
-        <v>278</v>
+        <v>391</v>
       </c>
       <c r="N71" s="0" t="n">
         <f aca="false">IF(J71-F71&lt;0.000000001,1,999)</f>
@@ -11174,10 +13969,10 @@
     </row>
     <row r="72" customFormat="false" ht="12.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>231</v>
+        <v>344</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>232</v>
+        <v>345</v>
       </c>
       <c r="E72" s="0" t="s">
         <v>37</v>
@@ -11201,7 +13996,7 @@
         <v>57</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>233</v>
+        <v>346</v>
       </c>
       <c r="E73" s="0" t="s">
         <v>40</v>
@@ -11209,9 +14004,11 @@
       <c r="F73" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="N73" s="0" t="e">
+      <c r="N73" s="0" t="inlineStr">
         <f aca="false">IF(J73-F73&lt;0.000000001,1,999)</f>
-        <v>#VALUE!</v>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11219,19 +14016,19 @@
         <v>60</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>234</v>
+        <v>347</v>
       </c>
       <c r="E74" s="0" t="s">
         <v>42</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>279</v>
+        <v>392</v>
       </c>
       <c r="I74" s="0" t="s">
         <v>42</v>
       </c>
       <c r="J74" s="3" t="s">
-        <v>280</v>
+        <v>393</v>
       </c>
       <c r="N74" s="0" t="n">
         <f aca="false">IF(J74-F74&lt;0.000000001,1,999)</f>
@@ -11243,19 +14040,19 @@
         <v>74</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>234</v>
+        <v>347</v>
       </c>
       <c r="E75" s="0" t="s">
         <v>47</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>281</v>
+        <v>394</v>
       </c>
       <c r="I75" s="0" t="s">
         <v>47</v>
       </c>
       <c r="J75" s="3" t="s">
-        <v>282</v>
+        <v>395</v>
       </c>
       <c r="N75" s="0" t="n">
         <f aca="false">IF(J75-F75&lt;0.000000001,1,999)</f>
@@ -11264,7 +14061,7 @@
     </row>
     <row r="76" customFormat="false" ht="12.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
-        <v>239</v>
+        <v>352</v>
       </c>
       <c r="B76" s="0" t="n">
         <v>35</v>
@@ -11273,13 +14070,13 @@
         <v>51</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>283</v>
+        <v>396</v>
       </c>
       <c r="I76" s="0" t="s">
         <v>51</v>
       </c>
       <c r="J76" s="3" t="s">
-        <v>284</v>
+        <v>397</v>
       </c>
       <c r="N76" s="0" t="n">
         <f aca="false">IF(J76-F76&lt;0.000000001,1,999)</f>
@@ -11311,9 +14108,11 @@
       <c r="F78" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="N78" s="0" t="e">
+      <c r="N78" s="0" t="inlineStr">
         <f aca="false">IF(J78-F78&lt;0.000000001,1,999)</f>
-        <v>#VALUE!</v>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11321,13 +14120,13 @@
         <v>62</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>285</v>
+        <v>398</v>
       </c>
       <c r="I79" s="0" t="s">
         <v>62</v>
       </c>
       <c r="J79" s="3" t="s">
-        <v>286</v>
+        <v>399</v>
       </c>
       <c r="N79" s="0" t="n">
         <f aca="false">IF(J79-F79&lt;0.000000001,1,999)</f>
@@ -11339,13 +14138,13 @@
         <v>67</v>
       </c>
       <c r="F80" s="3" t="s">
-        <v>287</v>
+        <v>400</v>
       </c>
       <c r="I80" s="0" t="s">
         <v>67</v>
       </c>
       <c r="J80" s="3" t="s">
-        <v>288</v>
+        <v>401</v>
       </c>
       <c r="N80" s="0" t="n">
         <f aca="false">IF(J80-F80&lt;0.000000001,1,999)</f>
@@ -11357,13 +14156,13 @@
         <v>71</v>
       </c>
       <c r="F81" s="3" t="s">
-        <v>289</v>
+        <v>402</v>
       </c>
       <c r="I81" s="0" t="s">
         <v>71</v>
       </c>
       <c r="J81" s="3" t="s">
-        <v>290</v>
+        <v>403</v>
       </c>
       <c r="N81" s="0" t="n">
         <f aca="false">IF(J81-F81&lt;0.000000001,1,999)</f>
@@ -11395,9 +14194,11 @@
       <c r="F83" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="N83" s="0" t="e">
+      <c r="N83" s="0" t="inlineStr">
         <f aca="false">IF(J83-F83&lt;0.000000001,1,999)</f>
-        <v>#VALUE!</v>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11423,13 +14224,13 @@
         <v>78</v>
       </c>
       <c r="F85" s="3" t="s">
-        <v>291</v>
+        <v>404</v>
       </c>
       <c r="I85" s="0" t="s">
         <v>78</v>
       </c>
       <c r="J85" s="3" t="s">
-        <v>292</v>
+        <v>405</v>
       </c>
       <c r="N85" s="0" t="n">
         <f aca="false">IF(J85-F85&lt;0.000000001,1,999)</f>
@@ -11441,13 +14242,13 @@
         <v>81</v>
       </c>
       <c r="F86" s="3" t="s">
-        <v>293</v>
+        <v>406</v>
       </c>
       <c r="I86" s="0" t="s">
         <v>83</v>
       </c>
       <c r="J86" s="3" t="s">
-        <v>294</v>
+        <v>407</v>
       </c>
       <c r="N86" s="0" t="n">
         <f aca="false">IF(J86-F86&lt;0.000000001,1,999)</f>
@@ -11459,13 +14260,13 @@
         <v>85</v>
       </c>
       <c r="F87" s="3" t="s">
-        <v>295</v>
+        <v>408</v>
       </c>
       <c r="I87" s="0" t="s">
         <v>85</v>
       </c>
       <c r="J87" s="3" t="s">
-        <v>296</v>
+        <v>409</v>
       </c>
       <c r="N87" s="0" t="n">
         <f aca="false">IF(J87-F87&lt;0.000000001,1,999)</f>
@@ -11479,9 +14280,11 @@
       <c r="F88" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="N88" s="0" t="e">
+      <c r="N88" s="0" t="inlineStr">
         <f aca="false">IF(J88-F88&lt;0.000000001,1,999)</f>
-        <v>#VALUE!</v>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11489,13 +14292,13 @@
         <v>89</v>
       </c>
       <c r="F89" s="3" t="s">
-        <v>297</v>
+        <v>410</v>
       </c>
       <c r="I89" s="0" t="s">
         <v>89</v>
       </c>
       <c r="J89" s="3" t="s">
-        <v>298</v>
+        <v>411</v>
       </c>
       <c r="N89" s="0" t="n">
         <f aca="false">IF(J89-F89&lt;0.000000001,1,999)</f>
@@ -11508,23 +14311,23 @@
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A94" s="21" t="s">
+      <c r="A94" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="B94" s="21" t="n">
+      <c r="B94" s="22" t="n">
         <v>30</v>
       </c>
       <c r="E94" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F94" s="3" t="s">
-        <v>216</v>
+        <v>329</v>
       </c>
       <c r="I94" s="0" t="s">
         <v>10</v>
       </c>
       <c r="J94" s="3" t="s">
-        <v>217</v>
+        <v>330</v>
       </c>
       <c r="N94" s="0" t="n">
         <f aca="false">IF(J94-F94&lt;0.000000001,1,999)</f>
@@ -11536,19 +14339,19 @@
         <v>45</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>218</v>
+        <v>331</v>
       </c>
       <c r="E95" s="0" t="s">
         <v>13</v>
       </c>
       <c r="F95" s="3" t="s">
-        <v>219</v>
+        <v>332</v>
       </c>
       <c r="I95" s="0" t="s">
         <v>15</v>
       </c>
       <c r="J95" s="3" t="s">
-        <v>220</v>
+        <v>333</v>
       </c>
       <c r="N95" s="0" t="n">
         <f aca="false">IF(J95-F95&lt;0.000000001,1,999)</f>
@@ -11560,19 +14363,19 @@
         <v>50</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>218</v>
+        <v>331</v>
       </c>
       <c r="E96" s="0" t="s">
         <v>18</v>
       </c>
       <c r="F96" s="3" t="s">
-        <v>221</v>
+        <v>334</v>
       </c>
       <c r="I96" s="0" t="s">
         <v>20</v>
       </c>
       <c r="J96" s="3" t="s">
-        <v>222</v>
+        <v>335</v>
       </c>
       <c r="N96" s="0" t="n">
         <f aca="false">IF(J96-F96&lt;0.000000001,1,999)</f>
@@ -11580,23 +14383,23 @@
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A97" s="21" t="s">
+      <c r="A97" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="B97" s="22" t="s">
-        <v>276</v>
+      <c r="B97" s="23" t="s">
+        <v>389</v>
       </c>
       <c r="E97" s="0" t="s">
         <v>23</v>
       </c>
       <c r="F97" s="3" t="s">
-        <v>223</v>
+        <v>336</v>
       </c>
       <c r="I97" s="0" t="s">
         <v>23</v>
       </c>
       <c r="J97" s="3" t="s">
-        <v>224</v>
+        <v>337</v>
       </c>
       <c r="N97" s="0" t="n">
         <f aca="false">IF(J97-F97&lt;0.000000001,1,999)</f>
@@ -11614,13 +14417,13 @@
         <v>27</v>
       </c>
       <c r="F98" s="3" t="s">
-        <v>225</v>
+        <v>338</v>
       </c>
       <c r="I98" s="0" t="s">
         <v>27</v>
       </c>
       <c r="J98" s="3" t="s">
-        <v>226</v>
+        <v>339</v>
       </c>
       <c r="N98" s="0" t="n">
         <f aca="false">IF(J98-F98&lt;0.000000001,1,999)</f>
@@ -11628,23 +14431,23 @@
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A99" s="21" t="s">
+      <c r="A99" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="B99" s="22" t="s">
-        <v>277</v>
+      <c r="B99" s="23" t="s">
+        <v>390</v>
       </c>
       <c r="E99" s="0" t="s">
         <v>31</v>
       </c>
       <c r="F99" s="3" t="s">
-        <v>227</v>
+        <v>340</v>
       </c>
       <c r="I99" s="0" t="s">
         <v>31</v>
       </c>
       <c r="J99" s="3" t="s">
-        <v>228</v>
+        <v>341</v>
       </c>
       <c r="N99" s="0" t="n">
         <f aca="false">IF(J99-F99&lt;0.000000001,1,999)</f>
@@ -11653,10 +14456,10 @@
     </row>
     <row r="100" customFormat="false" ht="12.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="s">
-        <v>229</v>
+        <v>342</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>230</v>
+        <v>343</v>
       </c>
       <c r="E100" s="0" t="s">
         <v>35</v>
@@ -11668,7 +14471,7 @@
         <v>35</v>
       </c>
       <c r="J100" s="3" t="s">
-        <v>299</v>
+        <v>412</v>
       </c>
       <c r="N100" s="0" t="n">
         <f aca="false">IF(J100-F100&lt;0.000000001,1,999)</f>
@@ -11677,10 +14480,10 @@
     </row>
     <row r="101" customFormat="false" ht="12.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="s">
-        <v>231</v>
+        <v>344</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>232</v>
+        <v>345</v>
       </c>
       <c r="E101" s="0" t="s">
         <v>37</v>
@@ -11704,7 +14507,7 @@
         <v>57</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>233</v>
+        <v>346</v>
       </c>
       <c r="E102" s="0" t="s">
         <v>40</v>
@@ -11712,9 +14515,11 @@
       <c r="F102" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="N102" s="0" t="e">
+      <c r="N102" s="0" t="inlineStr">
         <f aca="false">IF(J102-F102&lt;0.000000001,1,999)</f>
-        <v>#VALUE!</v>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11722,19 +14527,19 @@
         <v>60</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>234</v>
+        <v>347</v>
       </c>
       <c r="E103" s="0" t="s">
         <v>42</v>
       </c>
       <c r="F103" s="3" t="s">
-        <v>300</v>
+        <v>413</v>
       </c>
       <c r="I103" s="0" t="s">
         <v>42</v>
       </c>
       <c r="J103" s="3" t="s">
-        <v>301</v>
+        <v>414</v>
       </c>
       <c r="N103" s="0" t="n">
         <f aca="false">IF(J103-F103&lt;0.000000001,1,999)</f>
@@ -11746,19 +14551,19 @@
         <v>74</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>234</v>
+        <v>347</v>
       </c>
       <c r="E104" s="0" t="s">
         <v>47</v>
       </c>
       <c r="F104" s="3" t="s">
-        <v>302</v>
+        <v>415</v>
       </c>
       <c r="I104" s="0" t="s">
         <v>47</v>
       </c>
       <c r="J104" s="3" t="s">
-        <v>303</v>
+        <v>416</v>
       </c>
       <c r="N104" s="0" t="n">
         <f aca="false">IF(J104-F104&lt;0.000000001,1,999)</f>
@@ -11767,7 +14572,7 @@
     </row>
     <row r="105" customFormat="false" ht="12.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="s">
-        <v>239</v>
+        <v>352</v>
       </c>
       <c r="B105" s="0" t="n">
         <v>35</v>
@@ -11776,13 +14581,13 @@
         <v>51</v>
       </c>
       <c r="F105" s="3" t="s">
-        <v>304</v>
+        <v>417</v>
       </c>
       <c r="I105" s="0" t="s">
         <v>51</v>
       </c>
       <c r="J105" s="3" t="s">
-        <v>305</v>
+        <v>418</v>
       </c>
       <c r="N105" s="0" t="n">
         <f aca="false">IF(J105-F105&lt;0.000000001,1,999)</f>
@@ -11814,9 +14619,11 @@
       <c r="F107" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="N107" s="0" t="e">
+      <c r="N107" s="0" t="inlineStr">
         <f aca="false">IF(J107-F107&lt;0.000000001,1,999)</f>
-        <v>#VALUE!</v>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11824,13 +14631,13 @@
         <v>62</v>
       </c>
       <c r="F108" s="3" t="s">
-        <v>306</v>
+        <v>419</v>
       </c>
       <c r="I108" s="0" t="s">
         <v>62</v>
       </c>
       <c r="J108" s="3" t="s">
-        <v>307</v>
+        <v>420</v>
       </c>
       <c r="N108" s="0" t="n">
         <f aca="false">IF(J108-F108&lt;0.000000001,1,999)</f>
@@ -11842,13 +14649,13 @@
         <v>67</v>
       </c>
       <c r="F109" s="3" t="s">
-        <v>308</v>
+        <v>421</v>
       </c>
       <c r="I109" s="0" t="s">
         <v>67</v>
       </c>
       <c r="J109" s="3" t="s">
-        <v>309</v>
+        <v>422</v>
       </c>
       <c r="N109" s="0" t="n">
         <f aca="false">IF(J109-F109&lt;0.000000001,1,999)</f>
@@ -11860,13 +14667,13 @@
         <v>71</v>
       </c>
       <c r="F110" s="3" t="s">
-        <v>310</v>
+        <v>423</v>
       </c>
       <c r="I110" s="0" t="s">
         <v>71</v>
       </c>
       <c r="J110" s="3" t="s">
-        <v>311</v>
+        <v>424</v>
       </c>
       <c r="N110" s="0" t="n">
         <f aca="false">IF(J110-F110&lt;0.000000001,1,999)</f>
@@ -11898,9 +14705,11 @@
       <c r="F112" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="N112" s="0" t="e">
+      <c r="N112" s="0" t="inlineStr">
         <f aca="false">IF(J112-F112&lt;0.000000001,1,999)</f>
-        <v>#VALUE!</v>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11926,13 +14735,13 @@
         <v>78</v>
       </c>
       <c r="F114" s="3" t="s">
-        <v>312</v>
+        <v>425</v>
       </c>
       <c r="I114" s="0" t="s">
         <v>78</v>
       </c>
       <c r="J114" s="3" t="s">
-        <v>313</v>
+        <v>426</v>
       </c>
       <c r="N114" s="0" t="n">
         <f aca="false">IF(J114-F114&lt;0.000000001,1,999)</f>
@@ -11944,13 +14753,13 @@
         <v>81</v>
       </c>
       <c r="F115" s="3" t="s">
-        <v>314</v>
+        <v>427</v>
       </c>
       <c r="I115" s="0" t="s">
         <v>83</v>
       </c>
       <c r="J115" s="3" t="s">
-        <v>315</v>
+        <v>428</v>
       </c>
       <c r="N115" s="0" t="n">
         <f aca="false">IF(J115-F115&lt;0.000000001,1,999)</f>
@@ -11962,13 +14771,13 @@
         <v>85</v>
       </c>
       <c r="F116" s="3" t="s">
-        <v>316</v>
+        <v>429</v>
       </c>
       <c r="I116" s="0" t="s">
         <v>85</v>
       </c>
       <c r="J116" s="3" t="s">
-        <v>317</v>
+        <v>430</v>
       </c>
       <c r="N116" s="0" t="n">
         <f aca="false">IF(J116-F116&lt;0.000000001,1,999)</f>
@@ -11982,9 +14791,11 @@
       <c r="F117" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="N117" s="0" t="e">
+      <c r="N117" s="0" t="inlineStr">
         <f aca="false">IF(J117-F117&lt;0.000000001,1,999)</f>
-        <v>#VALUE!</v>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11992,13 +14803,13 @@
         <v>89</v>
       </c>
       <c r="F118" s="3" t="s">
-        <v>318</v>
+        <v>431</v>
       </c>
       <c r="I118" s="0" t="s">
         <v>89</v>
       </c>
       <c r="J118" s="3" t="s">
-        <v>319</v>
+        <v>432</v>
       </c>
       <c r="N118" s="0" t="n">
         <f aca="false">IF(J118-F118&lt;0.000000001,1,999)</f>
@@ -12021,13 +14832,13 @@
         <v>8</v>
       </c>
       <c r="F121" s="3" t="s">
-        <v>216</v>
+        <v>329</v>
       </c>
       <c r="I121" s="0" t="s">
         <v>10</v>
       </c>
       <c r="J121" s="3" t="s">
-        <v>217</v>
+        <v>330</v>
       </c>
       <c r="N121" s="0" t="n">
         <f aca="false">IF(J121-F121&lt;0.000000001,1,999)</f>
@@ -12039,19 +14850,19 @@
         <v>45</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>218</v>
+        <v>331</v>
       </c>
       <c r="E122" s="0" t="s">
         <v>13</v>
       </c>
       <c r="F122" s="3" t="s">
-        <v>219</v>
+        <v>332</v>
       </c>
       <c r="I122" s="0" t="s">
         <v>15</v>
       </c>
       <c r="J122" s="3" t="s">
-        <v>220</v>
+        <v>333</v>
       </c>
       <c r="N122" s="0" t="n">
         <f aca="false">IF(J122-F122&lt;0.000000001,1,999)</f>
@@ -12063,19 +14874,19 @@
         <v>50</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>218</v>
+        <v>331</v>
       </c>
       <c r="E123" s="0" t="s">
         <v>18</v>
       </c>
       <c r="F123" s="3" t="s">
-        <v>221</v>
+        <v>334</v>
       </c>
       <c r="I123" s="0" t="s">
         <v>20</v>
       </c>
       <c r="J123" s="3" t="s">
-        <v>222</v>
+        <v>335</v>
       </c>
       <c r="N123" s="0" t="n">
         <f aca="false">IF(J123-F123&lt;0.000000001,1,999)</f>
@@ -12093,13 +14904,13 @@
         <v>23</v>
       </c>
       <c r="F124" s="3" t="s">
-        <v>223</v>
+        <v>336</v>
       </c>
       <c r="I124" s="0" t="s">
         <v>23</v>
       </c>
       <c r="J124" s="3" t="s">
-        <v>224</v>
+        <v>337</v>
       </c>
       <c r="N124" s="0" t="n">
         <f aca="false">IF(J124-F124&lt;0.000000001,1,999)</f>
@@ -12107,23 +14918,23 @@
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A125" s="21" t="s">
+      <c r="A125" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="B125" s="22" t="s">
-        <v>320</v>
+      <c r="B125" s="23" t="s">
+        <v>433</v>
       </c>
       <c r="E125" s="0" t="s">
         <v>27</v>
       </c>
       <c r="F125" s="3" t="s">
-        <v>225</v>
+        <v>338</v>
       </c>
       <c r="I125" s="0" t="s">
         <v>27</v>
       </c>
       <c r="J125" s="3" t="s">
-        <v>226</v>
+        <v>339</v>
       </c>
       <c r="N125" s="0" t="n">
         <f aca="false">IF(J125-F125&lt;0.000000001,1,999)</f>
@@ -12131,23 +14942,23 @@
       </c>
     </row>
     <row r="126" customFormat="false" ht="12.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A126" s="21" t="s">
+      <c r="A126" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="B126" s="22" t="s">
-        <v>321</v>
+      <c r="B126" s="23" t="s">
+        <v>434</v>
       </c>
       <c r="E126" s="0" t="s">
         <v>31</v>
       </c>
       <c r="F126" s="3" t="s">
-        <v>227</v>
+        <v>340</v>
       </c>
       <c r="I126" s="0" t="s">
         <v>31</v>
       </c>
       <c r="J126" s="3" t="s">
-        <v>228</v>
+        <v>341</v>
       </c>
       <c r="N126" s="0" t="n">
         <f aca="false">IF(J126-F126&lt;0.000000001,1,999)</f>
@@ -12156,10 +14967,10 @@
     </row>
     <row r="127" customFormat="false" ht="12.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A127" s="0" t="s">
-        <v>229</v>
+        <v>342</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>230</v>
+        <v>343</v>
       </c>
       <c r="E127" s="0" t="s">
         <v>35</v>
@@ -12180,10 +14991,10 @@
     </row>
     <row r="128" customFormat="false" ht="12.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A128" s="0" t="s">
-        <v>231</v>
+        <v>344</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>232</v>
+        <v>345</v>
       </c>
       <c r="E128" s="0" t="s">
         <v>37</v>
@@ -12207,7 +15018,7 @@
         <v>57</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>233</v>
+        <v>346</v>
       </c>
       <c r="E129" s="0" t="s">
         <v>40</v>
@@ -12215,9 +15026,11 @@
       <c r="F129" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="N129" s="0" t="e">
+      <c r="N129" s="0" t="inlineStr">
         <f aca="false">IF(J129-F129&lt;0.000000001,1,999)</f>
-        <v>#VALUE!</v>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="130" customFormat="false" ht="12.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12225,19 +15038,19 @@
         <v>60</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>234</v>
+        <v>347</v>
       </c>
       <c r="E130" s="0" t="s">
         <v>42</v>
       </c>
       <c r="F130" s="3" t="s">
-        <v>235</v>
+        <v>348</v>
       </c>
       <c r="I130" s="0" t="s">
         <v>42</v>
       </c>
       <c r="J130" s="3" t="s">
-        <v>236</v>
+        <v>349</v>
       </c>
       <c r="N130" s="0" t="n">
         <f aca="false">IF(J130-F130&lt;0.000000001,1,999)</f>
@@ -12249,19 +15062,19 @@
         <v>74</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>234</v>
+        <v>347</v>
       </c>
       <c r="E131" s="0" t="s">
         <v>47</v>
       </c>
       <c r="F131" s="3" t="s">
-        <v>237</v>
+        <v>350</v>
       </c>
       <c r="I131" s="0" t="s">
         <v>47</v>
       </c>
       <c r="J131" s="3" t="s">
-        <v>238</v>
+        <v>351</v>
       </c>
       <c r="N131" s="0" t="n">
         <f aca="false">IF(J131-F131&lt;0.000000001,1,999)</f>
@@ -12270,7 +15083,7 @@
     </row>
     <row r="132" customFormat="false" ht="12.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A132" s="0" t="s">
-        <v>239</v>
+        <v>352</v>
       </c>
       <c r="B132" s="0" t="n">
         <v>35</v>
@@ -12279,13 +15092,13 @@
         <v>51</v>
       </c>
       <c r="F132" s="3" t="s">
-        <v>240</v>
+        <v>353</v>
       </c>
       <c r="I132" s="0" t="s">
         <v>51</v>
       </c>
       <c r="J132" s="3" t="s">
-        <v>241</v>
+        <v>354</v>
       </c>
       <c r="N132" s="0" t="n">
         <f aca="false">IF(J132-F132&lt;0.000000001,1,999)</f>
@@ -12317,9 +15130,11 @@
       <c r="F134" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="N134" s="0" t="e">
+      <c r="N134" s="0" t="inlineStr">
         <f aca="false">IF(J134-F134&lt;0.000000001,1,999)</f>
-        <v>#VALUE!</v>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="135" customFormat="false" ht="12.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12327,13 +15142,13 @@
         <v>62</v>
       </c>
       <c r="F135" s="3" t="s">
-        <v>242</v>
+        <v>355</v>
       </c>
       <c r="I135" s="0" t="s">
         <v>62</v>
       </c>
       <c r="J135" s="3" t="s">
-        <v>243</v>
+        <v>356</v>
       </c>
       <c r="N135" s="0" t="n">
         <f aca="false">IF(J135-F135&lt;0.000000001,1,999)</f>
@@ -12345,13 +15160,13 @@
         <v>67</v>
       </c>
       <c r="F136" s="3" t="s">
-        <v>244</v>
+        <v>357</v>
       </c>
       <c r="I136" s="0" t="s">
         <v>67</v>
       </c>
       <c r="J136" s="3" t="s">
-        <v>245</v>
+        <v>358</v>
       </c>
       <c r="N136" s="0" t="n">
         <f aca="false">IF(J136-F136&lt;0.000000001,1,999)</f>
@@ -12363,13 +15178,13 @@
         <v>71</v>
       </c>
       <c r="F137" s="3" t="s">
-        <v>246</v>
+        <v>359</v>
       </c>
       <c r="I137" s="0" t="s">
         <v>71</v>
       </c>
       <c r="J137" s="3" t="s">
-        <v>247</v>
+        <v>360</v>
       </c>
       <c r="N137" s="0" t="n">
         <f aca="false">IF(J137-F137&lt;0.000000001,1,999)</f>
@@ -12401,9 +15216,11 @@
       <c r="F139" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="N139" s="0" t="e">
+      <c r="N139" s="0" t="inlineStr">
         <f aca="false">IF(J139-F139&lt;0.000000001,1,999)</f>
-        <v>#VALUE!</v>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="140" customFormat="false" ht="12.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12411,13 +15228,13 @@
         <v>77</v>
       </c>
       <c r="F140" s="3" t="s">
-        <v>322</v>
+        <v>435</v>
       </c>
       <c r="I140" s="0" t="s">
         <v>77</v>
       </c>
       <c r="J140" s="3" t="s">
-        <v>323</v>
+        <v>436</v>
       </c>
       <c r="N140" s="0" t="n">
         <f aca="false">IF(J140-F140&lt;0.000000001,1,999)</f>
@@ -12429,13 +15246,13 @@
         <v>78</v>
       </c>
       <c r="F141" s="3" t="s">
-        <v>324</v>
+        <v>437</v>
       </c>
       <c r="I141" s="0" t="s">
         <v>78</v>
       </c>
       <c r="J141" s="3" t="s">
-        <v>325</v>
+        <v>438</v>
       </c>
       <c r="N141" s="0" t="n">
         <f aca="false">IF(J141-F141&lt;0.000000001,1,999)</f>
@@ -12447,13 +15264,13 @@
         <v>81</v>
       </c>
       <c r="F142" s="3" t="s">
-        <v>326</v>
+        <v>439</v>
       </c>
       <c r="I142" s="0" t="s">
         <v>83</v>
       </c>
       <c r="J142" s="3" t="s">
-        <v>327</v>
+        <v>440</v>
       </c>
       <c r="N142" s="0" t="n">
         <f aca="false">IF(J142-F142&lt;0.000000001,1,999)</f>
@@ -12465,13 +15282,13 @@
         <v>85</v>
       </c>
       <c r="F143" s="3" t="s">
-        <v>252</v>
+        <v>365</v>
       </c>
       <c r="I143" s="0" t="s">
         <v>85</v>
       </c>
       <c r="J143" s="3" t="s">
-        <v>253</v>
+        <v>366</v>
       </c>
       <c r="N143" s="0" t="n">
         <f aca="false">IF(J143-F143&lt;0.000000001,1,999)</f>
@@ -12485,9 +15302,11 @@
       <c r="F144" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="N144" s="0" t="e">
+      <c r="N144" s="0" t="inlineStr">
         <f aca="false">IF(J144-F144&lt;0.000000001,1,999)</f>
-        <v>#VALUE!</v>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="145" customFormat="false" ht="12.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12495,13 +15314,13 @@
         <v>89</v>
       </c>
       <c r="F145" s="3" t="s">
-        <v>328</v>
+        <v>441</v>
       </c>
       <c r="I145" s="0" t="s">
         <v>89</v>
       </c>
       <c r="J145" s="3" t="s">
-        <v>329</v>
+        <v>442</v>
       </c>
       <c r="N145" s="0" t="n">
         <f aca="false">IF(J145-F145&lt;0.000000001,1,999)</f>
@@ -12524,13 +15343,13 @@
         <v>8</v>
       </c>
       <c r="F150" s="3" t="s">
-        <v>216</v>
+        <v>329</v>
       </c>
       <c r="I150" s="0" t="s">
         <v>10</v>
       </c>
       <c r="J150" s="3" t="s">
-        <v>217</v>
+        <v>330</v>
       </c>
       <c r="N150" s="0" t="n">
         <f aca="false">IF(J150-F150&lt;0.000000001,1,999)</f>
@@ -12542,19 +15361,19 @@
         <v>45</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>218</v>
+        <v>331</v>
       </c>
       <c r="E151" s="0" t="s">
         <v>13</v>
       </c>
       <c r="F151" s="3" t="s">
-        <v>219</v>
+        <v>332</v>
       </c>
       <c r="I151" s="0" t="s">
         <v>15</v>
       </c>
       <c r="J151" s="3" t="s">
-        <v>220</v>
+        <v>333</v>
       </c>
       <c r="N151" s="0" t="n">
         <f aca="false">IF(J151-F151&lt;0.000000001,1,999)</f>
@@ -12566,19 +15385,19 @@
         <v>50</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>218</v>
+        <v>331</v>
       </c>
       <c r="E152" s="0" t="s">
         <v>18</v>
       </c>
       <c r="F152" s="3" t="s">
-        <v>221</v>
+        <v>334</v>
       </c>
       <c r="I152" s="0" t="s">
         <v>20</v>
       </c>
       <c r="J152" s="3" t="s">
-        <v>222</v>
+        <v>335</v>
       </c>
       <c r="N152" s="0" t="n">
         <f aca="false">IF(J152-F152&lt;0.000000001,1,999)</f>
@@ -12586,23 +15405,23 @@
       </c>
     </row>
     <row r="153" customFormat="false" ht="12.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A153" s="21" t="s">
+      <c r="A153" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="B153" s="22" t="s">
-        <v>330</v>
+      <c r="B153" s="23" t="s">
+        <v>443</v>
       </c>
       <c r="E153" s="0" t="s">
         <v>23</v>
       </c>
       <c r="F153" s="3" t="s">
-        <v>223</v>
+        <v>336</v>
       </c>
       <c r="I153" s="0" t="s">
         <v>23</v>
       </c>
       <c r="J153" s="3" t="s">
-        <v>224</v>
+        <v>337</v>
       </c>
       <c r="N153" s="0" t="n">
         <f aca="false">IF(J153-F153&lt;0.000000001,1,999)</f>
@@ -12614,19 +15433,19 @@
         <v>65</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>320</v>
+        <v>433</v>
       </c>
       <c r="E154" s="0" t="s">
         <v>27</v>
       </c>
       <c r="F154" s="3" t="s">
-        <v>225</v>
+        <v>338</v>
       </c>
       <c r="I154" s="0" t="s">
         <v>27</v>
       </c>
       <c r="J154" s="3" t="s">
-        <v>226</v>
+        <v>339</v>
       </c>
       <c r="N154" s="0" t="n">
         <f aca="false">IF(J154-F154&lt;0.000000001,1,999)</f>
@@ -12638,19 +15457,19 @@
         <v>70</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>321</v>
+        <v>434</v>
       </c>
       <c r="E155" s="0" t="s">
         <v>31</v>
       </c>
       <c r="F155" s="3" t="s">
-        <v>227</v>
+        <v>340</v>
       </c>
       <c r="I155" s="0" t="s">
         <v>31</v>
       </c>
       <c r="J155" s="3" t="s">
-        <v>228</v>
+        <v>341</v>
       </c>
       <c r="N155" s="0" t="n">
         <f aca="false">IF(J155-F155&lt;0.000000001,1,999)</f>
@@ -12659,22 +15478,22 @@
     </row>
     <row r="156" customFormat="false" ht="12.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A156" s="0" t="s">
-        <v>229</v>
+        <v>342</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>230</v>
+        <v>343</v>
       </c>
       <c r="E156" s="0" t="s">
         <v>35</v>
       </c>
       <c r="F156" s="3" t="s">
-        <v>331</v>
+        <v>444</v>
       </c>
       <c r="I156" s="0" t="s">
         <v>35</v>
       </c>
       <c r="J156" s="3" t="s">
-        <v>332</v>
+        <v>445</v>
       </c>
       <c r="N156" s="0" t="n">
         <f aca="false">IF(J156-F156&lt;0.000000001,1,999)</f>
@@ -12683,10 +15502,10 @@
     </row>
     <row r="157" customFormat="false" ht="12.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A157" s="0" t="s">
-        <v>231</v>
+        <v>344</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>232</v>
+        <v>345</v>
       </c>
       <c r="E157" s="0" t="s">
         <v>37</v>
@@ -12698,7 +15517,7 @@
         <v>38</v>
       </c>
       <c r="J157" s="3" t="s">
-        <v>333</v>
+        <v>446</v>
       </c>
       <c r="N157" s="0" t="n">
         <f aca="false">IF(J157-F157&lt;0.000000001,1,999)</f>
@@ -12710,7 +15529,7 @@
         <v>57</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>233</v>
+        <v>346</v>
       </c>
       <c r="E158" s="0" t="s">
         <v>40</v>
@@ -12718,9 +15537,11 @@
       <c r="F158" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="N158" s="0" t="e">
+      <c r="N158" s="0" t="inlineStr">
         <f aca="false">IF(J158-F158&lt;0.000000001,1,999)</f>
-        <v>#VALUE!</v>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="159" customFormat="false" ht="12.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12728,19 +15549,19 @@
         <v>60</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>234</v>
+        <v>347</v>
       </c>
       <c r="E159" s="0" t="s">
         <v>42</v>
       </c>
       <c r="F159" s="3" t="s">
-        <v>334</v>
+        <v>447</v>
       </c>
       <c r="I159" s="0" t="s">
         <v>42</v>
       </c>
       <c r="J159" s="3" t="s">
-        <v>335</v>
+        <v>448</v>
       </c>
       <c r="N159" s="0" t="n">
         <f aca="false">IF(J159-F159&lt;0.000000001,1,999)</f>
@@ -12752,19 +15573,19 @@
         <v>74</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>234</v>
+        <v>347</v>
       </c>
       <c r="E160" s="0" t="s">
         <v>47</v>
       </c>
       <c r="F160" s="3" t="s">
-        <v>336</v>
+        <v>449</v>
       </c>
       <c r="I160" s="0" t="s">
         <v>47</v>
       </c>
       <c r="J160" s="3" t="s">
-        <v>337</v>
+        <v>450</v>
       </c>
       <c r="N160" s="0" t="n">
         <f aca="false">IF(J160-F160&lt;0.000000001,1,999)</f>
@@ -12773,7 +15594,7 @@
     </row>
     <row r="161" customFormat="false" ht="12.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A161" s="0" t="s">
-        <v>239</v>
+        <v>352</v>
       </c>
       <c r="B161" s="0" t="n">
         <v>35</v>
@@ -12782,13 +15603,13 @@
         <v>51</v>
       </c>
       <c r="F161" s="3" t="s">
-        <v>338</v>
+        <v>451</v>
       </c>
       <c r="I161" s="0" t="s">
         <v>51</v>
       </c>
       <c r="J161" s="3" t="s">
-        <v>339</v>
+        <v>452</v>
       </c>
       <c r="N161" s="0" t="n">
         <f aca="false">IF(J161-F161&lt;0.000000001,1,999)</f>
@@ -12820,9 +15641,11 @@
       <c r="F163" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="N163" s="0" t="e">
+      <c r="N163" s="0" t="inlineStr">
         <f aca="false">IF(J163-F163&lt;0.000000001,1,999)</f>
-        <v>#VALUE!</v>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="164" customFormat="false" ht="12.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12830,13 +15653,13 @@
         <v>62</v>
       </c>
       <c r="F164" s="3" t="s">
-        <v>340</v>
+        <v>453</v>
       </c>
       <c r="I164" s="0" t="s">
         <v>62</v>
       </c>
       <c r="J164" s="3" t="s">
-        <v>341</v>
+        <v>454</v>
       </c>
       <c r="N164" s="0" t="n">
         <f aca="false">IF(J164-F164&lt;0.000000001,1,999)</f>
@@ -12848,13 +15671,13 @@
         <v>67</v>
       </c>
       <c r="F165" s="3" t="s">
-        <v>342</v>
+        <v>455</v>
       </c>
       <c r="I165" s="0" t="s">
         <v>67</v>
       </c>
       <c r="J165" s="3" t="s">
-        <v>343</v>
+        <v>456</v>
       </c>
       <c r="N165" s="0" t="n">
         <f aca="false">IF(J165-F165&lt;0.000000001,1,999)</f>
@@ -12866,13 +15689,13 @@
         <v>71</v>
       </c>
       <c r="F166" s="3" t="s">
-        <v>344</v>
+        <v>457</v>
       </c>
       <c r="I166" s="0" t="s">
         <v>71</v>
       </c>
       <c r="J166" s="3" t="s">
-        <v>345</v>
+        <v>458</v>
       </c>
       <c r="N166" s="0" t="n">
         <f aca="false">IF(J166-F166&lt;0.000000001,1,999)</f>
@@ -12904,9 +15727,11 @@
       <c r="F168" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="N168" s="0" t="e">
+      <c r="N168" s="0" t="inlineStr">
         <f aca="false">IF(J168-F168&lt;0.000000001,1,999)</f>
-        <v>#VALUE!</v>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="169" customFormat="false" ht="12.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12914,13 +15739,13 @@
         <v>77</v>
       </c>
       <c r="F169" s="3" t="s">
-        <v>346</v>
+        <v>459</v>
       </c>
       <c r="I169" s="0" t="s">
         <v>77</v>
       </c>
       <c r="J169" s="3" t="s">
-        <v>347</v>
+        <v>460</v>
       </c>
       <c r="N169" s="0" t="n">
         <f aca="false">IF(J169-F169&lt;0.000000001,1,999)</f>
@@ -12938,7 +15763,7 @@
         <v>78</v>
       </c>
       <c r="J170" s="3" t="s">
-        <v>259</v>
+        <v>372</v>
       </c>
       <c r="N170" s="0" t="n">
         <f aca="false">IF(J170-F170&lt;0.000000001,1,999)</f>
@@ -12950,13 +15775,13 @@
         <v>81</v>
       </c>
       <c r="F171" s="3" t="s">
-        <v>348</v>
+        <v>461</v>
       </c>
       <c r="I171" s="0" t="s">
         <v>83</v>
       </c>
       <c r="J171" s="3" t="s">
-        <v>349</v>
+        <v>462</v>
       </c>
       <c r="N171" s="0" t="n">
         <f aca="false">IF(J171-F171&lt;0.000000001,1,999)</f>
@@ -12968,13 +15793,13 @@
         <v>85</v>
       </c>
       <c r="F172" s="3" t="s">
-        <v>350</v>
+        <v>463</v>
       </c>
       <c r="I172" s="0" t="s">
         <v>85</v>
       </c>
       <c r="J172" s="3" t="s">
-        <v>351</v>
+        <v>464</v>
       </c>
       <c r="N172" s="0" t="n">
         <f aca="false">IF(J172-F172&lt;0.000000001,1,999)</f>
@@ -12988,9 +15813,11 @@
       <c r="F173" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="N173" s="0" t="e">
+      <c r="N173" s="0" t="inlineStr">
         <f aca="false">IF(J173-F173&lt;0.000000001,1,999)</f>
-        <v>#VALUE!</v>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="174" customFormat="false" ht="12.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12998,13 +15825,13 @@
         <v>89</v>
       </c>
       <c r="F174" s="3" t="s">
-        <v>352</v>
+        <v>465</v>
       </c>
       <c r="I174" s="0" t="s">
         <v>89</v>
       </c>
       <c r="J174" s="3" t="s">
-        <v>353</v>
+        <v>466</v>
       </c>
       <c r="N174" s="0" t="n">
         <f aca="false">IF(J174-F174&lt;0.000000001,1,999)</f>
@@ -13027,13 +15854,13 @@
         <v>8</v>
       </c>
       <c r="F180" s="3" t="s">
-        <v>354</v>
+        <v>467</v>
       </c>
       <c r="I180" s="0" t="s">
         <v>10</v>
       </c>
       <c r="J180" s="3" t="s">
-        <v>355</v>
+        <v>468</v>
       </c>
       <c r="N180" s="0" t="n">
         <f aca="false">IF(J180-F180&lt;0.000000001,1,999)</f>
@@ -13041,23 +15868,23 @@
       </c>
     </row>
     <row r="181" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A181" s="21" t="s">
+      <c r="A181" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="B181" s="22" t="s">
-        <v>356</v>
+      <c r="B181" s="23" t="s">
+        <v>469</v>
       </c>
       <c r="E181" s="0" t="s">
         <v>13</v>
       </c>
       <c r="F181" s="3" t="s">
-        <v>357</v>
+        <v>470</v>
       </c>
       <c r="I181" s="0" t="s">
         <v>15</v>
       </c>
       <c r="J181" s="3" t="s">
-        <v>358</v>
+        <v>471</v>
       </c>
       <c r="N181" s="0" t="n">
         <f aca="false">IF(J181-F181&lt;0.000000001,1,999)</f>
@@ -13069,19 +15896,19 @@
         <v>50</v>
       </c>
       <c r="B182" s="3" t="s">
-        <v>218</v>
+        <v>331</v>
       </c>
       <c r="E182" s="0" t="s">
         <v>18</v>
       </c>
       <c r="F182" s="3" t="s">
-        <v>221</v>
+        <v>334</v>
       </c>
       <c r="I182" s="0" t="s">
         <v>20</v>
       </c>
       <c r="J182" s="3" t="s">
-        <v>222</v>
+        <v>335</v>
       </c>
       <c r="N182" s="0" t="n">
         <f aca="false">IF(J182-F182&lt;0.000000001,1,999)</f>
@@ -13099,13 +15926,13 @@
         <v>23</v>
       </c>
       <c r="F183" s="3" t="s">
-        <v>359</v>
+        <v>472</v>
       </c>
       <c r="I183" s="0" t="s">
         <v>23</v>
       </c>
       <c r="J183" s="3" t="s">
-        <v>360</v>
+        <v>473</v>
       </c>
       <c r="N183" s="0" t="n">
         <f aca="false">IF(J183-F183&lt;0.000000001,1,999)</f>
@@ -13123,13 +15950,13 @@
         <v>27</v>
       </c>
       <c r="F184" s="3" t="s">
-        <v>225</v>
+        <v>338</v>
       </c>
       <c r="I184" s="0" t="s">
         <v>27</v>
       </c>
       <c r="J184" s="3" t="s">
-        <v>226</v>
+        <v>339</v>
       </c>
       <c r="N184" s="0" t="n">
         <f aca="false">IF(J184-F184&lt;0.000000001,1,999)</f>
@@ -13141,19 +15968,19 @@
         <v>70</v>
       </c>
       <c r="B185" s="3" t="s">
-        <v>321</v>
+        <v>434</v>
       </c>
       <c r="E185" s="0" t="s">
         <v>31</v>
       </c>
       <c r="F185" s="3" t="s">
-        <v>361</v>
+        <v>474</v>
       </c>
       <c r="I185" s="0" t="s">
         <v>31</v>
       </c>
       <c r="J185" s="3" t="s">
-        <v>362</v>
+        <v>475</v>
       </c>
       <c r="N185" s="0" t="n">
         <f aca="false">IF(J185-F185&lt;0.000000001,1,999)</f>
@@ -13162,10 +15989,10 @@
     </row>
     <row r="186" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="0" t="s">
-        <v>229</v>
+        <v>342</v>
       </c>
       <c r="B186" s="3" t="s">
-        <v>230</v>
+        <v>343</v>
       </c>
       <c r="E186" s="0" t="s">
         <v>35</v>
@@ -13186,10 +16013,10 @@
     </row>
     <row r="187" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="0" t="s">
-        <v>231</v>
+        <v>344</v>
       </c>
       <c r="B187" s="3" t="s">
-        <v>232</v>
+        <v>345</v>
       </c>
       <c r="E187" s="0" t="s">
         <v>37</v>
@@ -13213,7 +16040,7 @@
         <v>57</v>
       </c>
       <c r="B188" s="3" t="s">
-        <v>233</v>
+        <v>346</v>
       </c>
       <c r="E188" s="0" t="s">
         <v>40</v>
@@ -13221,9 +16048,11 @@
       <c r="F188" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="N188" s="0" t="e">
+      <c r="N188" s="0" t="inlineStr">
         <f aca="false">IF(J188-F188&lt;0.000000001,1,999)</f>
-        <v>#VALUE!</v>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13231,19 +16060,19 @@
         <v>60</v>
       </c>
       <c r="B189" s="3" t="s">
-        <v>234</v>
+        <v>347</v>
       </c>
       <c r="E189" s="0" t="s">
         <v>42</v>
       </c>
       <c r="F189" s="3" t="s">
-        <v>363</v>
+        <v>476</v>
       </c>
       <c r="I189" s="0" t="s">
         <v>42</v>
       </c>
       <c r="J189" s="3" t="s">
-        <v>364</v>
+        <v>477</v>
       </c>
       <c r="N189" s="0" t="n">
         <f aca="false">IF(J189-F189&lt;0.000000001,1,999)</f>
@@ -13255,19 +16084,19 @@
         <v>74</v>
       </c>
       <c r="B190" s="3" t="s">
-        <v>234</v>
+        <v>347</v>
       </c>
       <c r="E190" s="0" t="s">
         <v>47</v>
       </c>
       <c r="F190" s="3" t="s">
-        <v>365</v>
+        <v>478</v>
       </c>
       <c r="I190" s="0" t="s">
         <v>47</v>
       </c>
       <c r="J190" s="3" t="s">
-        <v>366</v>
+        <v>479</v>
       </c>
       <c r="N190" s="0" t="n">
         <f aca="false">IF(J190-F190&lt;0.000000001,1,999)</f>
@@ -13276,7 +16105,7 @@
     </row>
     <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="0" t="s">
-        <v>239</v>
+        <v>352</v>
       </c>
       <c r="B191" s="0" t="n">
         <v>35</v>
@@ -13285,13 +16114,13 @@
         <v>51</v>
       </c>
       <c r="F191" s="3" t="s">
-        <v>367</v>
+        <v>480</v>
       </c>
       <c r="I191" s="0" t="s">
         <v>51</v>
       </c>
       <c r="J191" s="3" t="s">
-        <v>368</v>
+        <v>481</v>
       </c>
       <c r="N191" s="0" t="n">
         <f aca="false">IF(J191-F191&lt;0.000000001,1,999)</f>
@@ -13323,9 +16152,11 @@
       <c r="F193" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="N193" s="0" t="e">
+      <c r="N193" s="0" t="inlineStr">
         <f aca="false">IF(J193-F193&lt;0.000000001,1,999)</f>
-        <v>#VALUE!</v>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="194" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13333,13 +16164,13 @@
         <v>62</v>
       </c>
       <c r="F194" s="3" t="s">
-        <v>369</v>
+        <v>482</v>
       </c>
       <c r="I194" s="0" t="s">
         <v>62</v>
       </c>
       <c r="J194" s="3" t="s">
-        <v>370</v>
+        <v>483</v>
       </c>
       <c r="N194" s="0" t="n">
         <f aca="false">IF(J194-F194&lt;0.000000001,1,999)</f>
@@ -13351,13 +16182,13 @@
         <v>67</v>
       </c>
       <c r="F195" s="3" t="s">
-        <v>371</v>
+        <v>484</v>
       </c>
       <c r="I195" s="0" t="s">
         <v>67</v>
       </c>
       <c r="J195" s="3" t="s">
-        <v>372</v>
+        <v>485</v>
       </c>
       <c r="N195" s="0" t="n">
         <f aca="false">IF(J195-F195&lt;0.000000001,1,999)</f>
@@ -13369,13 +16200,13 @@
         <v>71</v>
       </c>
       <c r="F196" s="3" t="s">
-        <v>373</v>
+        <v>486</v>
       </c>
       <c r="I196" s="0" t="s">
         <v>71</v>
       </c>
       <c r="J196" s="3" t="s">
-        <v>374</v>
+        <v>487</v>
       </c>
       <c r="N196" s="0" t="n">
         <f aca="false">IF(J196-F196&lt;0.000000001,1,999)</f>
@@ -13407,9 +16238,11 @@
       <c r="F198" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="N198" s="0" t="e">
+      <c r="N198" s="0" t="inlineStr">
         <f aca="false">IF(J198-F198&lt;0.000000001,1,999)</f>
-        <v>#VALUE!</v>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13435,13 +16268,13 @@
         <v>78</v>
       </c>
       <c r="F200" s="3" t="s">
-        <v>375</v>
+        <v>488</v>
       </c>
       <c r="I200" s="0" t="s">
         <v>78</v>
       </c>
       <c r="J200" s="3" t="s">
-        <v>376</v>
+        <v>489</v>
       </c>
       <c r="N200" s="0" t="n">
         <f aca="false">IF(J200-F200&lt;0.000000001,1,999)</f>
@@ -13453,13 +16286,13 @@
         <v>81</v>
       </c>
       <c r="F201" s="3" t="s">
-        <v>377</v>
+        <v>490</v>
       </c>
       <c r="I201" s="0" t="s">
         <v>83</v>
       </c>
       <c r="J201" s="3" t="s">
-        <v>378</v>
+        <v>491</v>
       </c>
       <c r="N201" s="0" t="n">
         <f aca="false">IF(J201-F201&lt;0.000000001,1,999)</f>
@@ -13471,13 +16304,13 @@
         <v>85</v>
       </c>
       <c r="F202" s="3" t="s">
-        <v>379</v>
+        <v>492</v>
       </c>
       <c r="I202" s="0" t="s">
         <v>85</v>
       </c>
       <c r="J202" s="3" t="s">
-        <v>380</v>
+        <v>493</v>
       </c>
       <c r="N202" s="0" t="n">
         <f aca="false">IF(J202-F202&lt;0.000000001,1,999)</f>
@@ -13491,9 +16324,11 @@
       <c r="F203" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="N203" s="0" t="e">
+      <c r="N203" s="0" t="inlineStr">
         <f aca="false">IF(J203-F203&lt;0.000000001,1,999)</f>
-        <v>#VALUE!</v>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="204" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13501,13 +16336,13 @@
         <v>89</v>
       </c>
       <c r="F204" s="3" t="s">
-        <v>381</v>
+        <v>494</v>
       </c>
       <c r="I204" s="0" t="s">
         <v>89</v>
       </c>
       <c r="J204" s="3" t="s">
-        <v>382</v>
+        <v>495</v>
       </c>
       <c r="N204" s="0" t="n">
         <f aca="false">IF(J204-F204&lt;0.000000001,1,999)</f>
@@ -13530,13 +16365,13 @@
         <v>8</v>
       </c>
       <c r="F210" s="3" t="s">
-        <v>383</v>
+        <v>496</v>
       </c>
       <c r="I210" s="0" t="s">
         <v>10</v>
       </c>
       <c r="J210" s="3" t="s">
-        <v>384</v>
+        <v>497</v>
       </c>
       <c r="N210" s="0" t="n">
         <f aca="false">IF(J210-F210&lt;0.000000001,1,999)</f>
@@ -13544,23 +16379,23 @@
       </c>
     </row>
     <row r="211" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A211" s="21" t="s">
+      <c r="A211" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="B211" s="22" t="s">
-        <v>356</v>
+      <c r="B211" s="23" t="s">
+        <v>469</v>
       </c>
       <c r="E211" s="0" t="s">
         <v>13</v>
       </c>
       <c r="F211" s="3" t="s">
-        <v>357</v>
+        <v>470</v>
       </c>
       <c r="I211" s="0" t="s">
         <v>15</v>
       </c>
       <c r="J211" s="3" t="s">
-        <v>358</v>
+        <v>471</v>
       </c>
       <c r="N211" s="0" t="n">
         <f aca="false">IF(J211-F211&lt;0.000000001,1,999)</f>
@@ -13568,23 +16403,23 @@
       </c>
     </row>
     <row r="212" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A212" s="21" t="s">
+      <c r="A212" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="B212" s="21" t="n">
+      <c r="B212" s="22" t="n">
         <v>0.001</v>
       </c>
       <c r="E212" s="0" t="s">
         <v>18</v>
       </c>
       <c r="F212" s="3" t="s">
-        <v>385</v>
+        <v>498</v>
       </c>
       <c r="I212" s="0" t="s">
         <v>20</v>
       </c>
       <c r="J212" s="3" t="s">
-        <v>386</v>
+        <v>499</v>
       </c>
       <c r="N212" s="0" t="n">
         <f aca="false">IF(J212-F212&lt;0.000000001,1,999)</f>
@@ -13602,13 +16437,13 @@
         <v>23</v>
       </c>
       <c r="F213" s="3" t="s">
-        <v>359</v>
+        <v>472</v>
       </c>
       <c r="I213" s="0" t="s">
         <v>23</v>
       </c>
       <c r="J213" s="3" t="s">
-        <v>360</v>
+        <v>473</v>
       </c>
       <c r="N213" s="0" t="n">
         <f aca="false">IF(J213-F213&lt;0.000000001,1,999)</f>
@@ -13626,13 +16461,13 @@
         <v>27</v>
       </c>
       <c r="F214" s="3" t="s">
-        <v>387</v>
+        <v>500</v>
       </c>
       <c r="I214" s="0" t="s">
         <v>27</v>
       </c>
       <c r="J214" s="3" t="s">
-        <v>388</v>
+        <v>501</v>
       </c>
       <c r="N214" s="0" t="n">
         <f aca="false">IF(J214-F214&lt;0.000000001,1,999)</f>
@@ -13644,19 +16479,19 @@
         <v>70</v>
       </c>
       <c r="B215" s="3" t="s">
-        <v>321</v>
+        <v>434</v>
       </c>
       <c r="E215" s="0" t="s">
         <v>31</v>
       </c>
       <c r="F215" s="3" t="s">
-        <v>389</v>
+        <v>502</v>
       </c>
       <c r="I215" s="0" t="s">
         <v>31</v>
       </c>
       <c r="J215" s="3" t="s">
-        <v>390</v>
+        <v>503</v>
       </c>
       <c r="N215" s="0" t="n">
         <f aca="false">IF(J215-F215&lt;0.000000001,1,999)</f>
@@ -13665,10 +16500,10 @@
     </row>
     <row r="216" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="0" t="s">
-        <v>229</v>
+        <v>342</v>
       </c>
       <c r="B216" s="3" t="s">
-        <v>230</v>
+        <v>343</v>
       </c>
       <c r="E216" s="0" t="s">
         <v>35</v>
@@ -13689,10 +16524,10 @@
     </row>
     <row r="217" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="0" t="s">
-        <v>231</v>
+        <v>344</v>
       </c>
       <c r="B217" s="3" t="s">
-        <v>232</v>
+        <v>345</v>
       </c>
       <c r="E217" s="0" t="s">
         <v>37</v>
@@ -13716,7 +16551,7 @@
         <v>57</v>
       </c>
       <c r="B218" s="3" t="s">
-        <v>233</v>
+        <v>346</v>
       </c>
       <c r="E218" s="0" t="s">
         <v>40</v>
@@ -13724,9 +16559,11 @@
       <c r="F218" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="N218" s="0" t="e">
+      <c r="N218" s="0" t="inlineStr">
         <f aca="false">IF(J218-F218&lt;0.000000001,1,999)</f>
-        <v>#VALUE!</v>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="219" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13734,19 +16571,19 @@
         <v>60</v>
       </c>
       <c r="B219" s="3" t="s">
-        <v>234</v>
+        <v>347</v>
       </c>
       <c r="E219" s="0" t="s">
         <v>42</v>
       </c>
       <c r="F219" s="3" t="s">
-        <v>391</v>
+        <v>504</v>
       </c>
       <c r="I219" s="0" t="s">
         <v>42</v>
       </c>
       <c r="J219" s="3" t="s">
-        <v>392</v>
+        <v>505</v>
       </c>
       <c r="N219" s="0" t="n">
         <f aca="false">IF(J219-F219&lt;0.000000001,1,999)</f>
@@ -13758,19 +16595,19 @@
         <v>74</v>
       </c>
       <c r="B220" s="3" t="s">
-        <v>234</v>
+        <v>347</v>
       </c>
       <c r="E220" s="0" t="s">
         <v>47</v>
       </c>
       <c r="F220" s="3" t="s">
-        <v>393</v>
+        <v>506</v>
       </c>
       <c r="I220" s="0" t="s">
         <v>47</v>
       </c>
       <c r="J220" s="3" t="s">
-        <v>394</v>
+        <v>507</v>
       </c>
       <c r="N220" s="0" t="n">
         <f aca="false">IF(J220-F220&lt;0.000000001,1,999)</f>
@@ -13779,7 +16616,7 @@
     </row>
     <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="0" t="s">
-        <v>239</v>
+        <v>352</v>
       </c>
       <c r="B221" s="0" t="n">
         <v>35</v>
@@ -13788,13 +16625,13 @@
         <v>51</v>
       </c>
       <c r="F221" s="3" t="s">
-        <v>395</v>
+        <v>508</v>
       </c>
       <c r="I221" s="0" t="s">
         <v>51</v>
       </c>
       <c r="J221" s="3" t="s">
-        <v>396</v>
+        <v>509</v>
       </c>
       <c r="N221" s="0" t="n">
         <f aca="false">IF(J221-F221&lt;0.000000001,1,999)</f>
@@ -13826,9 +16663,11 @@
       <c r="F223" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="N223" s="0" t="e">
+      <c r="N223" s="0" t="inlineStr">
         <f aca="false">IF(J223-F223&lt;0.000000001,1,999)</f>
-        <v>#VALUE!</v>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13836,13 +16675,13 @@
         <v>62</v>
       </c>
       <c r="F224" s="3" t="s">
-        <v>397</v>
+        <v>510</v>
       </c>
       <c r="I224" s="0" t="s">
         <v>62</v>
       </c>
       <c r="J224" s="3" t="s">
-        <v>398</v>
+        <v>511</v>
       </c>
       <c r="N224" s="0" t="n">
         <f aca="false">IF(J224-F224&lt;0.000000001,1,999)</f>
@@ -13854,13 +16693,13 @@
         <v>67</v>
       </c>
       <c r="F225" s="3" t="s">
-        <v>399</v>
+        <v>512</v>
       </c>
       <c r="I225" s="0" t="s">
         <v>67</v>
       </c>
       <c r="J225" s="3" t="s">
-        <v>400</v>
+        <v>513</v>
       </c>
       <c r="N225" s="0" t="n">
         <f aca="false">IF(J225-F225&lt;0.000000001,1,999)</f>
@@ -13872,13 +16711,13 @@
         <v>71</v>
       </c>
       <c r="F226" s="3" t="s">
-        <v>401</v>
+        <v>514</v>
       </c>
       <c r="I226" s="0" t="s">
         <v>71</v>
       </c>
       <c r="J226" s="3" t="s">
-        <v>402</v>
+        <v>515</v>
       </c>
       <c r="N226" s="0" t="n">
         <f aca="false">IF(J226-F226&lt;0.000000001,1,999)</f>
@@ -13910,9 +16749,11 @@
       <c r="F228" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="N228" s="0" t="e">
+      <c r="N228" s="0" t="inlineStr">
         <f aca="false">IF(J228-F228&lt;0.000000001,1,999)</f>
-        <v>#VALUE!</v>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13938,13 +16779,13 @@
         <v>78</v>
       </c>
       <c r="F230" s="3" t="s">
-        <v>403</v>
+        <v>516</v>
       </c>
       <c r="I230" s="0" t="s">
         <v>78</v>
       </c>
       <c r="J230" s="3" t="s">
-        <v>404</v>
+        <v>517</v>
       </c>
       <c r="N230" s="0" t="n">
         <f aca="false">IF(J230-F230&lt;0.000000001,1,999)</f>
@@ -13956,13 +16797,13 @@
         <v>81</v>
       </c>
       <c r="F231" s="3" t="s">
-        <v>405</v>
+        <v>518</v>
       </c>
       <c r="I231" s="0" t="s">
         <v>83</v>
       </c>
       <c r="J231" s="3" t="s">
-        <v>406</v>
+        <v>519</v>
       </c>
       <c r="N231" s="0" t="n">
         <f aca="false">IF(J231-F231&lt;0.000000001,1,999)</f>
@@ -13974,13 +16815,13 @@
         <v>85</v>
       </c>
       <c r="F232" s="3" t="s">
-        <v>407</v>
+        <v>520</v>
       </c>
       <c r="I232" s="0" t="s">
         <v>85</v>
       </c>
       <c r="J232" s="3" t="s">
-        <v>408</v>
+        <v>521</v>
       </c>
       <c r="N232" s="0" t="n">
         <f aca="false">IF(J232-F232&lt;0.000000001,1,999)</f>
@@ -13994,9 +16835,11 @@
       <c r="F233" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="N233" s="0" t="e">
+      <c r="N233" s="0" t="inlineStr">
         <f aca="false">IF(J233-F233&lt;0.000000001,1,999)</f>
-        <v>#VALUE!</v>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="234" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14004,13 +16847,13 @@
         <v>89</v>
       </c>
       <c r="F234" s="3" t="s">
-        <v>409</v>
+        <v>522</v>
       </c>
       <c r="I234" s="0" t="s">
         <v>89</v>
       </c>
       <c r="J234" s="3" t="s">
-        <v>410</v>
+        <v>523</v>
       </c>
       <c r="N234" s="0" t="n">
         <f aca="false">IF(J234-F234&lt;0.000000001,1,999)</f>

--- a/FORTRAN_code/TEST_11062015.xlsx
+++ b/FORTRAN_code/TEST_11062015.xlsx
@@ -279,10 +279,10 @@
     <t>TEST 11</t>
   </si>
   <si>
-    <t>U(n,n) small   9.50561683795606015E-033</t>
-  </si>
-  <si>
-    <t>33          26</t>
+    <t>loc_k = 3</t>
+  </si>
+  <si>
+    <t>           33          26</t>
   </si>
   <si>
     <t>Warning: Matrix is close to singular or badly scaled. Results may be inaccurate. RCOND =  2.346852e-45.</t>
@@ -2046,6 +2046,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2063,10 +2067,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2201,8 +2201,8 @@
   </sheetPr>
   <dimension ref="A5:J211"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A165" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B177" activeCellId="0" sqref="B177"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A139" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E41" activeCellId="0" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -4350,74 +4350,76 @@
         <v>2</v>
       </c>
     </row>
+    <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A179" s="0" t="s">
+        <v>86</v>
+      </c>
+    </row>
     <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="0" t="s">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="B180" s="0" t="n">
         <v>1677.88</v>
       </c>
-      <c r="D180" s="0" t="s">
-        <v>86</v>
-      </c>
     </row>
     <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="0" t="s">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="B181" s="0" t="s">
         <v>87</v>
       </c>
       <c r="D181" s="0" t="s">
-        <v>56</v>
+        <v>4</v>
       </c>
       <c r="E181" s="0" t="n">
-        <v>0.32467345388171</v>
+        <v>0.298996746825692</v>
       </c>
       <c r="G181" s="0" t="n">
-        <v>0.3247</v>
+        <v>0.299</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="0" t="s">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="B182" s="0" t="n">
-        <v>6.9125409346496</v>
+        <v>6.91253698677764</v>
       </c>
       <c r="D182" s="0" t="s">
-        <v>58</v>
+        <v>7</v>
       </c>
       <c r="E182" s="6" t="n">
-        <v>-4.67208357603601E-005</v>
+        <v>-4.57004616227985E-005</v>
       </c>
       <c r="G182" s="6" t="n">
-        <v>-4.6719E-005</v>
+        <v>-4.5699E-005</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="0" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="B183" s="6" t="n">
-        <v>0.00143542327158778</v>
+        <v>0.00143656995180463</v>
       </c>
       <c r="D183" s="0" t="s">
-        <v>59</v>
+        <v>9</v>
       </c>
       <c r="E183" s="0" t="n">
-        <v>0.32467345388171</v>
+        <v>0.298996746825692</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="0" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="B184" s="6" t="n">
-        <v>0.00283375610792122</v>
+        <v>0.00283696814096522</v>
       </c>
       <c r="D184" s="0" t="s">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="E184" s="0" t="n">
         <v>0</v>
@@ -4425,13 +4427,13 @@
     </row>
     <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="0" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="B185" s="0" t="n">
-        <v>2.92237150620175</v>
+        <v>2.92139465665056</v>
       </c>
       <c r="D185" s="0" t="s">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="E185" s="0" t="n">
         <v>100</v>
@@ -4442,30 +4444,30 @@
     </row>
     <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="0" t="s">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="B186" s="0" t="n">
-        <v>2.45822499038235</v>
+        <v>2.45740328924902</v>
       </c>
       <c r="D186" s="0" t="s">
-        <v>62</v>
+        <v>15</v>
       </c>
       <c r="E186" s="6" t="n">
-        <v>-1.04825308562963E-005</v>
+        <v>-1.10564882773044E-005</v>
       </c>
       <c r="G186" s="6" t="n">
-        <v>-1.0482E-005</v>
+        <v>-1.1056E-005</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="0" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="B187" s="0" t="n">
-        <v>0.464146515819399</v>
+        <v>0.463991367401535</v>
       </c>
       <c r="D187" s="0" t="s">
-        <v>63</v>
+        <v>17</v>
       </c>
       <c r="E187" s="0" t="n">
         <v>0</v>
@@ -4473,36 +4475,37 @@
     </row>
     <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="0" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="B188" s="6" t="n">
-        <v>5.23728843107264E-008</v>
+        <v>4.72790437531057E-008</v>
       </c>
       <c r="D188" s="0" t="s">
-        <v>64</v>
+        <v>19</v>
       </c>
       <c r="E188" s="6" t="n">
-        <v>1.04121493855719E-005</v>
+        <v>1.09860270209717E-005</v>
       </c>
       <c r="G188" s="6" t="n">
-        <v>1.0411E-005</v>
+        <v>1.0985E-005</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="0" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="B189" s="6" t="n">
-        <v>2.92197583899194E-005</v>
-      </c>
-      <c r="D189" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="E189" s="6" t="n">
-        <v>1.41715691735777E-009</v>
-      </c>
-      <c r="G189" s="6" t="n">
-        <v>1.5189E-009</v>
+        <v>2.92197604047699E-005</v>
+      </c>
+      <c r="D189" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E189" s="8" t="n">
+        <v>1.40911384251758E-009</v>
+      </c>
+      <c r="F189" s="22"/>
+      <c r="G189" s="8" t="n">
+        <v>1.5116E-009</v>
       </c>
       <c r="I189" s="0" t="s">
         <v>88</v>
@@ -4510,39 +4513,42 @@
     </row>
     <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="0" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="B190" s="6" t="n">
-        <v>2.1686620606511E-011</v>
+        <v>2.33807600936833E-011</v>
       </c>
       <c r="D190" s="7" t="s">
-        <v>66</v>
+        <v>25</v>
       </c>
       <c r="E190" s="8" t="n">
-        <v>3.99681319740682E-009</v>
+        <v>3.72305921224692E-009</v>
       </c>
       <c r="F190" s="7"/>
       <c r="G190" s="8" t="n">
-        <v>-3.6624E-007</v>
+        <v>-3.6716E-007</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="0" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="B191" s="6" t="n">
-        <v>3.09714372072542E-009</v>
+        <v>3.16426889455719E-009</v>
       </c>
       <c r="D191" s="0" t="s">
-        <v>67</v>
+        <v>28</v>
       </c>
       <c r="E191" s="6" t="n">
-        <v>0.00662624658898784</v>
+        <v>0.00665011669805122</v>
+      </c>
+      <c r="G191" s="6" t="n">
+        <v>0.00665012</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="0" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="B192" s="6" t="n">
         <v>7.3E-009</v>
@@ -4907,7 +4913,7 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="22" t="s">
+      <c r="A7" s="23" t="s">
         <v>99</v>
       </c>
       <c r="B7" s="0"/>
@@ -4934,7 +4940,7 @@
       </c>
       <c r="G8" s="0"/>
       <c r="H8" s="0"/>
-      <c r="I8" s="23" t="s">
+      <c r="I8" s="24" t="s">
         <v>102</v>
       </c>
       <c r="J8" s="9" t="s">
@@ -4942,7 +4948,7 @@
       </c>
       <c r="K8" s="0"/>
       <c r="L8" s="0"/>
-      <c r="M8" s="23"/>
+      <c r="M8" s="24"/>
       <c r="N8" s="9"/>
       <c r="S8" s="2" t="n">
         <f aca="false">IF(ABS(J8-F8)&lt;N$5,1,999)</f>
@@ -4964,7 +4970,7 @@
       </c>
       <c r="G9" s="0"/>
       <c r="H9" s="0"/>
-      <c r="I9" s="23" t="s">
+      <c r="I9" s="24" t="s">
         <v>107</v>
       </c>
       <c r="J9" s="9" t="s">
@@ -4972,7 +4978,7 @@
       </c>
       <c r="K9" s="0"/>
       <c r="L9" s="0"/>
-      <c r="M9" s="23"/>
+      <c r="M9" s="24"/>
       <c r="N9" s="9"/>
       <c r="S9" s="2" t="n">
         <f aca="false">IF(ABS(J9-F9)&lt;N$5,1,999)</f>
@@ -4994,7 +5000,7 @@
       </c>
       <c r="G10" s="0"/>
       <c r="H10" s="0"/>
-      <c r="I10" s="23" t="s">
+      <c r="I10" s="24" t="s">
         <v>112</v>
       </c>
       <c r="J10" s="9" t="s">
@@ -5002,7 +5008,7 @@
       </c>
       <c r="K10" s="0"/>
       <c r="L10" s="0"/>
-      <c r="M10" s="23"/>
+      <c r="M10" s="24"/>
       <c r="N10" s="9"/>
       <c r="S10" s="2" t="n">
         <f aca="false">IF(ABS(J10-F10)&lt;N$5,1,999)</f>
@@ -5024,7 +5030,7 @@
       </c>
       <c r="G11" s="0"/>
       <c r="H11" s="0"/>
-      <c r="I11" s="23" t="s">
+      <c r="I11" s="24" t="s">
         <v>115</v>
       </c>
       <c r="J11" s="9" t="s">
@@ -5032,7 +5038,7 @@
       </c>
       <c r="K11" s="0"/>
       <c r="L11" s="0"/>
-      <c r="M11" s="23"/>
+      <c r="M11" s="24"/>
       <c r="N11" s="9"/>
       <c r="S11" s="2" t="n">
         <f aca="false">IF(ABS(J11-F11)&lt;N$5,1,999)</f>
@@ -5055,7 +5061,7 @@
       </c>
       <c r="G12" s="0"/>
       <c r="H12" s="0"/>
-      <c r="I12" s="23" t="s">
+      <c r="I12" s="24" t="s">
         <v>119</v>
       </c>
       <c r="J12" s="9" t="s">
@@ -5063,7 +5069,7 @@
       </c>
       <c r="K12" s="0"/>
       <c r="L12" s="0"/>
-      <c r="M12" s="23"/>
+      <c r="M12" s="24"/>
       <c r="N12" s="9"/>
       <c r="S12" s="2" t="n">
         <f aca="false">IF(ABS(J12-F12)&lt;N$5,1,999)</f>
@@ -5086,7 +5092,7 @@
       </c>
       <c r="G13" s="0"/>
       <c r="H13" s="0"/>
-      <c r="I13" s="23" t="s">
+      <c r="I13" s="24" t="s">
         <v>123</v>
       </c>
       <c r="J13" s="9" t="s">
@@ -5094,7 +5100,7 @@
       </c>
       <c r="K13" s="0"/>
       <c r="L13" s="0"/>
-      <c r="M13" s="23"/>
+      <c r="M13" s="24"/>
       <c r="N13" s="9"/>
       <c r="S13" s="2" t="n">
         <f aca="false">IF(ABS(J13-F13)&lt;N$5,1,999)</f>
@@ -5116,7 +5122,7 @@
       </c>
       <c r="G14" s="0"/>
       <c r="H14" s="0"/>
-      <c r="I14" s="23" t="s">
+      <c r="I14" s="24" t="s">
         <v>56</v>
       </c>
       <c r="J14" s="2" t="n">
@@ -5124,7 +5130,7 @@
       </c>
       <c r="K14" s="0"/>
       <c r="L14" s="0"/>
-      <c r="M14" s="23" t="s">
+      <c r="M14" s="24" t="s">
         <v>56</v>
       </c>
       <c r="N14" s="2" t="n">
@@ -5150,7 +5156,7 @@
       </c>
       <c r="G15" s="0"/>
       <c r="H15" s="0"/>
-      <c r="I15" s="23" t="s">
+      <c r="I15" s="24" t="s">
         <v>129</v>
       </c>
       <c r="J15" s="9" t="s">
@@ -5180,7 +5186,7 @@
       </c>
       <c r="G16" s="0"/>
       <c r="H16" s="0"/>
-      <c r="I16" s="23"/>
+      <c r="I16" s="24"/>
       <c r="J16" s="9"/>
       <c r="K16" s="0"/>
       <c r="L16" s="0"/>
@@ -5202,7 +5208,7 @@
       </c>
       <c r="G17" s="0"/>
       <c r="H17" s="0"/>
-      <c r="I17" s="23" t="s">
+      <c r="I17" s="24" t="s">
         <v>134</v>
       </c>
       <c r="J17" s="9" t="s">
@@ -5232,7 +5238,7 @@
       </c>
       <c r="G18" s="0"/>
       <c r="H18" s="0"/>
-      <c r="I18" s="23" t="s">
+      <c r="I18" s="24" t="s">
         <v>139</v>
       </c>
       <c r="J18" s="6" t="n">
@@ -5262,7 +5268,7 @@
       </c>
       <c r="G19" s="0"/>
       <c r="H19" s="0"/>
-      <c r="I19" s="23" t="s">
+      <c r="I19" s="24" t="s">
         <v>142</v>
       </c>
       <c r="J19" s="6" t="n">
@@ -5270,7 +5276,7 @@
       </c>
       <c r="K19" s="0"/>
       <c r="L19" s="0"/>
-      <c r="M19" s="23" t="s">
+      <c r="M19" s="24" t="s">
         <v>58</v>
       </c>
       <c r="N19" s="6" t="n">
@@ -5296,7 +5302,7 @@
       </c>
       <c r="G20" s="0"/>
       <c r="H20" s="0"/>
-      <c r="I20" s="23" t="s">
+      <c r="I20" s="24" t="s">
         <v>59</v>
       </c>
       <c r="J20" s="9" t="s">
@@ -5304,7 +5310,7 @@
       </c>
       <c r="K20" s="0"/>
       <c r="L20" s="0"/>
-      <c r="M20" s="23" t="s">
+      <c r="M20" s="24" t="s">
         <v>59</v>
       </c>
       <c r="N20" s="2" t="n">
@@ -5330,7 +5336,7 @@
       </c>
       <c r="G21" s="0"/>
       <c r="H21" s="0"/>
-      <c r="I21" s="23"/>
+      <c r="I21" s="24"/>
       <c r="J21" s="9"/>
       <c r="K21" s="0"/>
       <c r="L21" s="0"/>
@@ -5358,7 +5364,7 @@
       </c>
       <c r="G22" s="0"/>
       <c r="H22" s="0"/>
-      <c r="I22" s="23" t="s">
+      <c r="I22" s="24" t="s">
         <v>152</v>
       </c>
       <c r="J22" s="9" t="s">
@@ -5388,7 +5394,7 @@
       </c>
       <c r="G23" s="0"/>
       <c r="H23" s="0"/>
-      <c r="I23" s="23" t="s">
+      <c r="I23" s="24" t="s">
         <v>157</v>
       </c>
       <c r="J23" s="6" t="n">
@@ -5418,7 +5424,7 @@
       </c>
       <c r="G24" s="0"/>
       <c r="H24" s="0"/>
-      <c r="I24" s="23" t="s">
+      <c r="I24" s="24" t="s">
         <v>160</v>
       </c>
       <c r="J24" s="6" t="n">
@@ -5426,7 +5432,7 @@
       </c>
       <c r="K24" s="0"/>
       <c r="L24" s="0"/>
-      <c r="M24" s="23" t="s">
+      <c r="M24" s="24" t="s">
         <v>60</v>
       </c>
       <c r="N24" s="9" t="s">
@@ -5452,7 +5458,7 @@
       </c>
       <c r="G25" s="0"/>
       <c r="H25" s="0"/>
-      <c r="I25" s="23" t="s">
+      <c r="I25" s="24" t="s">
         <v>61</v>
       </c>
       <c r="J25" s="2" t="n">
@@ -5460,7 +5466,7 @@
       </c>
       <c r="K25" s="0"/>
       <c r="L25" s="0"/>
-      <c r="M25" s="23" t="s">
+      <c r="M25" s="24" t="s">
         <v>61</v>
       </c>
       <c r="N25" s="9" t="s">
@@ -5482,7 +5488,7 @@
       </c>
       <c r="G26" s="0"/>
       <c r="H26" s="0"/>
-      <c r="I26" s="23"/>
+      <c r="I26" s="24"/>
       <c r="J26" s="9"/>
       <c r="K26" s="0"/>
       <c r="L26" s="0"/>
@@ -5506,7 +5512,7 @@
       </c>
       <c r="G27" s="0"/>
       <c r="H27" s="0"/>
-      <c r="I27" s="23" t="s">
+      <c r="I27" s="24" t="s">
         <v>166</v>
       </c>
       <c r="J27" s="9" t="s">
@@ -5532,7 +5538,7 @@
       </c>
       <c r="G28" s="0"/>
       <c r="H28" s="0"/>
-      <c r="I28" s="23" t="s">
+      <c r="I28" s="24" t="s">
         <v>168</v>
       </c>
       <c r="J28" s="9" t="s">
@@ -5558,7 +5564,7 @@
       </c>
       <c r="G29" s="0"/>
       <c r="H29" s="0"/>
-      <c r="I29" s="23" t="s">
+      <c r="I29" s="24" t="s">
         <v>173</v>
       </c>
       <c r="J29" s="6" t="n">
@@ -5566,7 +5572,7 @@
       </c>
       <c r="K29" s="0"/>
       <c r="L29" s="0"/>
-      <c r="M29" s="23" t="s">
+      <c r="M29" s="24" t="s">
         <v>62</v>
       </c>
       <c r="N29" s="9" t="s">
@@ -5588,7 +5594,7 @@
       </c>
       <c r="G30" s="0"/>
       <c r="H30" s="0"/>
-      <c r="I30" s="23" t="s">
+      <c r="I30" s="24" t="s">
         <v>175</v>
       </c>
       <c r="J30" s="9" t="s">
@@ -5596,7 +5602,7 @@
       </c>
       <c r="K30" s="0"/>
       <c r="L30" s="0"/>
-      <c r="M30" s="23" t="s">
+      <c r="M30" s="24" t="s">
         <v>63</v>
       </c>
       <c r="N30" s="6" t="n">
@@ -5618,7 +5624,7 @@
       </c>
       <c r="G31" s="0"/>
       <c r="H31" s="0"/>
-      <c r="I31" s="23"/>
+      <c r="I31" s="24"/>
       <c r="J31" s="0"/>
       <c r="K31" s="0"/>
       <c r="L31" s="0"/>
@@ -5642,7 +5648,7 @@
       </c>
       <c r="G32" s="0"/>
       <c r="H32" s="0"/>
-      <c r="I32" s="23" t="s">
+      <c r="I32" s="24" t="s">
         <v>179</v>
       </c>
       <c r="J32" s="6" t="n">
@@ -5650,7 +5656,7 @@
       </c>
       <c r="K32" s="0"/>
       <c r="L32" s="0"/>
-      <c r="M32" s="23" t="s">
+      <c r="M32" s="24" t="s">
         <v>64</v>
       </c>
       <c r="N32" s="6" t="n">
@@ -5672,7 +5678,7 @@
       </c>
       <c r="G33" s="0"/>
       <c r="H33" s="0"/>
-      <c r="I33" s="23"/>
+      <c r="I33" s="24"/>
       <c r="J33" s="6"/>
       <c r="K33" s="0"/>
       <c r="L33" s="0"/>
@@ -5704,7 +5710,7 @@
       </c>
       <c r="K34" s="0"/>
       <c r="L34" s="0"/>
-      <c r="M34" s="23" t="s">
+      <c r="M34" s="24" t="s">
         <v>65</v>
       </c>
       <c r="N34" s="9" t="s">
@@ -5734,7 +5740,7 @@
       </c>
       <c r="K35" s="0"/>
       <c r="L35" s="0"/>
-      <c r="M35" s="23" t="s">
+      <c r="M35" s="24" t="s">
         <v>66</v>
       </c>
       <c r="N35" s="9" t="s">
@@ -5763,7 +5769,7 @@
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0"/>
       <c r="B37" s="0"/>
-      <c r="E37" s="23" t="s">
+      <c r="E37" s="24" t="s">
         <v>188</v>
       </c>
       <c r="F37" s="2" t="n">
@@ -5771,7 +5777,7 @@
       </c>
       <c r="G37" s="0"/>
       <c r="H37" s="0"/>
-      <c r="I37" s="23" t="s">
+      <c r="I37" s="24" t="s">
         <v>189</v>
       </c>
       <c r="J37" s="2" t="n">
@@ -5779,7 +5785,7 @@
       </c>
       <c r="K37" s="0"/>
       <c r="L37" s="0"/>
-      <c r="M37" s="23" t="s">
+      <c r="M37" s="24" t="s">
         <v>67</v>
       </c>
       <c r="N37" s="9" t="s">
@@ -5790,30 +5796,30 @@
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0"/>
       <c r="B38" s="0"/>
-      <c r="E38" s="23"/>
+      <c r="E38" s="24"/>
       <c r="F38" s="0"/>
       <c r="G38" s="0"/>
       <c r="H38" s="0"/>
-      <c r="I38" s="23"/>
+      <c r="I38" s="24"/>
       <c r="J38" s="0"/>
       <c r="K38" s="0"/>
       <c r="L38" s="0"/>
-      <c r="M38" s="23"/>
+      <c r="M38" s="24"/>
       <c r="N38" s="9"/>
       <c r="S38" s="0"/>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0"/>
       <c r="B39" s="0"/>
-      <c r="E39" s="23"/>
+      <c r="E39" s="24"/>
       <c r="F39" s="0"/>
       <c r="G39" s="0"/>
       <c r="H39" s="0"/>
-      <c r="I39" s="23"/>
+      <c r="I39" s="24"/>
       <c r="J39" s="0"/>
       <c r="K39" s="0"/>
       <c r="L39" s="0"/>
-      <c r="M39" s="23"/>
+      <c r="M39" s="24"/>
       <c r="N39" s="9"/>
       <c r="S39" s="0"/>
     </row>
@@ -6625,7 +6631,7 @@
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0"/>
       <c r="B70" s="0"/>
-      <c r="E70" s="23" t="s">
+      <c r="E70" s="24" t="s">
         <v>188</v>
       </c>
       <c r="F70" s="2" t="n">
@@ -6636,7 +6642,7 @@
       <c r="I70" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="J70" s="23" t="n">
+      <c r="J70" s="24" t="n">
         <v>0.487643152</v>
       </c>
       <c r="M70" s="2" t="s">
@@ -7018,7 +7024,7 @@
       <c r="A88" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="B88" s="24" t="s">
+      <c r="B88" s="25" t="s">
         <v>197</v>
       </c>
       <c r="E88" s="2" t="s">
@@ -7038,7 +7044,7 @@
       <c r="A89" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="B89" s="24" t="s">
+      <c r="B89" s="25" t="s">
         <v>148</v>
       </c>
       <c r="E89" s="2" t="s">
@@ -7062,7 +7068,7 @@
       <c r="A90" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="B90" s="24" t="s">
+      <c r="B90" s="25" t="s">
         <v>151</v>
       </c>
       <c r="E90" s="2" t="s">
@@ -7086,7 +7092,7 @@
       <c r="A91" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="B91" s="24" t="s">
+      <c r="B91" s="25" t="s">
         <v>156</v>
       </c>
       <c r="E91" s="2" t="s">
@@ -7365,7 +7371,7 @@
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="0"/>
       <c r="B104" s="0"/>
-      <c r="E104" s="23" t="s">
+      <c r="E104" s="24" t="s">
         <v>188</v>
       </c>
       <c r="F104" s="2" t="n">
@@ -7374,7 +7380,7 @@
       <c r="G104" s="0"/>
       <c r="H104" s="0"/>
       <c r="I104" s="0"/>
-      <c r="J104" s="25" t="n">
+      <c r="J104" s="26" t="n">
         <v>0.0277557671</v>
       </c>
       <c r="M104" s="2" t="s">
@@ -7550,7 +7556,7 @@
       <c r="A114" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="B114" s="26" t="n">
+      <c r="B114" s="27" t="n">
         <v>0.1</v>
       </c>
       <c r="E114" s="2" t="s">
@@ -7574,7 +7580,7 @@
       <c r="A115" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="B115" s="26" t="n">
+      <c r="B115" s="27" t="n">
         <v>1</v>
       </c>
       <c r="E115" s="2" t="s">
@@ -7607,12 +7613,12 @@
       <c r="F116" s="2" t="n">
         <v>49.5121</v>
       </c>
-      <c r="G116" s="27"/>
-      <c r="H116" s="27"/>
-      <c r="I116" s="27" t="s">
+      <c r="G116" s="7"/>
+      <c r="H116" s="7"/>
+      <c r="I116" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="J116" s="27" t="n">
+      <c r="J116" s="7" t="n">
         <v>49.5110397</v>
       </c>
       <c r="M116" s="2" t="s">
@@ -7742,7 +7748,7 @@
       <c r="A122" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="B122" s="24" t="s">
+      <c r="B122" s="25" t="s">
         <v>201</v>
       </c>
       <c r="E122" s="2" t="s">
@@ -7751,18 +7757,18 @@
       <c r="F122" s="2" t="n">
         <v>59.9192</v>
       </c>
-      <c r="G122" s="27"/>
-      <c r="H122" s="27"/>
-      <c r="I122" s="27" t="s">
+      <c r="G122" s="7"/>
+      <c r="H122" s="7"/>
+      <c r="I122" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="J122" s="27" t="n">
+      <c r="J122" s="7" t="n">
         <v>59.9179878</v>
       </c>
       <c r="M122" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="N122" s="27" t="n">
+      <c r="N122" s="7" t="n">
         <v>59.9191652451627</v>
       </c>
     </row>
@@ -7770,7 +7776,7 @@
       <c r="A123" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="B123" s="24" t="s">
+      <c r="B123" s="25" t="s">
         <v>202</v>
       </c>
       <c r="E123" s="2" t="s">
@@ -7788,7 +7794,7 @@
       <c r="A124" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="B124" s="24" t="s">
+      <c r="B124" s="25" t="s">
         <v>151</v>
       </c>
       <c r="E124" s="2" t="s">
@@ -7810,7 +7816,7 @@
       <c r="A125" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="B125" s="24" t="s">
+      <c r="B125" s="25" t="s">
         <v>156</v>
       </c>
       <c r="E125" s="2" t="s">
@@ -8057,7 +8063,7 @@
       <c r="N138" s="0"/>
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E139" s="23" t="s">
+      <c r="E139" s="24" t="s">
         <v>188</v>
       </c>
       <c r="F139" s="2" t="n">
@@ -8216,7 +8222,7 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="22" t="s">
+      <c r="A7" s="23" t="s">
         <v>99</v>
       </c>
       <c r="B7" s="0"/>
@@ -8242,7 +8248,7 @@
       </c>
       <c r="G8" s="0"/>
       <c r="H8" s="0"/>
-      <c r="I8" s="23" t="s">
+      <c r="I8" s="24" t="s">
         <v>102</v>
       </c>
       <c r="J8" s="9" t="s">
@@ -8271,7 +8277,7 @@
       </c>
       <c r="G9" s="0"/>
       <c r="H9" s="0"/>
-      <c r="I9" s="23" t="s">
+      <c r="I9" s="24" t="s">
         <v>107</v>
       </c>
       <c r="J9" s="9" t="s">
@@ -8300,7 +8306,7 @@
       </c>
       <c r="G10" s="0"/>
       <c r="H10" s="0"/>
-      <c r="I10" s="23" t="s">
+      <c r="I10" s="24" t="s">
         <v>112</v>
       </c>
       <c r="J10" s="9" t="s">
@@ -8329,7 +8335,7 @@
       </c>
       <c r="G11" s="0"/>
       <c r="H11" s="0"/>
-      <c r="I11" s="23" t="s">
+      <c r="I11" s="24" t="s">
         <v>115</v>
       </c>
       <c r="J11" s="9" t="s">
@@ -8359,7 +8365,7 @@
       </c>
       <c r="G12" s="0"/>
       <c r="H12" s="0"/>
-      <c r="I12" s="23" t="s">
+      <c r="I12" s="24" t="s">
         <v>119</v>
       </c>
       <c r="J12" s="9" t="s">
@@ -8389,7 +8395,7 @@
       </c>
       <c r="G13" s="0"/>
       <c r="H13" s="0"/>
-      <c r="I13" s="23" t="s">
+      <c r="I13" s="24" t="s">
         <v>123</v>
       </c>
       <c r="J13" s="9" t="s">
@@ -8418,7 +8424,7 @@
       </c>
       <c r="G14" s="0"/>
       <c r="H14" s="0"/>
-      <c r="I14" s="23" t="s">
+      <c r="I14" s="24" t="s">
         <v>56</v>
       </c>
       <c r="J14" s="2" t="n">
@@ -8447,7 +8453,7 @@
       </c>
       <c r="G15" s="0"/>
       <c r="H15" s="0"/>
-      <c r="I15" s="23" t="s">
+      <c r="I15" s="24" t="s">
         <v>129</v>
       </c>
       <c r="J15" s="2" t="n">
@@ -8476,7 +8482,7 @@
       </c>
       <c r="G16" s="0"/>
       <c r="H16" s="0"/>
-      <c r="I16" s="23"/>
+      <c r="I16" s="24"/>
       <c r="J16" s="0"/>
       <c r="K16" s="0"/>
       <c r="L16" s="0"/>
@@ -8499,7 +8505,7 @@
       </c>
       <c r="G17" s="0"/>
       <c r="H17" s="0"/>
-      <c r="I17" s="23" t="s">
+      <c r="I17" s="24" t="s">
         <v>134</v>
       </c>
       <c r="J17" s="9" t="s">
@@ -8528,7 +8534,7 @@
       </c>
       <c r="G18" s="0"/>
       <c r="H18" s="0"/>
-      <c r="I18" s="23" t="s">
+      <c r="I18" s="24" t="s">
         <v>139</v>
       </c>
       <c r="J18" s="9" t="s">
@@ -8557,7 +8563,7 @@
       </c>
       <c r="G19" s="0"/>
       <c r="H19" s="0"/>
-      <c r="I19" s="23" t="s">
+      <c r="I19" s="24" t="s">
         <v>142</v>
       </c>
       <c r="J19" s="9" t="s">
@@ -8586,7 +8592,7 @@
       </c>
       <c r="G20" s="0"/>
       <c r="H20" s="0"/>
-      <c r="I20" s="23" t="s">
+      <c r="I20" s="24" t="s">
         <v>59</v>
       </c>
       <c r="J20" s="2" t="n">
@@ -8615,7 +8621,7 @@
       </c>
       <c r="G21" s="0"/>
       <c r="H21" s="0"/>
-      <c r="I21" s="23"/>
+      <c r="I21" s="24"/>
       <c r="J21" s="0"/>
       <c r="K21" s="0"/>
       <c r="L21" s="0"/>
@@ -8642,7 +8648,7 @@
       </c>
       <c r="G22" s="0"/>
       <c r="H22" s="0"/>
-      <c r="I22" s="23" t="s">
+      <c r="I22" s="24" t="s">
         <v>152</v>
       </c>
       <c r="J22" s="9" t="s">
@@ -8671,7 +8677,7 @@
       </c>
       <c r="G23" s="0"/>
       <c r="H23" s="0"/>
-      <c r="I23" s="23" t="s">
+      <c r="I23" s="24" t="s">
         <v>157</v>
       </c>
       <c r="J23" s="9" t="s">
@@ -8700,7 +8706,7 @@
       </c>
       <c r="G24" s="0"/>
       <c r="H24" s="0"/>
-      <c r="I24" s="23" t="s">
+      <c r="I24" s="24" t="s">
         <v>160</v>
       </c>
       <c r="J24" s="9" t="s">
@@ -8729,7 +8735,7 @@
       </c>
       <c r="G25" s="0"/>
       <c r="H25" s="0"/>
-      <c r="I25" s="23" t="s">
+      <c r="I25" s="24" t="s">
         <v>61</v>
       </c>
       <c r="J25" s="2" t="n">
@@ -8754,7 +8760,7 @@
       </c>
       <c r="G26" s="0"/>
       <c r="H26" s="0"/>
-      <c r="I26" s="23"/>
+      <c r="I26" s="24"/>
       <c r="J26" s="0"/>
       <c r="K26" s="0"/>
       <c r="L26" s="0"/>
@@ -8777,7 +8783,7 @@
       </c>
       <c r="G27" s="0"/>
       <c r="H27" s="0"/>
-      <c r="I27" s="23" t="s">
+      <c r="I27" s="24" t="s">
         <v>166</v>
       </c>
       <c r="J27" s="2" t="n">
@@ -8802,7 +8808,7 @@
       </c>
       <c r="G28" s="0"/>
       <c r="H28" s="0"/>
-      <c r="I28" s="23" t="s">
+      <c r="I28" s="24" t="s">
         <v>168</v>
       </c>
       <c r="J28" s="9" t="s">
@@ -8827,7 +8833,7 @@
       </c>
       <c r="G29" s="0"/>
       <c r="H29" s="0"/>
-      <c r="I29" s="23" t="s">
+      <c r="I29" s="24" t="s">
         <v>173</v>
       </c>
       <c r="J29" s="9" t="s">
@@ -8852,7 +8858,7 @@
       </c>
       <c r="G30" s="0"/>
       <c r="H30" s="0"/>
-      <c r="I30" s="23" t="s">
+      <c r="I30" s="24" t="s">
         <v>175</v>
       </c>
       <c r="J30" s="9" t="s">
@@ -8877,7 +8883,7 @@
       </c>
       <c r="G31" s="0"/>
       <c r="H31" s="0"/>
-      <c r="I31" s="23"/>
+      <c r="I31" s="24"/>
       <c r="J31" s="0"/>
       <c r="K31" s="0"/>
       <c r="L31" s="0"/>
@@ -8900,7 +8906,7 @@
       </c>
       <c r="G32" s="0"/>
       <c r="H32" s="0"/>
-      <c r="I32" s="23" t="s">
+      <c r="I32" s="24" t="s">
         <v>179</v>
       </c>
       <c r="J32" s="9" t="s">
@@ -8925,7 +8931,7 @@
       </c>
       <c r="G33" s="0"/>
       <c r="H33" s="0"/>
-      <c r="I33" s="23"/>
+      <c r="I33" s="24"/>
       <c r="J33" s="0"/>
       <c r="K33" s="0"/>
       <c r="L33" s="0"/>
@@ -8948,7 +8954,7 @@
       </c>
       <c r="G34" s="0"/>
       <c r="H34" s="0"/>
-      <c r="I34" s="23" t="s">
+      <c r="I34" s="24" t="s">
         <v>183</v>
       </c>
       <c r="J34" s="6" t="n">
@@ -8973,7 +8979,7 @@
       </c>
       <c r="G35" s="0"/>
       <c r="H35" s="0"/>
-      <c r="I35" s="23" t="s">
+      <c r="I35" s="24" t="s">
         <v>186</v>
       </c>
       <c r="J35" s="6" t="n">
@@ -17553,7 +17559,7 @@
       <c r="A392" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="B392" s="24" t="s">
+      <c r="B392" s="25" t="s">
         <v>197</v>
       </c>
       <c r="E392" s="28" t="s">
@@ -17582,7 +17588,7 @@
       <c r="A393" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="B393" s="24" t="s">
+      <c r="B393" s="25" t="s">
         <v>148</v>
       </c>
       <c r="E393" s="2" t="s">
@@ -17609,7 +17615,7 @@
       <c r="A394" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="B394" s="24" t="s">
+      <c r="B394" s="25" t="s">
         <v>151</v>
       </c>
       <c r="E394" s="2" t="s">
@@ -17638,7 +17644,7 @@
       <c r="A395" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="B395" s="24" t="s">
+      <c r="B395" s="25" t="s">
         <v>156</v>
       </c>
       <c r="E395" s="2" t="s">
@@ -18141,7 +18147,7 @@
       <c r="A416" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="B416" s="26" t="n">
+      <c r="B416" s="27" t="n">
         <v>0.1</v>
       </c>
       <c r="E416" s="28" t="s">
@@ -18170,7 +18176,7 @@
       <c r="A417" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="B417" s="26" t="n">
+      <c r="B417" s="27" t="n">
         <v>1</v>
       </c>
       <c r="E417" s="28" t="s">
@@ -18367,7 +18373,7 @@
       <c r="A424" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="B424" s="24" t="s">
+      <c r="B424" s="25" t="s">
         <v>201</v>
       </c>
       <c r="E424" s="28" t="s">
@@ -18396,7 +18402,7 @@
       <c r="A425" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="B425" s="24" t="s">
+      <c r="B425" s="25" t="s">
         <v>202</v>
       </c>
       <c r="E425" s="2" t="s">
@@ -18423,7 +18429,7 @@
       <c r="A426" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="B426" s="24" t="s">
+      <c r="B426" s="25" t="s">
         <v>151</v>
       </c>
       <c r="E426" s="2" t="s">
@@ -18452,7 +18458,7 @@
       <c r="A427" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="B427" s="24" t="s">
+      <c r="B427" s="25" t="s">
         <v>156</v>
       </c>
       <c r="E427" s="2" t="s">
@@ -18899,7 +18905,7 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="22" t="s">
+      <c r="A8" s="23" t="s">
         <v>244</v>
       </c>
       <c r="B8" s="0"/>
@@ -19100,7 +19106,7 @@
       </c>
       <c r="G16" s="0"/>
       <c r="H16" s="0"/>
-      <c r="I16" s="23" t="s">
+      <c r="I16" s="24" t="s">
         <v>129</v>
       </c>
       <c r="J16" s="2" t="n">
@@ -19125,7 +19131,7 @@
       </c>
       <c r="G17" s="0"/>
       <c r="H17" s="0"/>
-      <c r="I17" s="23"/>
+      <c r="I17" s="24"/>
       <c r="J17" s="0"/>
       <c r="K17" s="0"/>
       <c r="L17" s="0"/>
@@ -19148,7 +19154,7 @@
       </c>
       <c r="G18" s="0"/>
       <c r="H18" s="0"/>
-      <c r="I18" s="23" t="s">
+      <c r="I18" s="24" t="s">
         <v>134</v>
       </c>
       <c r="J18" s="9" t="s">
@@ -19173,7 +19179,7 @@
       </c>
       <c r="G19" s="0"/>
       <c r="H19" s="0"/>
-      <c r="I19" s="23" t="s">
+      <c r="I19" s="24" t="s">
         <v>139</v>
       </c>
       <c r="J19" s="9" t="s">
@@ -19248,7 +19254,7 @@
       </c>
       <c r="G22" s="0"/>
       <c r="H22" s="0"/>
-      <c r="I22" s="23"/>
+      <c r="I22" s="24"/>
       <c r="J22" s="0"/>
       <c r="K22" s="0"/>
       <c r="L22" s="0"/>
@@ -19271,7 +19277,7 @@
       </c>
       <c r="G23" s="0"/>
       <c r="H23" s="0"/>
-      <c r="I23" s="23" t="s">
+      <c r="I23" s="24" t="s">
         <v>152</v>
       </c>
       <c r="J23" s="9" t="s">
@@ -19296,7 +19302,7 @@
       </c>
       <c r="G24" s="0"/>
       <c r="H24" s="0"/>
-      <c r="I24" s="23" t="s">
+      <c r="I24" s="24" t="s">
         <v>157</v>
       </c>
       <c r="J24" s="9" t="s">
@@ -19371,7 +19377,7 @@
       </c>
       <c r="G27" s="0"/>
       <c r="H27" s="0"/>
-      <c r="I27" s="23"/>
+      <c r="I27" s="24"/>
       <c r="J27" s="0"/>
       <c r="K27" s="0"/>
       <c r="L27" s="0"/>
@@ -19394,7 +19400,7 @@
       </c>
       <c r="G28" s="0"/>
       <c r="H28" s="0"/>
-      <c r="I28" s="23" t="s">
+      <c r="I28" s="24" t="s">
         <v>166</v>
       </c>
       <c r="J28" s="2" t="n">
@@ -19419,7 +19425,7 @@
       </c>
       <c r="G29" s="0"/>
       <c r="H29" s="0"/>
-      <c r="I29" s="23" t="s">
+      <c r="I29" s="24" t="s">
         <v>168</v>
       </c>
       <c r="J29" s="9" t="s">
@@ -19494,7 +19500,7 @@
       </c>
       <c r="G32" s="0"/>
       <c r="H32" s="0"/>
-      <c r="I32" s="23"/>
+      <c r="I32" s="24"/>
       <c r="J32" s="0"/>
       <c r="K32" s="0"/>
       <c r="L32" s="0"/>
@@ -19542,7 +19548,7 @@
       </c>
       <c r="G34" s="0"/>
       <c r="H34" s="0"/>
-      <c r="I34" s="23"/>
+      <c r="I34" s="24"/>
       <c r="J34" s="0"/>
       <c r="K34" s="0"/>
       <c r="L34" s="0"/>
@@ -19655,7 +19661,7 @@
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="22" t="s">
+      <c r="A40" s="23" t="s">
         <v>275</v>
       </c>
       <c r="B40" s="0"/>
@@ -19856,7 +19862,7 @@
       </c>
       <c r="G48" s="0"/>
       <c r="H48" s="0"/>
-      <c r="I48" s="23" t="s">
+      <c r="I48" s="24" t="s">
         <v>129</v>
       </c>
       <c r="J48" s="2" t="n">
@@ -19881,7 +19887,7 @@
       </c>
       <c r="G49" s="0"/>
       <c r="H49" s="0"/>
-      <c r="I49" s="23"/>
+      <c r="I49" s="24"/>
       <c r="J49" s="0"/>
       <c r="K49" s="0"/>
       <c r="L49" s="0"/>
@@ -19904,7 +19910,7 @@
       </c>
       <c r="G50" s="0"/>
       <c r="H50" s="0"/>
-      <c r="I50" s="23" t="s">
+      <c r="I50" s="24" t="s">
         <v>134</v>
       </c>
       <c r="J50" s="9" t="s">
@@ -19929,7 +19935,7 @@
       </c>
       <c r="G51" s="0"/>
       <c r="H51" s="0"/>
-      <c r="I51" s="23" t="s">
+      <c r="I51" s="24" t="s">
         <v>139</v>
       </c>
       <c r="J51" s="9" t="s">
@@ -20004,7 +20010,7 @@
       </c>
       <c r="G54" s="0"/>
       <c r="H54" s="0"/>
-      <c r="I54" s="23"/>
+      <c r="I54" s="24"/>
       <c r="J54" s="0"/>
       <c r="K54" s="0"/>
       <c r="L54" s="0"/>
@@ -20027,7 +20033,7 @@
       </c>
       <c r="G55" s="0"/>
       <c r="H55" s="0"/>
-      <c r="I55" s="23" t="s">
+      <c r="I55" s="24" t="s">
         <v>152</v>
       </c>
       <c r="J55" s="9" t="s">
@@ -20052,7 +20058,7 @@
       </c>
       <c r="G56" s="0"/>
       <c r="H56" s="0"/>
-      <c r="I56" s="23" t="s">
+      <c r="I56" s="24" t="s">
         <v>157</v>
       </c>
       <c r="J56" s="9" t="s">
@@ -20127,7 +20133,7 @@
       </c>
       <c r="G59" s="0"/>
       <c r="H59" s="0"/>
-      <c r="I59" s="23"/>
+      <c r="I59" s="24"/>
       <c r="J59" s="0"/>
       <c r="K59" s="0"/>
       <c r="L59" s="0"/>
@@ -20150,7 +20156,7 @@
       </c>
       <c r="G60" s="0"/>
       <c r="H60" s="0"/>
-      <c r="I60" s="23" t="s">
+      <c r="I60" s="24" t="s">
         <v>166</v>
       </c>
       <c r="J60" s="2" t="n">
@@ -20175,7 +20181,7 @@
       </c>
       <c r="G61" s="0"/>
       <c r="H61" s="0"/>
-      <c r="I61" s="23" t="s">
+      <c r="I61" s="24" t="s">
         <v>168</v>
       </c>
       <c r="J61" s="9" t="s">
@@ -20250,7 +20256,7 @@
       </c>
       <c r="G64" s="0"/>
       <c r="H64" s="0"/>
-      <c r="I64" s="23"/>
+      <c r="I64" s="24"/>
       <c r="J64" s="0"/>
       <c r="K64" s="0"/>
       <c r="L64" s="0"/>
@@ -20298,7 +20304,7 @@
       </c>
       <c r="G66" s="0"/>
       <c r="H66" s="0"/>
-      <c r="I66" s="23"/>
+      <c r="I66" s="24"/>
       <c r="J66" s="0"/>
       <c r="K66" s="0"/>
       <c r="L66" s="0"/>
@@ -20411,7 +20417,7 @@
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="22" t="s">
+      <c r="A72" s="23" t="s">
         <v>307</v>
       </c>
       <c r="B72" s="0"/>
@@ -20612,7 +20618,7 @@
       </c>
       <c r="G80" s="0"/>
       <c r="H80" s="0"/>
-      <c r="I80" s="23" t="s">
+      <c r="I80" s="24" t="s">
         <v>129</v>
       </c>
       <c r="J80" s="2" t="n">
@@ -20637,7 +20643,7 @@
       </c>
       <c r="G81" s="0"/>
       <c r="H81" s="0"/>
-      <c r="I81" s="23"/>
+      <c r="I81" s="24"/>
       <c r="J81" s="0"/>
       <c r="K81" s="0"/>
       <c r="L81" s="0"/>
@@ -20660,7 +20666,7 @@
       </c>
       <c r="G82" s="0"/>
       <c r="H82" s="0"/>
-      <c r="I82" s="23" t="s">
+      <c r="I82" s="24" t="s">
         <v>134</v>
       </c>
       <c r="J82" s="9" t="s">
@@ -20685,7 +20691,7 @@
       </c>
       <c r="G83" s="0"/>
       <c r="H83" s="0"/>
-      <c r="I83" s="23" t="s">
+      <c r="I83" s="24" t="s">
         <v>139</v>
       </c>
       <c r="J83" s="9" t="s">
@@ -20760,7 +20766,7 @@
       </c>
       <c r="G86" s="0"/>
       <c r="H86" s="0"/>
-      <c r="I86" s="23"/>
+      <c r="I86" s="24"/>
       <c r="J86" s="0"/>
       <c r="K86" s="0"/>
       <c r="L86" s="0"/>
@@ -20783,7 +20789,7 @@
       </c>
       <c r="G87" s="0"/>
       <c r="H87" s="0"/>
-      <c r="I87" s="23" t="s">
+      <c r="I87" s="24" t="s">
         <v>152</v>
       </c>
       <c r="J87" s="9" t="s">
@@ -20808,7 +20814,7 @@
       </c>
       <c r="G88" s="0"/>
       <c r="H88" s="0"/>
-      <c r="I88" s="23" t="s">
+      <c r="I88" s="24" t="s">
         <v>157</v>
       </c>
       <c r="J88" s="9" t="s">
@@ -20883,7 +20889,7 @@
       </c>
       <c r="G91" s="0"/>
       <c r="H91" s="0"/>
-      <c r="I91" s="23"/>
+      <c r="I91" s="24"/>
       <c r="J91" s="0"/>
       <c r="K91" s="0"/>
       <c r="L91" s="0"/>
@@ -20906,7 +20912,7 @@
       </c>
       <c r="G92" s="0"/>
       <c r="H92" s="0"/>
-      <c r="I92" s="23" t="s">
+      <c r="I92" s="24" t="s">
         <v>166</v>
       </c>
       <c r="J92" s="2" t="n">
@@ -20931,7 +20937,7 @@
       </c>
       <c r="G93" s="0"/>
       <c r="H93" s="0"/>
-      <c r="I93" s="23" t="s">
+      <c r="I93" s="24" t="s">
         <v>168</v>
       </c>
       <c r="J93" s="9" t="s">
@@ -21006,7 +21012,7 @@
       </c>
       <c r="G96" s="0"/>
       <c r="H96" s="0"/>
-      <c r="I96" s="23"/>
+      <c r="I96" s="24"/>
       <c r="J96" s="0"/>
       <c r="K96" s="0"/>
       <c r="L96" s="0"/>
@@ -21054,7 +21060,7 @@
       </c>
       <c r="G98" s="0"/>
       <c r="H98" s="0"/>
-      <c r="I98" s="23"/>
+      <c r="I98" s="24"/>
       <c r="J98" s="0"/>
       <c r="K98" s="0"/>
       <c r="L98" s="0"/>
@@ -21167,7 +21173,7 @@
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="22" t="s">
+      <c r="A104" s="23" t="s">
         <v>339</v>
       </c>
       <c r="B104" s="0"/>
@@ -21344,7 +21350,7 @@
       </c>
       <c r="G112" s="0"/>
       <c r="H112" s="0"/>
-      <c r="I112" s="23"/>
+      <c r="I112" s="24"/>
       <c r="J112" s="0"/>
       <c r="K112" s="0"/>
       <c r="L112" s="0"/>
@@ -21365,7 +21371,7 @@
       </c>
       <c r="G113" s="0"/>
       <c r="H113" s="0"/>
-      <c r="I113" s="23"/>
+      <c r="I113" s="24"/>
       <c r="J113" s="0"/>
       <c r="K113" s="0"/>
       <c r="L113" s="0"/>
@@ -21388,7 +21394,7 @@
       </c>
       <c r="G114" s="0"/>
       <c r="H114" s="0"/>
-      <c r="I114" s="23"/>
+      <c r="I114" s="24"/>
       <c r="J114" s="9"/>
       <c r="K114" s="0"/>
       <c r="L114" s="0"/>
@@ -21409,7 +21415,7 @@
       </c>
       <c r="G115" s="0"/>
       <c r="H115" s="0"/>
-      <c r="I115" s="23"/>
+      <c r="I115" s="24"/>
       <c r="J115" s="9"/>
       <c r="K115" s="0"/>
       <c r="L115" s="0"/>
@@ -21472,7 +21478,7 @@
       </c>
       <c r="G118" s="0"/>
       <c r="H118" s="0"/>
-      <c r="I118" s="23"/>
+      <c r="I118" s="24"/>
       <c r="J118" s="0"/>
       <c r="K118" s="0"/>
       <c r="L118" s="0"/>
@@ -21495,7 +21501,7 @@
       </c>
       <c r="G119" s="0"/>
       <c r="H119" s="0"/>
-      <c r="I119" s="23"/>
+      <c r="I119" s="24"/>
       <c r="J119" s="9"/>
       <c r="K119" s="0"/>
       <c r="L119" s="0"/>
@@ -21516,7 +21522,7 @@
       </c>
       <c r="G120" s="0"/>
       <c r="H120" s="0"/>
-      <c r="I120" s="23"/>
+      <c r="I120" s="24"/>
       <c r="J120" s="9"/>
       <c r="K120" s="0"/>
       <c r="L120" s="0"/>
@@ -21579,7 +21585,7 @@
       </c>
       <c r="G123" s="0"/>
       <c r="H123" s="0"/>
-      <c r="I123" s="23"/>
+      <c r="I123" s="24"/>
       <c r="J123" s="0"/>
       <c r="K123" s="0"/>
       <c r="L123" s="0"/>
@@ -21602,7 +21608,7 @@
       </c>
       <c r="G124" s="0"/>
       <c r="H124" s="0"/>
-      <c r="I124" s="23"/>
+      <c r="I124" s="24"/>
       <c r="J124" s="0"/>
       <c r="K124" s="0"/>
       <c r="L124" s="0"/>
@@ -21623,7 +21629,7 @@
       </c>
       <c r="G125" s="0"/>
       <c r="H125" s="0"/>
-      <c r="I125" s="23"/>
+      <c r="I125" s="24"/>
       <c r="J125" s="9"/>
       <c r="K125" s="0"/>
       <c r="L125" s="0"/>
@@ -21686,7 +21692,7 @@
       </c>
       <c r="G128" s="0"/>
       <c r="H128" s="0"/>
-      <c r="I128" s="23"/>
+      <c r="I128" s="24"/>
       <c r="J128" s="0"/>
       <c r="K128" s="0"/>
       <c r="L128" s="0"/>
@@ -21730,7 +21736,7 @@
       </c>
       <c r="G130" s="0"/>
       <c r="H130" s="0"/>
-      <c r="I130" s="23"/>
+      <c r="I130" s="24"/>
       <c r="J130" s="0"/>
       <c r="K130" s="0"/>
       <c r="L130" s="0"/>
@@ -21835,7 +21841,7 @@
       </c>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="22" t="s">
+      <c r="A136" s="23" t="s">
         <v>339</v>
       </c>
       <c r="B136" s="0"/>
@@ -22036,7 +22042,7 @@
       </c>
       <c r="G144" s="0"/>
       <c r="H144" s="0"/>
-      <c r="I144" s="23" t="s">
+      <c r="I144" s="24" t="s">
         <v>129</v>
       </c>
       <c r="J144" s="2" t="n">
@@ -22060,7 +22066,7 @@
       </c>
       <c r="G145" s="0"/>
       <c r="H145" s="0"/>
-      <c r="I145" s="23"/>
+      <c r="I145" s="24"/>
       <c r="J145" s="0"/>
       <c r="K145" s="0"/>
       <c r="L145" s="0"/>
@@ -22082,7 +22088,7 @@
       </c>
       <c r="G146" s="0"/>
       <c r="H146" s="0"/>
-      <c r="I146" s="23" t="s">
+      <c r="I146" s="24" t="s">
         <v>134</v>
       </c>
       <c r="J146" s="9" t="s">
@@ -22106,7 +22112,7 @@
       </c>
       <c r="G147" s="0"/>
       <c r="H147" s="0"/>
-      <c r="I147" s="23" t="s">
+      <c r="I147" s="24" t="s">
         <v>139</v>
       </c>
       <c r="J147" s="9" t="s">
@@ -22178,7 +22184,7 @@
       </c>
       <c r="G150" s="0"/>
       <c r="H150" s="0"/>
-      <c r="I150" s="23"/>
+      <c r="I150" s="24"/>
       <c r="J150" s="0"/>
       <c r="K150" s="0"/>
       <c r="L150" s="0"/>
@@ -22200,7 +22206,7 @@
       </c>
       <c r="G151" s="0"/>
       <c r="H151" s="0"/>
-      <c r="I151" s="23" t="s">
+      <c r="I151" s="24" t="s">
         <v>152</v>
       </c>
       <c r="J151" s="9" t="s">
@@ -22224,7 +22230,7 @@
       </c>
       <c r="G152" s="0"/>
       <c r="H152" s="0"/>
-      <c r="I152" s="23" t="s">
+      <c r="I152" s="24" t="s">
         <v>157</v>
       </c>
       <c r="J152" s="9" t="s">
@@ -22295,7 +22301,7 @@
       </c>
       <c r="G155" s="0"/>
       <c r="H155" s="0"/>
-      <c r="I155" s="23"/>
+      <c r="I155" s="24"/>
       <c r="J155" s="0"/>
       <c r="K155" s="0"/>
       <c r="L155" s="0"/>
@@ -22316,7 +22322,7 @@
       </c>
       <c r="G156" s="0"/>
       <c r="H156" s="0"/>
-      <c r="I156" s="23" t="s">
+      <c r="I156" s="24" t="s">
         <v>166</v>
       </c>
       <c r="J156" s="2" t="n">
@@ -22339,7 +22345,7 @@
       </c>
       <c r="G157" s="0"/>
       <c r="H157" s="0"/>
-      <c r="I157" s="23" t="s">
+      <c r="I157" s="24" t="s">
         <v>168</v>
       </c>
       <c r="J157" s="9" t="s">
@@ -22408,7 +22414,7 @@
       </c>
       <c r="G160" s="0"/>
       <c r="H160" s="0"/>
-      <c r="I160" s="23"/>
+      <c r="I160" s="24"/>
       <c r="J160" s="0"/>
       <c r="K160" s="0"/>
       <c r="L160" s="0"/>
@@ -22452,7 +22458,7 @@
       </c>
       <c r="G162" s="0"/>
       <c r="H162" s="0"/>
-      <c r="I162" s="23"/>
+      <c r="I162" s="24"/>
       <c r="J162" s="0"/>
       <c r="K162" s="0"/>
       <c r="L162" s="0"/>
